--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="3495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10096" uniqueCount="3598">
   <si>
     <t>trackID</t>
   </si>
@@ -10506,6 +10506,315 @@
   </si>
   <si>
     <t>Iron River Area</t>
+  </si>
+  <si>
+    <t>Superstition Wilderness</t>
+  </si>
+  <si>
+    <t>WVCV01</t>
+  </si>
+  <si>
+    <t>arrive Wave Cave</t>
+  </si>
+  <si>
+    <t>WVCV02</t>
+  </si>
+  <si>
+    <t>WVCV03</t>
+  </si>
+  <si>
+    <t>WVCV04</t>
+  </si>
+  <si>
+    <t>PFMT01</t>
+  </si>
+  <si>
+    <t>arrive Fremont Saddle</t>
+  </si>
+  <si>
+    <t>PNNT01</t>
+  </si>
+  <si>
+    <t>Fremont Saddle to Weaver's Needle Pinion Tree</t>
+  </si>
+  <si>
+    <t>leave Fremont Saddle</t>
+  </si>
+  <si>
+    <t>arrive Pinion Tree</t>
+  </si>
+  <si>
+    <t>CVFS01</t>
+  </si>
+  <si>
+    <t>leave Peralta Tr (102)</t>
+  </si>
+  <si>
+    <t>Dacite Cliff Mine Tr</t>
+  </si>
+  <si>
+    <t>CVFS02</t>
+  </si>
+  <si>
+    <t>merge Bluff Spring Tr (235)</t>
+  </si>
+  <si>
+    <t>CVFS03</t>
+  </si>
+  <si>
+    <t>CVFS04</t>
+  </si>
+  <si>
+    <t>arrive Peralta TH</t>
+  </si>
+  <si>
+    <t>MSCR01</t>
+  </si>
+  <si>
+    <t>MSCR02</t>
+  </si>
+  <si>
+    <t>MSCR03</t>
+  </si>
+  <si>
+    <t>Massacre Grounds Tr</t>
+  </si>
+  <si>
+    <t>Massacre Grounds Tr (Waterfall spur)</t>
+  </si>
+  <si>
+    <t>Massacre Grounds Peak</t>
+  </si>
+  <si>
+    <t>Massacre Grounds Waterfall</t>
+  </si>
+  <si>
+    <t>MSCR02, MSCR03</t>
+  </si>
+  <si>
+    <t>MSCR01, MSCR03</t>
+  </si>
+  <si>
+    <t>HGPH01</t>
+  </si>
+  <si>
+    <t>Heiroglyphics Tr</t>
+  </si>
+  <si>
+    <t>Crosscut TH parking</t>
+  </si>
+  <si>
+    <t>Heiroglphics TH parking</t>
+  </si>
+  <si>
+    <t>Peralto Tr (102) to Fremont Saddle</t>
+  </si>
+  <si>
+    <t>leave Peralta TH parking</t>
+  </si>
+  <si>
+    <t>Carney Springs TH parking</t>
+  </si>
+  <si>
+    <t>Cave Trail Hike (across Fremont Saddle)</t>
+  </si>
+  <si>
+    <t>Cave Trail Hike (Bluff Spring Tr)</t>
+  </si>
+  <si>
+    <t>Cave Trail Hike (Dutchman's Tr)</t>
+  </si>
+  <si>
+    <t>Wave Cave Hike (Lost Goldmine Tr East)</t>
+  </si>
+  <si>
+    <t>Lost Goldmine Tr East</t>
+  </si>
+  <si>
+    <t>Heiroglyphics Canyon</t>
+  </si>
+  <si>
+    <t>HGPH02</t>
+  </si>
+  <si>
+    <t>BMSA01</t>
+  </si>
+  <si>
+    <t>Black Mesa Hike (Dutchman's Tr 104)</t>
+  </si>
+  <si>
+    <t>First Water TH parking</t>
+  </si>
+  <si>
+    <t>Second Water Tr (236)</t>
+  </si>
+  <si>
+    <t>Tim's Saddle Tr</t>
+  </si>
+  <si>
+    <t>W Boulder Canyon Tr</t>
+  </si>
+  <si>
+    <t>Boulder Canyon Tr (103)</t>
+  </si>
+  <si>
+    <t>BMSA02</t>
+  </si>
+  <si>
+    <t>BMSA03</t>
+  </si>
+  <si>
+    <t>BMSA04</t>
+  </si>
+  <si>
+    <t>BMSA05</t>
+  </si>
+  <si>
+    <t>BMSA06</t>
+  </si>
+  <si>
+    <t>BMSA07</t>
+  </si>
+  <si>
+    <t>Black Mesa Hike (Bull Pass Tr 129)</t>
+  </si>
+  <si>
+    <t>leave Dutchman's Tr / start Bull Pass Tr</t>
+  </si>
+  <si>
+    <t>Black Top Mesa</t>
+  </si>
+  <si>
+    <t>BMSA08</t>
+  </si>
+  <si>
+    <t>BMSA10</t>
+  </si>
+  <si>
+    <t>Black Mesa Hike (Black Mesa Tr 241)</t>
+  </si>
+  <si>
+    <t>Black Mesa Tr (241)</t>
+  </si>
+  <si>
+    <t>leave Dutchman's Tr / start Black Mesa Tr</t>
+  </si>
+  <si>
+    <t>BMSA04, BMSA05</t>
+  </si>
+  <si>
+    <t>BMSA06, BMSA10</t>
+  </si>
+  <si>
+    <t>BMSA05, BMSA10</t>
+  </si>
+  <si>
+    <t>leave Black Mesa Tr / start Second Water Tr</t>
+  </si>
+  <si>
+    <t>Black Mesa Hike (Second Water Tr 236)</t>
+  </si>
+  <si>
+    <t>BMSA11</t>
+  </si>
+  <si>
+    <t>Hackberry Springs Tr [South]</t>
+  </si>
+  <si>
+    <t>Hackberry Springs Tr [North]</t>
+  </si>
+  <si>
+    <t>Dutchman's Tr (104)</t>
+  </si>
+  <si>
+    <t>BMSA12</t>
+  </si>
+  <si>
+    <t>BMSA13</t>
+  </si>
+  <si>
+    <t>BMSA01, BMSA02</t>
+  </si>
+  <si>
+    <t>BMSA02, BMSA13</t>
+  </si>
+  <si>
+    <t>BMSA01, BMSA13</t>
+  </si>
+  <si>
+    <t>Black Mesa Hike (Black Top Mesa Tr)</t>
+  </si>
+  <si>
+    <t>leave Bull Pass Tr / start Black Top Mesa Tr</t>
+  </si>
+  <si>
+    <t>leave Bull Pass Tr / Black Top Mesa Tr</t>
+  </si>
+  <si>
+    <t>Wave Cave Hike (Carney Springs Tr)</t>
+  </si>
+  <si>
+    <t>merge Carney Springs Tr</t>
+  </si>
+  <si>
+    <t>leave Carney Springs Tr / start Wave Cave Tr</t>
+  </si>
+  <si>
+    <t>Wave Cave Hike (Wave Cave Tr)</t>
+  </si>
+  <si>
+    <t>Cave Trail Hike (Cave TR)</t>
+  </si>
+  <si>
+    <t>merge Dutchman's Tr (104)</t>
+  </si>
+  <si>
+    <t>IMG_0438</t>
+  </si>
+  <si>
+    <t>IMG_0441</t>
+  </si>
+  <si>
+    <t>IMG_0444</t>
+  </si>
+  <si>
+    <t>IMG_0446</t>
+  </si>
+  <si>
+    <t>IMG_0448</t>
+  </si>
+  <si>
+    <t>IMG_0451</t>
+  </si>
+  <si>
+    <t>IMG_0455</t>
+  </si>
+  <si>
+    <t>IMG_0461</t>
+  </si>
+  <si>
+    <t>IMG_0463</t>
+  </si>
+  <si>
+    <t>IMG_0468</t>
+  </si>
+  <si>
+    <t>Kim with a Saguaro</t>
+  </si>
+  <si>
+    <t>Typical scenery in Spring 2022</t>
+  </si>
+  <si>
+    <t>Kim climbing to the Wave Cave</t>
+  </si>
+  <si>
+    <t>Us at the Wave Cave</t>
+  </si>
+  <si>
+    <t>Wave Cave</t>
+  </si>
+  <si>
+    <t>Looking back to the Wave Cave</t>
   </si>
 </sst>
 </file>
@@ -10854,13 +11163,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1002"/>
+  <dimension ref="A1:X1028"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B992" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="G1004" sqref="G1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37780,7 +38089,732 @@
       </c>
     </row>
     <row r="1002" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1002" s="3" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1002" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D1002">
+        <v>2022</v>
+      </c>
+      <c r="E1002" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1002" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G1002" s="3" t="s">
+        <v>3509</v>
+      </c>
       <c r="H1002" s="3"/>
+      <c r="I1002" s="3" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1003" s="3" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C1003" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D1003">
+        <v>2022</v>
+      </c>
+      <c r="E1003" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1003" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G1003" s="3" t="s">
+        <v>3577</v>
+      </c>
+      <c r="H1003" s="3" t="s">
+        <v>3496</v>
+      </c>
+      <c r="I1003" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1004" s="3" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C1004" s="3" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D1004">
+        <v>2022</v>
+      </c>
+      <c r="E1004" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1004" s="3" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G1004" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="H1004" s="3" t="s">
+        <v>3498</v>
+      </c>
+      <c r="I1004" s="3" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1005" s="3" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C1005" s="3" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D1005">
+        <v>2022</v>
+      </c>
+      <c r="E1005" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1005" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G1005" s="3" t="s">
+        <v>3497</v>
+      </c>
+      <c r="H1005" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1006" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C1006" s="3" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D1006">
+        <v>2022</v>
+      </c>
+      <c r="E1006" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1006" s="3" t="s">
+        <v>3529</v>
+      </c>
+      <c r="G1006" s="3" t="s">
+        <v>3502</v>
+      </c>
+      <c r="I1006" s="3" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1007" s="3" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D1007">
+        <v>2022</v>
+      </c>
+      <c r="E1007" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1007" s="3" t="s">
+        <v>3505</v>
+      </c>
+      <c r="G1007" s="3" t="s">
+        <v>3506</v>
+      </c>
+      <c r="H1007" s="3" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1008" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C1008" s="3" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D1008">
+        <v>2022</v>
+      </c>
+      <c r="E1008" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1008" s="3" t="s">
+        <v>3508</v>
+      </c>
+      <c r="G1008" s="3" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1009" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C1009" s="3" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D1009">
+        <v>2022</v>
+      </c>
+      <c r="E1009" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1009" s="3" t="s">
+        <v>3505</v>
+      </c>
+      <c r="G1009" s="3" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1010" s="3" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C1010" s="3" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D1010">
+        <v>2022</v>
+      </c>
+      <c r="E1010" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1010" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="G1010" s="3" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1011" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C1011" s="3" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D1011">
+        <v>2022</v>
+      </c>
+      <c r="E1011" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1011" s="3" t="s">
+        <v>3581</v>
+      </c>
+      <c r="G1011" s="3" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1012" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C1012" s="3" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D1012">
+        <v>2022</v>
+      </c>
+      <c r="E1012" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1012" s="3" t="s">
+        <v>3526</v>
+      </c>
+      <c r="G1012" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="I1012" s="3" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1013" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C1013" s="3" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D1013">
+        <v>2022</v>
+      </c>
+      <c r="E1013" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1013" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="G1013" s="3" t="s">
+        <v>3520</v>
+      </c>
+      <c r="H1013" s="3" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C1014" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D1014">
+        <v>2022</v>
+      </c>
+      <c r="E1014" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1014" s="3" t="s">
+        <v>3518</v>
+      </c>
+      <c r="G1014" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="H1014" s="3" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1015" s="3" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C1015" s="3" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D1015">
+        <v>2022</v>
+      </c>
+      <c r="E1015" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1015" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="G1015" s="3" t="s">
+        <v>3535</v>
+      </c>
+      <c r="I1015" s="3" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1016" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C1016" s="3" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D1016">
+        <v>2022</v>
+      </c>
+      <c r="E1016" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1016" s="3" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G1016" s="3" t="s">
+        <v>3536</v>
+      </c>
+      <c r="H1016" s="3" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1017" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C1017" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1017">
+        <v>2022</v>
+      </c>
+      <c r="E1017" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1017" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G1017" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="I1017" s="3" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1018" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C1018" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1018">
+        <v>2022</v>
+      </c>
+      <c r="E1018" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1018" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G1018" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="H1018" s="3" t="s">
+        <v>3572</v>
+      </c>
+      <c r="I1018" s="3" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1019" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C1019" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1019">
+        <v>2022</v>
+      </c>
+      <c r="E1019" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1019" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="G1019" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="H1019" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="I1019" s="3" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1020" s="3" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C1020" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1020">
+        <v>2022</v>
+      </c>
+      <c r="E1020" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1020" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="G1020" s="3" t="s">
+        <v>3557</v>
+      </c>
+      <c r="H1020" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="I1020" s="3" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1021" s="3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C1021" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1021">
+        <v>2022</v>
+      </c>
+      <c r="E1021" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1021" s="3" t="s">
+        <v>3557</v>
+      </c>
+      <c r="G1021" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="H1021" s="3" t="s">
+        <v>3547</v>
+      </c>
+      <c r="I1021" s="3" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1022" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1022" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1022">
+        <v>2022</v>
+      </c>
+      <c r="E1022" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1022" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="G1022" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="H1022" s="3" t="s">
+        <v>3561</v>
+      </c>
+      <c r="I1022" s="3" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1023" s="3" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C1023" s="3" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D1023">
+        <v>2022</v>
+      </c>
+      <c r="E1023" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1023" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="G1023" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="H1023" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I1023" s="3" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1024" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C1024" s="3" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D1024">
+        <v>2022</v>
+      </c>
+      <c r="E1024" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1024" s="3" t="s">
+        <v>3574</v>
+      </c>
+      <c r="G1024" s="3" t="s">
+        <v>3553</v>
+      </c>
+      <c r="H1024" s="3" t="s">
+        <v>3550</v>
+      </c>
+      <c r="I1024" s="3"/>
+    </row>
+    <row r="1025" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1025" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C1025" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D1025">
+        <v>2022</v>
+      </c>
+      <c r="E1025" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1025" s="3" t="s">
+        <v>3558</v>
+      </c>
+      <c r="G1025" s="3" t="s">
+        <v>3562</v>
+      </c>
+      <c r="H1025" s="3" t="s">
+        <v>3559</v>
+      </c>
+      <c r="I1025" s="3" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1026" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1026" s="3" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D1026">
+        <v>2022</v>
+      </c>
+      <c r="E1026" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1026" s="3" t="s">
+        <v>3562</v>
+      </c>
+      <c r="G1026" s="3" t="s">
+        <v>3566</v>
+      </c>
+      <c r="H1026" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="I1026" s="3" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1027" s="3" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D1027">
+        <v>2022</v>
+      </c>
+      <c r="E1027" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1027" s="3" t="s">
+        <v>3566</v>
+      </c>
+      <c r="G1027" s="3" t="s">
+        <v>3565</v>
+      </c>
+      <c r="H1027" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I1027" s="3" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1028" s="3" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C1028" s="3" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D1028">
+        <v>2022</v>
+      </c>
+      <c r="E1028" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1028" s="3" t="s">
+        <v>3565</v>
+      </c>
+      <c r="G1028" s="3" t="s">
+        <v>3567</v>
+      </c>
+      <c r="H1028" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I1028" s="3" t="s">
+        <v>3570</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64114,16 +65148,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z411"/>
+  <dimension ref="A1:Z421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
@@ -69921,6 +70955,146 @@
         <v>3138</v>
       </c>
     </row>
+    <row r="412" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B412" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C412" s="16" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D412" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B413" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C413" s="16" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D413" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B414" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C414" s="16" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D414" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B415" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C415" s="16" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D415" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B416" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C416" s="16" t="s">
+        <v>3586</v>
+      </c>
+      <c r="D416" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B417" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C417" s="16" t="s">
+        <v>3587</v>
+      </c>
+      <c r="D417" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B418" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C418" s="16" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D418" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B419" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C419" s="16" t="s">
+        <v>3589</v>
+      </c>
+      <c r="D419" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B420" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C420" s="16" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D420" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B421" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C421" s="16" t="s">
+        <v>3591</v>
+      </c>
+      <c r="D421" t="s">
+        <v>3597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10096" uniqueCount="3598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10380" uniqueCount="3704">
   <si>
     <t>trackID</t>
   </si>
@@ -10799,9 +10799,6 @@
     <t>IMG_0468</t>
   </si>
   <si>
-    <t>Kim with a Saguaro</t>
-  </si>
-  <si>
     <t>Typical scenery in Spring 2022</t>
   </si>
   <si>
@@ -10815,6 +10812,327 @@
   </si>
   <si>
     <t>Looking back to the Wave Cave</t>
+  </si>
+  <si>
+    <t>IMG_0481</t>
+  </si>
+  <si>
+    <t>IMG_0487</t>
+  </si>
+  <si>
+    <t>IMG_0488</t>
+  </si>
+  <si>
+    <t>IMG_0492</t>
+  </si>
+  <si>
+    <t>IMG_0496</t>
+  </si>
+  <si>
+    <t>IMG_0497</t>
+  </si>
+  <si>
+    <t>IMG_0500</t>
+  </si>
+  <si>
+    <t>IMG_0502</t>
+  </si>
+  <si>
+    <t>IMG_0504</t>
+  </si>
+  <si>
+    <t>IMG_0507</t>
+  </si>
+  <si>
+    <t>IMG_0513</t>
+  </si>
+  <si>
+    <t>IMG_0516</t>
+  </si>
+  <si>
+    <t>IMG_0517</t>
+  </si>
+  <si>
+    <t>IMG_0521</t>
+  </si>
+  <si>
+    <t>IMG_0527</t>
+  </si>
+  <si>
+    <t>IMG_0528</t>
+  </si>
+  <si>
+    <t>IMG_0529</t>
+  </si>
+  <si>
+    <t>Looking further up the canyon</t>
+  </si>
+  <si>
+    <t>Petroglyphs</t>
+  </si>
+  <si>
+    <t>Kim and I in the canyon</t>
+  </si>
+  <si>
+    <t>Ocotillo</t>
+  </si>
+  <si>
+    <t>Blooming Poppy spp.</t>
+  </si>
+  <si>
+    <t>Blooming something(?)</t>
+  </si>
+  <si>
+    <t>Prickly Pear Cactus</t>
+  </si>
+  <si>
+    <t>Saguaro Cactus</t>
+  </si>
+  <si>
+    <t>Old-man Cactus (?)</t>
+  </si>
+  <si>
+    <t>Kim with a Saguaro Cactus</t>
+  </si>
+  <si>
+    <t>IMG_0584</t>
+  </si>
+  <si>
+    <t>IMG_0586</t>
+  </si>
+  <si>
+    <t>IMG_0588</t>
+  </si>
+  <si>
+    <t>IMG_0590</t>
+  </si>
+  <si>
+    <t>IMG_0594</t>
+  </si>
+  <si>
+    <t>IMG_0596</t>
+  </si>
+  <si>
+    <t>IMG_0601</t>
+  </si>
+  <si>
+    <t>IMG_0605</t>
+  </si>
+  <si>
+    <t>IMG_0607</t>
+  </si>
+  <si>
+    <t>IMG_0611</t>
+  </si>
+  <si>
+    <t>IMG_0614</t>
+  </si>
+  <si>
+    <t>IMG_0616</t>
+  </si>
+  <si>
+    <t>IMG_0622</t>
+  </si>
+  <si>
+    <t>IMG_0625</t>
+  </si>
+  <si>
+    <t>IMG_0627</t>
+  </si>
+  <si>
+    <t>IMG_0631</t>
+  </si>
+  <si>
+    <t>IMG_0633</t>
+  </si>
+  <si>
+    <t>Sign near trailhead</t>
+  </si>
+  <si>
+    <t>Kim and I on Fremont Saddle</t>
+  </si>
+  <si>
+    <t>Weaver's Needle from Fremont Saddle</t>
+  </si>
+  <si>
+    <t>Weaver's Needle on way to Pinion tree</t>
+  </si>
+  <si>
+    <t>Pinion tree</t>
+  </si>
+  <si>
+    <t>Kim scrambling</t>
+  </si>
+  <si>
+    <t>Thankful for cairns</t>
+  </si>
+  <si>
+    <t>IMG_0658</t>
+  </si>
+  <si>
+    <t>IMG_0662</t>
+  </si>
+  <si>
+    <t>IMG_0667</t>
+  </si>
+  <si>
+    <t>IMG_0669</t>
+  </si>
+  <si>
+    <t>IMG_0671</t>
+  </si>
+  <si>
+    <t>IMG_0673</t>
+  </si>
+  <si>
+    <t>IMG_0675</t>
+  </si>
+  <si>
+    <t>IMG_0676</t>
+  </si>
+  <si>
+    <t>IMG_0681</t>
+  </si>
+  <si>
+    <t>IMG_0686</t>
+  </si>
+  <si>
+    <t>IMG_0691</t>
+  </si>
+  <si>
+    <t>IMG_0693</t>
+  </si>
+  <si>
+    <t>IMG_0699</t>
+  </si>
+  <si>
+    <t>IMG_0702</t>
+  </si>
+  <si>
+    <t>IMG_0704</t>
+  </si>
+  <si>
+    <t>IMG_0706</t>
+  </si>
+  <si>
+    <t>IMG_0708</t>
+  </si>
+  <si>
+    <t>IMG_0712</t>
+  </si>
+  <si>
+    <t>IMG_0716</t>
+  </si>
+  <si>
+    <t>IMG_0722</t>
+  </si>
+  <si>
+    <t>IMG_0725</t>
+  </si>
+  <si>
+    <t>IMG_0726</t>
+  </si>
+  <si>
+    <t>A reminder</t>
+  </si>
+  <si>
+    <t>Sign to Bull Pass Tr</t>
+  </si>
+  <si>
+    <t>Tiny view of Weaver's Needle</t>
+  </si>
+  <si>
+    <t>Climbing to Black Top Mesa</t>
+  </si>
+  <si>
+    <t>Nearing the top of Black Top Mesa</t>
+  </si>
+  <si>
+    <t>Weaver's Needle from Black Top Mesa</t>
+  </si>
+  <si>
+    <t>Looking back on Black Top Mesa</t>
+  </si>
+  <si>
+    <t>Grazing horses on Black Top Mesa</t>
+  </si>
+  <si>
+    <t>Switching trails for return trip</t>
+  </si>
+  <si>
+    <t>Switching trails on return trip</t>
+  </si>
+  <si>
+    <t>Something blooming</t>
+  </si>
+  <si>
+    <t>Kim with Weaver's Needle</t>
+  </si>
+  <si>
+    <t>IMG_0777</t>
+  </si>
+  <si>
+    <t>IMG_0780</t>
+  </si>
+  <si>
+    <t>IMG_0785</t>
+  </si>
+  <si>
+    <t>IMG_0787</t>
+  </si>
+  <si>
+    <t>IMG_0794</t>
+  </si>
+  <si>
+    <t>IMG_0797</t>
+  </si>
+  <si>
+    <t>IMG_0798</t>
+  </si>
+  <si>
+    <t>IMG_0803</t>
+  </si>
+  <si>
+    <t>IMG_0810</t>
+  </si>
+  <si>
+    <t>IMG_0813</t>
+  </si>
+  <si>
+    <t>IMG_0816</t>
+  </si>
+  <si>
+    <t>IMG_0818</t>
+  </si>
+  <si>
+    <t>IMG_0824</t>
+  </si>
+  <si>
+    <t>IMG_0832</t>
+  </si>
+  <si>
+    <t>IMG_0838</t>
+  </si>
+  <si>
+    <t>Cliff at end of trail</t>
+  </si>
+  <si>
+    <t>Massacre Falls</t>
+  </si>
+  <si>
+    <t>Kim and I at Massacre Falls</t>
+  </si>
+  <si>
+    <t>Me with Prickly Pear Cactus</t>
+  </si>
+  <si>
+    <t>Me with ??? Cactus</t>
+  </si>
+  <si>
+    <t>Me with Ocotilla</t>
+  </si>
+  <si>
+    <t>Kim on the trail</t>
   </si>
 </sst>
 </file>
@@ -11166,10 +11484,10 @@
   <dimension ref="A1:X1028"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B992" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1009" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1004" sqref="G1004"/>
+      <selection pane="bottomRight" activeCell="B1012" sqref="B1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -65148,11 +65466,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z421"/>
+  <dimension ref="A1:Z492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A422" sqref="A422"/>
+      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D487" sqref="D487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -70966,7 +71284,7 @@
         <v>3582</v>
       </c>
       <c r="D412" t="s">
-        <v>3592</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -70980,7 +71298,7 @@
         <v>3583</v>
       </c>
       <c r="D413" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -70994,7 +71312,7 @@
         <v>3584</v>
       </c>
       <c r="D414" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71008,7 +71326,7 @@
         <v>3585</v>
       </c>
       <c r="D415" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71022,7 +71340,7 @@
         <v>3586</v>
       </c>
       <c r="D416" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71036,7 +71354,7 @@
         <v>3587</v>
       </c>
       <c r="D417" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71050,7 +71368,7 @@
         <v>3588</v>
       </c>
       <c r="D418" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71064,7 +71382,7 @@
         <v>3589</v>
       </c>
       <c r="D419" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71078,7 +71396,7 @@
         <v>3590</v>
       </c>
       <c r="D420" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71092,7 +71410,1001 @@
         <v>3591</v>
       </c>
       <c r="D421" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C422" s="16" t="s">
         <v>3597</v>
+      </c>
+      <c r="D422" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C423" s="16" t="s">
+        <v>3598</v>
+      </c>
+      <c r="D423" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D424" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C425" s="16" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D425" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C426" s="16" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D426" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C427" s="16" t="s">
+        <v>3602</v>
+      </c>
+      <c r="D427" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C428" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D428" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C429" s="16" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D429" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C430" s="16" t="s">
+        <v>3605</v>
+      </c>
+      <c r="D430" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C431" s="16" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D431" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C432" s="16" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D432" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C433" s="16" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D433" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C434" s="16" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D434" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C435" s="16" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D435" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C436" s="16" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D436" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C437" s="16" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D437" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C438" s="16" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D438" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C439" s="16" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D439" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C440" s="16" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D440" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C441" s="16" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D441" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C442" s="16" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D442" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C443" s="16" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D443" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C444" s="16" t="s">
+        <v>3629</v>
+      </c>
+      <c r="D444" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C445" s="16" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D445" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C446" s="16" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D446" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C447" s="16" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D447" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C448" s="16" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D448" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C449" s="16" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D449" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C450" s="16" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D450" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C451" s="16" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D451" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C452" s="16" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D452" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C453" s="16" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D453" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C454" s="16" t="s">
+        <v>3639</v>
+      </c>
+      <c r="D454" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C455" s="16" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C456" s="16" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D456" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C457" s="16" t="s">
+        <v>3649</v>
+      </c>
+      <c r="D457" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C458" s="16" t="s">
+        <v>3650</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C459" s="16" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D459" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C460" s="16" t="s">
+        <v>3652</v>
+      </c>
+      <c r="D460" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C461" s="16" t="s">
+        <v>3653</v>
+      </c>
+      <c r="D461" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C462" s="16" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D462" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C463" s="16" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D463" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C464" s="16" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D464" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C465" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="D465" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C466" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="D466" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C467" s="16" t="s">
+        <v>3659</v>
+      </c>
+      <c r="D467" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C468" s="16" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D468" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C469" s="16" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D469" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C470" s="16" t="s">
+        <v>3662</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C471" s="16" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D471" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C472" s="16" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D472" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C473" s="16" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D473" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C474" s="16" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D474" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C475" s="16" t="s">
+        <v>3667</v>
+      </c>
+      <c r="D475" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C476" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D476" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C477" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D477" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C478" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D478" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C479" s="16" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D479" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C480" s="16" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D480" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C481" s="16" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D481" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C482" s="16" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D482" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C483" s="16" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D483" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C484" s="16" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D484" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C485" s="16" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D485" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C486" s="16" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D486" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C487" s="16" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D487" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C488" s="16" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D488" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C489" s="16" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D489" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C490" s="16" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D490" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C491" s="16" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D491" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="10" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C492" s="16" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D492" t="s">
+        <v>3701</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -10763,9 +10763,6 @@
     <t>Wave Cave Hike (Wave Cave Tr)</t>
   </si>
   <si>
-    <t>Cave Trail Hike (Cave TR)</t>
-  </si>
-  <si>
     <t>merge Dutchman's Tr (104)</t>
   </si>
   <si>
@@ -10952,12 +10949,6 @@
     <t>Kim and I on Fremont Saddle</t>
   </si>
   <si>
-    <t>Weaver's Needle from Fremont Saddle</t>
-  </si>
-  <si>
-    <t>Weaver's Needle on way to Pinion tree</t>
-  </si>
-  <si>
     <t>Pinion tree</t>
   </si>
   <si>
@@ -11039,18 +11030,12 @@
     <t>Sign to Bull Pass Tr</t>
   </si>
   <si>
-    <t>Tiny view of Weaver's Needle</t>
-  </si>
-  <si>
     <t>Climbing to Black Top Mesa</t>
   </si>
   <si>
     <t>Nearing the top of Black Top Mesa</t>
   </si>
   <si>
-    <t>Weaver's Needle from Black Top Mesa</t>
-  </si>
-  <si>
     <t>Looking back on Black Top Mesa</t>
   </si>
   <si>
@@ -11066,9 +11051,6 @@
     <t>Something blooming</t>
   </si>
   <si>
-    <t>Kim with Weaver's Needle</t>
-  </si>
-  <si>
     <t>IMG_0777</t>
   </si>
   <si>
@@ -11133,6 +11115,24 @@
   </si>
   <si>
     <t>Kim on the trail</t>
+  </si>
+  <si>
+    <t>Tiny view of Weavers Needle</t>
+  </si>
+  <si>
+    <t>Kim with Weavers Needle</t>
+  </si>
+  <si>
+    <t>Weavers Needle from Black Top Mesa</t>
+  </si>
+  <si>
+    <t>Weavers Needle from Fremont Saddle</t>
+  </si>
+  <si>
+    <t>Weavers Needle on way to Pinion tree</t>
+  </si>
+  <si>
+    <t>Cave Trail Hike (Cave TR 233)</t>
   </si>
 </sst>
 </file>
@@ -11483,11 +11483,11 @@
   </sheetPr>
   <dimension ref="A1:X1028"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1009" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B997" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1012" sqref="B1012"/>
+      <selection pane="bottomRight" activeCell="C1010" sqref="C1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38600,7 +38600,7 @@
         <v>3510</v>
       </c>
       <c r="C1009" s="3" t="s">
-        <v>3580</v>
+        <v>3703</v>
       </c>
       <c r="D1009">
         <v>2022</v>
@@ -38635,7 +38635,7 @@
         <v>3511</v>
       </c>
       <c r="G1010" s="3" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="1011" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38655,7 +38655,7 @@
         <v>10</v>
       </c>
       <c r="F1011" s="3" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="G1011" s="3" t="s">
         <v>3514</v>
@@ -65468,9 +65468,9 @@
   </sheetPr>
   <dimension ref="A1:Z492"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D487" sqref="D487"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D488" sqref="D488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -71281,10 +71281,10 @@
         <v>3496</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="D412" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71295,10 +71295,10 @@
         <v>3496</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="D413" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71309,10 +71309,10 @@
         <v>3499</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D414" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71323,10 +71323,10 @@
         <v>3500</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="D415" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71337,10 +71337,10 @@
         <v>3500</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="D416" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71351,10 +71351,10 @@
         <v>3500</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="D417" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71365,10 +71365,10 @@
         <v>3500</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="D418" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71379,10 +71379,10 @@
         <v>3500</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="D419" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71393,10 +71393,10 @@
         <v>3500</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="D420" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71407,10 +71407,10 @@
         <v>3500</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="D421" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71421,10 +71421,10 @@
         <v>3537</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="D422" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71435,10 +71435,10 @@
         <v>3537</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="D423" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71449,10 +71449,10 @@
         <v>3537</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="D424" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71463,10 +71463,10 @@
         <v>3537</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="D425" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71477,10 +71477,10 @@
         <v>3537</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="D426" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71491,10 +71491,10 @@
         <v>3537</v>
       </c>
       <c r="C427" s="16" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="D427" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71505,10 +71505,10 @@
         <v>3537</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="D428" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71519,10 +71519,10 @@
         <v>3537</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="D429" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71533,10 +71533,10 @@
         <v>3537</v>
       </c>
       <c r="C430" s="16" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="D430" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71547,10 +71547,10 @@
         <v>3537</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D431" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71561,10 +71561,10 @@
         <v>3537</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="D432" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71575,10 +71575,10 @@
         <v>3537</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="D433" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71589,10 +71589,10 @@
         <v>3537</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="D434" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71603,10 +71603,10 @@
         <v>3537</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="D435" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71617,10 +71617,10 @@
         <v>3537</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="D436" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71631,10 +71631,10 @@
         <v>3537</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="D437" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71645,10 +71645,10 @@
         <v>3537</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="D438" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71659,10 +71659,10 @@
         <v>3501</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="D439" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71673,10 +71673,10 @@
         <v>3501</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="D440" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71687,10 +71687,10 @@
         <v>3501</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="D441" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71701,10 +71701,10 @@
         <v>3501</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="D442" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71715,10 +71715,10 @@
         <v>3501</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D443" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71729,10 +71729,10 @@
         <v>3501</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="D444" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71743,10 +71743,10 @@
         <v>3507</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="D445" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71757,10 +71757,10 @@
         <v>3507</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="D446" t="s">
-        <v>3643</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71771,10 +71771,10 @@
         <v>3507</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="D447" t="s">
-        <v>3644</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71785,10 +71785,10 @@
         <v>3503</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="D448" t="s">
-        <v>3645</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71799,10 +71799,10 @@
         <v>3510</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="D449" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71813,10 +71813,10 @@
         <v>3510</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="D450" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71827,10 +71827,10 @@
         <v>3510</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="D451" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71841,10 +71841,10 @@
         <v>3510</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="D452" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71855,10 +71855,10 @@
         <v>3510</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="D453" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71869,10 +71869,10 @@
         <v>3510</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="D454" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71883,10 +71883,10 @@
         <v>3510</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="D455" t="s">
-        <v>3647</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71897,10 +71897,10 @@
         <v>3538</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>3648</v>
+        <v>3645</v>
       </c>
       <c r="D456" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71911,10 +71911,10 @@
         <v>3538</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>3649</v>
+        <v>3646</v>
       </c>
       <c r="D457" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71925,10 +71925,10 @@
         <v>3545</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>3650</v>
+        <v>3647</v>
       </c>
       <c r="D458" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71939,10 +71939,10 @@
         <v>3545</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>3651</v>
+        <v>3648</v>
       </c>
       <c r="D459" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71953,10 +71953,10 @@
         <v>3545</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>3652</v>
+        <v>3649</v>
       </c>
       <c r="D460" t="s">
-        <v>3672</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71967,10 +71967,10 @@
         <v>3546</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>3653</v>
+        <v>3650</v>
       </c>
       <c r="D461" t="s">
-        <v>3670</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -71981,7 +71981,7 @@
         <v>3548</v>
       </c>
       <c r="C462" s="16" t="s">
-        <v>3654</v>
+        <v>3651</v>
       </c>
       <c r="D462" t="s">
         <v>3553</v>
@@ -71995,10 +71995,10 @@
         <v>3549</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
       <c r="D463" t="s">
-        <v>3671</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72009,10 +72009,10 @@
         <v>3554</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>3656</v>
+        <v>3653</v>
       </c>
       <c r="D464" t="s">
-        <v>3673</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72023,10 +72023,10 @@
         <v>3554</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>3657</v>
+        <v>3654</v>
       </c>
       <c r="D465" t="s">
-        <v>3674</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72037,10 +72037,10 @@
         <v>3554</v>
       </c>
       <c r="C466" s="16" t="s">
-        <v>3658</v>
+        <v>3655</v>
       </c>
       <c r="D466" t="s">
-        <v>3675</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72051,7 +72051,7 @@
         <v>3554</v>
       </c>
       <c r="C467" s="16" t="s">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="D467" t="s">
         <v>3553</v>
@@ -72065,7 +72065,7 @@
         <v>3554</v>
       </c>
       <c r="C468" s="16" t="s">
-        <v>3660</v>
+        <v>3657</v>
       </c>
       <c r="D468" t="s">
         <v>3553</v>
@@ -72079,10 +72079,10 @@
         <v>3554</v>
       </c>
       <c r="C469" s="16" t="s">
-        <v>3661</v>
+        <v>3658</v>
       </c>
       <c r="D469" t="s">
-        <v>3677</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72093,10 +72093,10 @@
         <v>3554</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>3662</v>
+        <v>3659</v>
       </c>
       <c r="D470" t="s">
-        <v>3676</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72107,10 +72107,10 @@
         <v>3555</v>
       </c>
       <c r="C471" s="16" t="s">
-        <v>3663</v>
+        <v>3660</v>
       </c>
       <c r="D471" t="s">
-        <v>3678</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72121,10 +72121,10 @@
         <v>3555</v>
       </c>
       <c r="C472" s="16" t="s">
-        <v>3664</v>
+        <v>3661</v>
       </c>
       <c r="D472" t="s">
-        <v>3680</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72135,10 +72135,10 @@
         <v>3555</v>
       </c>
       <c r="C473" s="16" t="s">
-        <v>3665</v>
+        <v>3662</v>
       </c>
       <c r="D473" t="s">
-        <v>3681</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72149,10 +72149,10 @@
         <v>3555</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>3666</v>
+        <v>3663</v>
       </c>
       <c r="D474" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72163,10 +72163,10 @@
         <v>3555</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>3667</v>
+        <v>3664</v>
       </c>
       <c r="D475" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72177,10 +72177,10 @@
         <v>3564</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>3668</v>
+        <v>3665</v>
       </c>
       <c r="D476" t="s">
-        <v>3679</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72191,10 +72191,10 @@
         <v>3564</v>
       </c>
       <c r="C477" s="16" t="s">
-        <v>3669</v>
+        <v>3666</v>
       </c>
       <c r="D477" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72205,10 +72205,10 @@
         <v>3515</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>3682</v>
+        <v>3676</v>
       </c>
       <c r="D478" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72219,10 +72219,10 @@
         <v>3515</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="D479" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72233,10 +72233,10 @@
         <v>3516</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>3684</v>
+        <v>3678</v>
       </c>
       <c r="D480" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72247,10 +72247,10 @@
         <v>3516</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>3685</v>
+        <v>3679</v>
       </c>
       <c r="D481" t="s">
-        <v>3697</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72261,10 +72261,10 @@
         <v>3516</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>3686</v>
+        <v>3680</v>
       </c>
       <c r="D482" t="s">
-        <v>3697</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72275,10 +72275,10 @@
         <v>3516</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>3687</v>
+        <v>3681</v>
       </c>
       <c r="D483" t="s">
-        <v>3697</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72289,10 +72289,10 @@
         <v>3516</v>
       </c>
       <c r="C484" s="16" t="s">
-        <v>3688</v>
+        <v>3682</v>
       </c>
       <c r="D484" t="s">
-        <v>3697</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72303,10 +72303,10 @@
         <v>3517</v>
       </c>
       <c r="C485" s="16" t="s">
-        <v>3689</v>
+        <v>3683</v>
       </c>
       <c r="D485" t="s">
-        <v>3698</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72317,10 +72317,10 @@
         <v>3517</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>3690</v>
+        <v>3684</v>
       </c>
       <c r="D486" t="s">
-        <v>3699</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72331,10 +72331,10 @@
         <v>3515</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>3691</v>
+        <v>3685</v>
       </c>
       <c r="D487" t="s">
-        <v>3700</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72345,10 +72345,10 @@
         <v>3515</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>3692</v>
+        <v>3686</v>
       </c>
       <c r="D488" t="s">
-        <v>3701</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72359,10 +72359,10 @@
         <v>3515</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>3693</v>
+        <v>3687</v>
       </c>
       <c r="D489" t="s">
-        <v>3702</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72373,10 +72373,10 @@
         <v>3515</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>3694</v>
+        <v>3688</v>
       </c>
       <c r="D490" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72387,10 +72387,10 @@
         <v>3515</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>3695</v>
+        <v>3689</v>
       </c>
       <c r="D491" t="s">
-        <v>3703</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -72401,10 +72401,10 @@
         <v>3515</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>3696</v>
+        <v>3690</v>
       </c>
       <c r="D492" t="s">
-        <v>3701</v>
+        <v>3695</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10414" uniqueCount="3712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10490" uniqueCount="3741">
   <si>
     <t>trackID</t>
   </si>
@@ -11157,6 +11157,93 @@
   </si>
   <si>
     <t>South Jackman Lake Rd</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>PLPT01</t>
+  </si>
+  <si>
+    <t>Pulpit Rock Tr</t>
+  </si>
+  <si>
+    <t>PLPT02</t>
+  </si>
+  <si>
+    <t>PLPT03</t>
+  </si>
+  <si>
+    <t>PLPT04</t>
+  </si>
+  <si>
+    <t>PLPT05</t>
+  </si>
+  <si>
+    <t>PLPT06</t>
+  </si>
+  <si>
+    <t>PLPT07</t>
+  </si>
+  <si>
+    <t>PLPT08</t>
+  </si>
+  <si>
+    <t>PLPT02, PLPT05</t>
+  </si>
+  <si>
+    <t>PLPT01, PLPT05</t>
+  </si>
+  <si>
+    <t>PLPT03, PLPT06</t>
+  </si>
+  <si>
+    <t>PLPT02, PLPT06</t>
+  </si>
+  <si>
+    <t>PLPT04, PLPT07</t>
+  </si>
+  <si>
+    <t>PLPT03, PLPT07</t>
+  </si>
+  <si>
+    <t>PLPT01, PLPT02</t>
+  </si>
+  <si>
+    <t>PLPT02, PLPT03</t>
+  </si>
+  <si>
+    <t>PLPT07, PLPT08</t>
+  </si>
+  <si>
+    <t>PLPT06, PLPT08</t>
+  </si>
+  <si>
+    <t>PLTP07</t>
+  </si>
+  <si>
+    <t>Private Road</t>
+  </si>
+  <si>
+    <t>PLPT03, PLPT04</t>
+  </si>
+  <si>
+    <t>IMG_4337</t>
+  </si>
+  <si>
+    <t>IMG_4338</t>
+  </si>
+  <si>
+    <t>IMG_4340</t>
+  </si>
+  <si>
+    <t>IMG_4341</t>
+  </si>
+  <si>
+    <t>IMG_4343</t>
+  </si>
+  <si>
+    <t>IMG_4344</t>
   </si>
 </sst>
 </file>
@@ -11505,13 +11592,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1032"/>
+  <dimension ref="A1:X1040"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1007" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1019" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B1039" sqref="B1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39266,6 +39353,196 @@
       </c>
       <c r="H1032" s="3" t="s">
         <v>3499</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1033" s="3" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C1033" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1033" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1033" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1033" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1033" s="3" t="s">
+        <v>3717</v>
+      </c>
+      <c r="I1033" s="3" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1034" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C1034" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1034" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1034" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1034" s="3" t="s">
+        <v>3723</v>
+      </c>
+      <c r="I1034" s="3" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>3716</v>
+      </c>
+      <c r="C1035" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1035" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1035" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1035" s="3" t="s">
+        <v>3725</v>
+      </c>
+      <c r="I1035" s="3" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1036" s="3" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1036" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1036" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1036" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1036" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1036" s="3" t="s">
+        <v>3727</v>
+      </c>
+      <c r="I1036" s="3" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1037" s="3" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C1037" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1037" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1037" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1037" s="3" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1038" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1038" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1038" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="I1038" s="3" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C1039" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1039" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1039" s="3" t="s">
+        <v>3731</v>
+      </c>
+      <c r="I1039" s="3" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1040" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1040" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1040" s="3" t="s">
+        <v>3733</v>
+      </c>
+      <c r="H1040" s="3" t="s">
+        <v>3732</v>
       </c>
     </row>
   </sheetData>
@@ -65604,11 +65881,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z492"/>
+  <dimension ref="A1:Z498"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D488" sqref="D488"/>
+      <selection pane="bottomLeft" activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -72545,6 +72822,72 @@
         <v>3695</v>
       </c>
     </row>
+    <row r="493" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C493" s="16" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C494" s="16" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C495" s="16" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C496" s="16" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C497" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C498" s="16" t="s">
+        <v>3740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10490" uniqueCount="3741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10567" uniqueCount="3768">
   <si>
     <t>trackID</t>
   </si>
@@ -11228,9 +11228,6 @@
     <t>PLPT03, PLPT04</t>
   </si>
   <si>
-    <t>IMG_4337</t>
-  </si>
-  <si>
     <t>IMG_4338</t>
   </si>
   <si>
@@ -11244,6 +11241,90 @@
   </si>
   <si>
     <t>IMG_4344</t>
+  </si>
+  <si>
+    <t>Pulpit Rock from below</t>
+  </si>
+  <si>
+    <t>Pulpit Rock from above</t>
+  </si>
+  <si>
+    <t>Steps to view of Pulpit Rock</t>
+  </si>
+  <si>
+    <t>Panoramic view from above Pulpit Rock</t>
+  </si>
+  <si>
+    <t>Headed back down to the parking area</t>
+  </si>
+  <si>
+    <t>EVET01</t>
+  </si>
+  <si>
+    <t>EVET02</t>
+  </si>
+  <si>
+    <t>EVET03</t>
+  </si>
+  <si>
+    <t>EVET04</t>
+  </si>
+  <si>
+    <t>EVET05</t>
+  </si>
+  <si>
+    <t>Echo Valley Environmental Nature Trail</t>
+  </si>
+  <si>
+    <t>Parking area (near Echo Valley SP)</t>
+  </si>
+  <si>
+    <t>Echo Valley SP road</t>
+  </si>
+  <si>
+    <t>Unnamed trail</t>
+  </si>
+  <si>
+    <t>Glover's Creek trail</t>
+  </si>
+  <si>
+    <t>Picnic area</t>
+  </si>
+  <si>
+    <t>IMG_4399</t>
+  </si>
+  <si>
+    <t>IMG_4401</t>
+  </si>
+  <si>
+    <t>IMG_4402</t>
+  </si>
+  <si>
+    <t>IMG_4403</t>
+  </si>
+  <si>
+    <t>IMG_4404</t>
+  </si>
+  <si>
+    <t>Parking area at end of trail</t>
+  </si>
+  <si>
+    <t>Typical scenery in Winter 2023</t>
+  </si>
+  <si>
+    <t>Sign at parking area near Echo Valley SP</t>
+  </si>
+  <si>
+    <t>IMG_1850</t>
+  </si>
+  <si>
+    <t>IMG_1853</t>
+  </si>
+  <si>
+    <t>IMG_1861</t>
+  </si>
+  <si>
+    <t>Cash at Echo Valley State Park</t>
   </si>
 </sst>
 </file>
@@ -11592,13 +11673,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1040"/>
+  <dimension ref="A1:X1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1019" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C1021" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1039" sqref="B1039"/>
+      <selection pane="bottomRight" activeCell="F1046" sqref="F1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39543,6 +39624,145 @@
       </c>
       <c r="H1040" s="3" t="s">
         <v>3732</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1041" s="3" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C1041" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1041" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1041" s="3" t="s">
+        <v>3751</v>
+      </c>
+      <c r="G1041" s="3" t="s">
+        <v>3752</v>
+      </c>
+      <c r="I1041" s="3" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1042" s="3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1042" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1042" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1042" s="3" t="s">
+        <v>3752</v>
+      </c>
+      <c r="G1042" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="H1042" s="3" t="s">
+        <v>3745</v>
+      </c>
+      <c r="I1042" s="3" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1043" s="3" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C1043" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1043" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1043" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G1043" s="3" t="s">
+        <v>3754</v>
+      </c>
+      <c r="H1043" s="3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="I1043" s="3" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C1044" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1044" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1044" s="3" t="s">
+        <v>3754</v>
+      </c>
+      <c r="G1044" s="3" t="s">
+        <v>3755</v>
+      </c>
+      <c r="H1044" s="3" t="s">
+        <v>3747</v>
+      </c>
+      <c r="I1044" s="3" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1045" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1045" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1045" s="3" t="s">
+        <v>3755</v>
+      </c>
+      <c r="G1045" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1045" s="3" t="s">
+        <v>3748</v>
       </c>
     </row>
   </sheetData>
@@ -65881,11 +66101,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z498"/>
+  <dimension ref="A1:Z505"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B499" sqref="B499"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D505" sqref="D505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -72832,6 +73052,9 @@
       <c r="C493" s="16" t="s">
         <v>3735</v>
       </c>
+      <c r="D493" t="s">
+        <v>3740</v>
+      </c>
     </row>
     <row r="494" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
@@ -72843,6 +73066,9 @@
       <c r="C494" s="16" t="s">
         <v>3736</v>
       </c>
+      <c r="D494" t="s">
+        <v>3742</v>
+      </c>
     </row>
     <row r="495" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
@@ -72854,6 +73080,9 @@
       <c r="C495" s="16" t="s">
         <v>3737</v>
       </c>
+      <c r="D495" t="s">
+        <v>3741</v>
+      </c>
     </row>
     <row r="496" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
@@ -72865,27 +73094,134 @@
       <c r="C496" s="16" t="s">
         <v>3738</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D496" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
         <v>3712</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>3715</v>
+        <v>3717</v>
       </c>
       <c r="C497" s="16" t="s">
         <v>3739</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D497" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
         <v>3712</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>3717</v>
+        <v>3747</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>3740</v>
+        <v>3756</v>
+      </c>
+      <c r="D498" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C499" s="16" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D499" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C500" s="16" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D500" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C501" s="16" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D501" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B502" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C502" s="16" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D502" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C503" s="16" t="s">
+        <v>3764</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C504" s="16" t="s">
+        <v>3765</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C505" s="16" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D505" t="s">
+        <v>3767</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10567" uniqueCount="3768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10755" uniqueCount="3832">
   <si>
     <t>trackID</t>
   </si>
@@ -11325,6 +11325,198 @@
   </si>
   <si>
     <t>Cash at Echo Valley State Park</t>
+  </si>
+  <si>
+    <t>BHRN01</t>
+  </si>
+  <si>
+    <t>Bighorn Rd</t>
+  </si>
+  <si>
+    <t>W51</t>
+  </si>
+  <si>
+    <t>US 56</t>
+  </si>
+  <si>
+    <t>Need from W51 to Pops'</t>
+  </si>
+  <si>
+    <t>Backbone SP - North Gate Rd</t>
+  </si>
+  <si>
+    <t>North Gate</t>
+  </si>
+  <si>
+    <t>Richmond Springs trail</t>
+  </si>
+  <si>
+    <t>Barred Owl trail [North]</t>
+  </si>
+  <si>
+    <t>Cave trail</t>
+  </si>
+  <si>
+    <t>Barred Owl trail [South]</t>
+  </si>
+  <si>
+    <t>South Flats trail</t>
+  </si>
+  <si>
+    <t>East Gate Rd</t>
+  </si>
+  <si>
+    <t>BBBOT01</t>
+  </si>
+  <si>
+    <t>BBBOT02</t>
+  </si>
+  <si>
+    <t>Backbone SP - Barred Owl Tr</t>
+  </si>
+  <si>
+    <t>North Gate Rd</t>
+  </si>
+  <si>
+    <t>overlook</t>
+  </si>
+  <si>
+    <t>BBSFT01</t>
+  </si>
+  <si>
+    <t>BBSFT02</t>
+  </si>
+  <si>
+    <t>Backbone SP - South Flats Tr</t>
+  </si>
+  <si>
+    <t>Six Pines Tr</t>
+  </si>
+  <si>
+    <t>BBNGR01</t>
+  </si>
+  <si>
+    <t>BBNGR02</t>
+  </si>
+  <si>
+    <t>BBNGR03</t>
+  </si>
+  <si>
+    <t>BBNGR04</t>
+  </si>
+  <si>
+    <t>BBNGR05</t>
+  </si>
+  <si>
+    <t>BBNGR06</t>
+  </si>
+  <si>
+    <t>BBNGR02, BBGR03</t>
+  </si>
+  <si>
+    <t>BBNGR04, BBNGR05</t>
+  </si>
+  <si>
+    <t>BBNGR05, BBNGR05</t>
+  </si>
+  <si>
+    <t>PNYH01</t>
+  </si>
+  <si>
+    <t>Pony Hollow Tr</t>
+  </si>
+  <si>
+    <t>South High St (Elkader)</t>
+  </si>
+  <si>
+    <t>Grape Rd</t>
+  </si>
+  <si>
+    <t>Can be continued from Grape Rd</t>
+  </si>
+  <si>
+    <t>GRWD40</t>
+  </si>
+  <si>
+    <t>GRWD41</t>
+  </si>
+  <si>
+    <t>GRWD42</t>
+  </si>
+  <si>
+    <t>GRWD43</t>
+  </si>
+  <si>
+    <t>GRWD44</t>
+  </si>
+  <si>
+    <t>Grant Wood Tr</t>
+  </si>
+  <si>
+    <t>Oxley Rd</t>
+  </si>
+  <si>
+    <t>Hindman Rd</t>
+  </si>
+  <si>
+    <t>Waldo's Rock Park</t>
+  </si>
+  <si>
+    <t>62nd St parking</t>
+  </si>
+  <si>
+    <t>Hwy 13/151 Tunnel</t>
+  </si>
+  <si>
+    <t>44th St</t>
+  </si>
+  <si>
+    <t>IMG_4370</t>
+  </si>
+  <si>
+    <t>Waldo's Rock</t>
+  </si>
+  <si>
+    <t>IMG_1870</t>
+  </si>
+  <si>
+    <t>IMG_1872</t>
+  </si>
+  <si>
+    <t>IMG_4376</t>
+  </si>
+  <si>
+    <t>IMG_4377</t>
+  </si>
+  <si>
+    <t>IMG_4379</t>
+  </si>
+  <si>
+    <t>IMG_4380</t>
+  </si>
+  <si>
+    <t>IMG_4386</t>
+  </si>
+  <si>
+    <t>Balance Rock</t>
+  </si>
+  <si>
+    <t>Cash near Richmond Springs</t>
+  </si>
+  <si>
+    <t>BBXXXX</t>
+  </si>
+  <si>
+    <t>Cash at Backbone Cave</t>
+  </si>
+  <si>
+    <t>IMG_1886</t>
+  </si>
+  <si>
+    <t>IMG_1888</t>
+  </si>
+  <si>
+    <t>IMG_1894</t>
   </si>
 </sst>
 </file>
@@ -11673,13 +11865,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1045"/>
+  <dimension ref="A1:X1062"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C1021" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1028" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1046" sqref="F1046"/>
+      <selection pane="bottomRight" activeCell="B1057" sqref="B1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39626,7 +39818,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="3" t="s">
         <v>3712</v>
       </c>
@@ -39652,7 +39844,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="3" t="s">
         <v>3712</v>
       </c>
@@ -39681,7 +39873,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="3" t="s">
         <v>3712</v>
       </c>
@@ -39710,7 +39902,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="3" t="s">
         <v>3712</v>
       </c>
@@ -39739,7 +39931,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="3" t="s">
         <v>3712</v>
       </c>
@@ -39763,6 +39955,472 @@
       </c>
       <c r="H1045" s="3" t="s">
         <v>3748</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C1046" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="D1046" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1046" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1046" s="3" t="s">
+        <v>3770</v>
+      </c>
+      <c r="G1046" s="3" t="s">
+        <v>3771</v>
+      </c>
+      <c r="J1046" s="3" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C1047" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1047" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1047" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1047" s="3" t="s">
+        <v>3774</v>
+      </c>
+      <c r="G1047" s="3" t="s">
+        <v>3775</v>
+      </c>
+      <c r="I1047" s="3" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>3791</v>
+      </c>
+      <c r="C1048" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1048" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1048" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1048" s="3" t="s">
+        <v>3775</v>
+      </c>
+      <c r="G1048" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="H1048" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="I1048" s="3" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C1049" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1049" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1049" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1049" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="G1049" s="3" t="s">
+        <v>3777</v>
+      </c>
+      <c r="H1049" s="3" t="s">
+        <v>3791</v>
+      </c>
+      <c r="I1049" s="3" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C1050" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1050" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1050" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1050" s="3" t="s">
+        <v>3777</v>
+      </c>
+      <c r="G1050" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="H1050" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="I1050" s="3" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C1051" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1051" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1051" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1051" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="G1051" s="3" t="s">
+        <v>3779</v>
+      </c>
+      <c r="H1051" s="3" t="s">
+        <v>3793</v>
+      </c>
+      <c r="I1051" s="3" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1052" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1052" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1052" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1052" s="3" t="s">
+        <v>3779</v>
+      </c>
+      <c r="G1052" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="H1052" s="3" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C1053" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="D1053" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1053" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1053" s="3" t="s">
+        <v>3784</v>
+      </c>
+      <c r="G1053" s="3" t="s">
+        <v>3785</v>
+      </c>
+      <c r="H1053" s="3" t="s">
+        <v>3796</v>
+      </c>
+      <c r="I1053" s="3" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C1054" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="D1054" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1054" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1054" s="3" t="s">
+        <v>3785</v>
+      </c>
+      <c r="G1054" s="3" t="s">
+        <v>3784</v>
+      </c>
+      <c r="H1054" s="3" t="s">
+        <v>3781</v>
+      </c>
+      <c r="I1054" s="3" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C1055" s="3" t="s">
+        <v>3788</v>
+      </c>
+      <c r="D1055" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1055" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1055" s="3" t="s">
+        <v>3784</v>
+      </c>
+      <c r="G1055" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="H1055" s="3" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1056" s="3" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C1056" s="3" t="s">
+        <v>3788</v>
+      </c>
+      <c r="D1056" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1056" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1056" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="G1056" s="3" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1057" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C1057" s="3" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D1057" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1057" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1057" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="G1057" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="J1057" s="3" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1058" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1058" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1058" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1058" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1058" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="G1058" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="I1058" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1059" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C1059" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1059" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1059" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1059" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="G1059" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="H1059" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="I1059" s="3" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1060" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C1060" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1060" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1060" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1060" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="G1060" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="H1060" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="I1060" s="3" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1061" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C1061" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1061" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1061" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1061" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="G1061" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="H1061" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="I1061" s="3" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1062" s="3" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C1062" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1062" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1062" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1062" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="G1062" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="H1062" s="3" t="s">
+        <v>3807</v>
       </c>
     </row>
   </sheetData>
@@ -66101,11 +66759,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z505"/>
+  <dimension ref="A1:Z516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D505" sqref="D505"/>
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C516" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -73224,6 +73882,160 @@
         <v>3767</v>
       </c>
     </row>
+    <row r="506" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C506" s="16" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D506" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C507" s="16" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C508" s="16" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C509" s="16" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D509" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C510" s="16" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D510" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C511" s="16" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D511" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C512" s="16" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D512" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>3791</v>
+      </c>
+      <c r="C513" s="16" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D513" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C514" s="16" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C515" s="16" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C516" s="16" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D516" t="s">
+        <v>3828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10755" uniqueCount="3832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10823" uniqueCount="3860">
   <si>
     <t>trackID</t>
   </si>
@@ -11477,9 +11477,6 @@
     <t>Waldo's Rock</t>
   </si>
   <si>
-    <t>IMG_1870</t>
-  </si>
-  <si>
     <t>IMG_1872</t>
   </si>
   <si>
@@ -11517,6 +11514,93 @@
   </si>
   <si>
     <t>IMG_1894</t>
+  </si>
+  <si>
+    <t>IMG_1880</t>
+  </si>
+  <si>
+    <t>DNGSP01</t>
+  </si>
+  <si>
+    <t>DNGSP02</t>
+  </si>
+  <si>
+    <t>DNGSP03</t>
+  </si>
+  <si>
+    <t>DNGSC01</t>
+  </si>
+  <si>
+    <t>Dunning Springs Tr</t>
+  </si>
+  <si>
+    <t>Dunning Springs Connector</t>
+  </si>
+  <si>
+    <t>Ice Cave Rd</t>
+  </si>
+  <si>
+    <t>Dunning Springs</t>
+  </si>
+  <si>
+    <t>Dunning Springs Overlook</t>
+  </si>
+  <si>
+    <t>Wold's Peak Tr</t>
+  </si>
+  <si>
+    <t>DNGSP02, DNGSP03, DNGSC01</t>
+  </si>
+  <si>
+    <t>DNGSP01, DNGSP03, DNGSC01</t>
+  </si>
+  <si>
+    <t>DNGSP01, DNGSP02, DNGSC01</t>
+  </si>
+  <si>
+    <t>DNGSP01, DNGSP02, DNGSP03</t>
+  </si>
+  <si>
+    <t>SWHVN01</t>
+  </si>
+  <si>
+    <t>Stairway to Heaven Tr</t>
+  </si>
+  <si>
+    <t>Ice Cave Tr</t>
+  </si>
+  <si>
+    <t>Will need to be split when more trails are added</t>
+  </si>
+  <si>
+    <t>IMG_4413</t>
+  </si>
+  <si>
+    <t>IMG_4414</t>
+  </si>
+  <si>
+    <t>IMG_4415</t>
+  </si>
+  <si>
+    <t>IMG_4417</t>
+  </si>
+  <si>
+    <t>IMG_4420</t>
+  </si>
+  <si>
+    <t>IMG_4425</t>
+  </si>
+  <si>
+    <t>IMG_4427</t>
+  </si>
+  <si>
+    <t>Sign at Ice Cave Rd</t>
+  </si>
+  <si>
+    <t>Looking up at falls below the springs</t>
+  </si>
+  <si>
+    <t>Looking down from platform above springs</t>
   </si>
 </sst>
 </file>
@@ -11865,13 +11949,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1062"/>
+  <dimension ref="A1:X1067"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1028" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1032" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1057" sqref="B1057"/>
+      <selection pane="bottomRight" activeCell="J1067" sqref="J1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40421,6 +40505,136 @@
       </c>
       <c r="H1062" s="3" t="s">
         <v>3807</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1063" s="3" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C1063" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D1063" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1063" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1063" s="3" t="s">
+        <v>3838</v>
+      </c>
+      <c r="G1063" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="I1063" s="3" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1064" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C1064" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D1064" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1064" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1064" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="G1064" s="3" t="s">
+        <v>3839</v>
+      </c>
+      <c r="H1064" s="3" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1065" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1065" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D1065" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1065" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1065" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="G1065" s="3" t="s">
+        <v>3840</v>
+      </c>
+      <c r="H1065" s="3" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1066" s="3" t="s">
+        <v>3835</v>
+      </c>
+      <c r="C1066" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1066" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1066" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1066" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="G1066" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="H1066" s="3" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C1067" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D1067" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1067" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1067" s="3" t="s">
+        <v>3838</v>
+      </c>
+      <c r="G1067" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="J1067" s="3" t="s">
+        <v>3849</v>
       </c>
     </row>
   </sheetData>
@@ -66759,11 +66973,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z516"/>
+  <dimension ref="A1:Z523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C516" sqref="C516"/>
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D522" sqref="D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -73918,7 +74132,7 @@
         <v>3799</v>
       </c>
       <c r="C508" s="16" t="s">
-        <v>3819</v>
+        <v>3831</v>
       </c>
       <c r="D508" t="s">
         <v>1485</v>
@@ -73932,7 +74146,7 @@
         <v>3790</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="D509" t="s">
         <v>3762</v>
@@ -73946,10 +74160,10 @@
         <v>3792</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="D510" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -73960,7 +74174,7 @@
         <v>3794</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="D511" t="s">
         <v>3762</v>
@@ -73974,7 +74188,7 @@
         <v>3794</v>
       </c>
       <c r="C512" s="16" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="D512" t="s">
         <v>3762</v>
@@ -73988,10 +74202,10 @@
         <v>3791</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="D513" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -74002,7 +74216,7 @@
         <v>3786</v>
       </c>
       <c r="C514" s="16" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="D514" t="s">
         <v>1485</v>
@@ -74016,7 +74230,7 @@
         <v>3787</v>
       </c>
       <c r="C515" s="16" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="D515" t="s">
         <v>1485</v>
@@ -74027,13 +74241,111 @@
         <v>3712</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C516" s="16" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D516" t="s">
         <v>3827</v>
       </c>
-      <c r="C516" s="16" t="s">
-        <v>3831</v>
-      </c>
-      <c r="D516" t="s">
-        <v>3828</v>
+    </row>
+    <row r="517" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C517" s="16" t="s">
+        <v>3850</v>
+      </c>
+      <c r="D517" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C518" s="16" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D518" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C519" s="16" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D519" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C520" s="16" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D520" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C521" s="16" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D521" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C522" s="16" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D522" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="10" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C523" s="16" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D523" t="s">
+        <v>3762</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11279" uniqueCount="3971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11394" uniqueCount="4000">
   <si>
     <t>trackID</t>
   </si>
@@ -11934,6 +11934,93 @@
   </si>
   <si>
     <t>HUTH08, PERO01</t>
+  </si>
+  <si>
+    <t>PIKR01, PIKR02</t>
+  </si>
+  <si>
+    <t>PIKR01</t>
+  </si>
+  <si>
+    <t>PIKR02</t>
+  </si>
+  <si>
+    <t>PIKR03</t>
+  </si>
+  <si>
+    <t>CTOF01</t>
+  </si>
+  <si>
+    <t>CTOF02</t>
+  </si>
+  <si>
+    <t>CTOF03</t>
+  </si>
+  <si>
+    <t>Cutoff Rd</t>
+  </si>
+  <si>
+    <t>White River canoe landing</t>
+  </si>
+  <si>
+    <t>Cutoff Rd / Sutherland Rd</t>
+  </si>
+  <si>
+    <t>Unnamed trail of Cutoff Rd</t>
+  </si>
+  <si>
+    <t>Pike River Rd / Sutherland Rd</t>
+  </si>
+  <si>
+    <t>PIKR01, WRVR01</t>
+  </si>
+  <si>
+    <t>PIKR02, WRVR01</t>
+  </si>
+  <si>
+    <t>CRKD01, CRKD02</t>
+  </si>
+  <si>
+    <t>CRKD01</t>
+  </si>
+  <si>
+    <t>CRKD02</t>
+  </si>
+  <si>
+    <t>CRKD03</t>
+  </si>
+  <si>
+    <t>CRKD04</t>
+  </si>
+  <si>
+    <t>CRKD05</t>
+  </si>
+  <si>
+    <t>CRKD06</t>
+  </si>
+  <si>
+    <t>CRKD07</t>
+  </si>
+  <si>
+    <t>Old US Hwy 2</t>
+  </si>
+  <si>
+    <t>Unnamed trail off Crooked Lake Rd</t>
+  </si>
+  <si>
+    <t>FR234C</t>
+  </si>
+  <si>
+    <t>Gravel Pit entrance</t>
+  </si>
+  <si>
+    <t>W Crooked Lake Rd</t>
+  </si>
+  <si>
+    <t>CRKD02, OLD202</t>
+  </si>
+  <si>
+    <t>CRKD01, OLD202</t>
   </si>
 </sst>
 </file>
@@ -12282,13 +12369,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1117"/>
+  <dimension ref="A1:X1130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="M1136" sqref="M1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30223,6 +30310,9 @@
       <c r="H662" s="4" t="s">
         <v>3065</v>
       </c>
+      <c r="I662" s="3" t="s">
+        <v>3985</v>
+      </c>
     </row>
     <row r="663" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
@@ -39047,6 +39137,9 @@
       <c r="G995" s="3" t="s">
         <v>1744</v>
       </c>
+      <c r="H995" s="3" t="s">
+        <v>3971</v>
+      </c>
       <c r="I995" s="3" t="s">
         <v>1741</v>
       </c>
@@ -42418,6 +42511,371 @@
       </c>
       <c r="I1117" s="3" t="s">
         <v>3967</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1118" s="3" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C1118" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D1118" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1118" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I1118" s="3" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1119" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C1119" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D1119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1119" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G1119" s="3" t="s">
+        <v>3979</v>
+      </c>
+      <c r="H1119" s="3" t="s">
+        <v>3983</v>
+      </c>
+      <c r="I1119" s="3" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1120" s="3" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C1120" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D1120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1120" s="3" t="s">
+        <v>3979</v>
+      </c>
+      <c r="G1120" s="3" t="s">
+        <v>3980</v>
+      </c>
+      <c r="H1120" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="I1120" s="3" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1121" s="3" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C1121" s="3" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D1121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1121" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1121" s="3" t="s">
+        <v>3981</v>
+      </c>
+      <c r="I1121" s="3" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1122" s="3" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C1122" s="3" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D1122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1122" s="3" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G1122" s="3" t="s">
+        <v>3981</v>
+      </c>
+      <c r="H1122" s="3" t="s">
+        <v>3975</v>
+      </c>
+      <c r="I1122" s="3" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1123" s="3" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C1123" s="3" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D1123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1123" s="3" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G1123" s="3" t="s">
+        <v>3982</v>
+      </c>
+      <c r="H1123" s="3" t="s">
+        <v>3976</v>
+      </c>
+      <c r="I1123" s="3" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1124" s="3" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C1124" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1124" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G1124" s="3" t="s">
+        <v>3993</v>
+      </c>
+      <c r="I1124" s="3" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1125" s="3" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C1125" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1125" s="3" t="s">
+        <v>3993</v>
+      </c>
+      <c r="G1125" s="3" t="s">
+        <v>3994</v>
+      </c>
+      <c r="H1125" s="3" t="s">
+        <v>3999</v>
+      </c>
+      <c r="I1125" s="3" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1126" s="3" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C1126" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1126" s="3" t="s">
+        <v>3994</v>
+      </c>
+      <c r="G1126" s="3" t="s">
+        <v>3994</v>
+      </c>
+      <c r="H1126" s="3" t="s">
+        <v>3987</v>
+      </c>
+      <c r="I1126" s="3" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C1127" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1127" s="3" t="s">
+        <v>3994</v>
+      </c>
+      <c r="G1127" s="3" t="s">
+        <v>3995</v>
+      </c>
+      <c r="H1127" s="3" t="s">
+        <v>3988</v>
+      </c>
+      <c r="I1127" s="3" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C1128" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1128" s="3" t="s">
+        <v>3995</v>
+      </c>
+      <c r="G1128" s="3" t="s">
+        <v>3994</v>
+      </c>
+      <c r="H1128" s="3" t="s">
+        <v>3989</v>
+      </c>
+      <c r="I1128" s="3" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1129" s="3" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C1129" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1129" s="3" t="s">
+        <v>3994</v>
+      </c>
+      <c r="G1129" s="3" t="s">
+        <v>3996</v>
+      </c>
+      <c r="H1129" s="3" t="s">
+        <v>3990</v>
+      </c>
+      <c r="I1129" s="3" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1130" s="3" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C1130" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1130" s="3" t="s">
+        <v>3996</v>
+      </c>
+      <c r="G1130" s="3" t="s">
+        <v>3997</v>
+      </c>
+      <c r="H1130" s="3" t="s">
+        <v>3991</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11394" uniqueCount="4000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="4021">
   <si>
     <t>trackID</t>
   </si>
@@ -12021,6 +12021,69 @@
   </si>
   <si>
     <t>CRKD01, OLD202</t>
+  </si>
+  <si>
+    <t>FNGR11</t>
+  </si>
+  <si>
+    <t>Finger Lake Rd</t>
+  </si>
+  <si>
+    <t>FR234 / FR425</t>
+  </si>
+  <si>
+    <t>FNGR12</t>
+  </si>
+  <si>
+    <t>FNGR13</t>
+  </si>
+  <si>
+    <t>FNGR14</t>
+  </si>
+  <si>
+    <t>FNGR15</t>
+  </si>
+  <si>
+    <t>FNGR16</t>
+  </si>
+  <si>
+    <t>FNGR17</t>
+  </si>
+  <si>
+    <t>FNGR18</t>
+  </si>
+  <si>
+    <t>FNGR19</t>
+  </si>
+  <si>
+    <t>FNGR20</t>
+  </si>
+  <si>
+    <t>Premo Rd</t>
+  </si>
+  <si>
+    <t>Grummet Rd</t>
+  </si>
+  <si>
+    <t>Unnamed trail off Finger Lake Rd</t>
+  </si>
+  <si>
+    <t>Snow Trail 6</t>
+  </si>
+  <si>
+    <t>Snow Trail 4 (Delta Tr)</t>
+  </si>
+  <si>
+    <t>PRMO01</t>
+  </si>
+  <si>
+    <t>PRMO02</t>
+  </si>
+  <si>
+    <t>FNGR12, PRMO01</t>
+  </si>
+  <si>
+    <t>FNGR11, FNGR12</t>
   </si>
 </sst>
 </file>
@@ -12369,13 +12432,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1130"/>
+  <dimension ref="A1:X1142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1136" sqref="M1136"/>
+      <selection pane="bottomRight" activeCell="H1143" sqref="H1143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42876,6 +42939,345 @@
       </c>
       <c r="H1130" s="3" t="s">
         <v>3991</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1131" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C1131" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1131" s="3" t="s">
+        <v>4002</v>
+      </c>
+      <c r="G1131" s="3" t="s">
+        <v>4012</v>
+      </c>
+      <c r="I1131" s="16" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C1132" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1132" s="3" t="s">
+        <v>4012</v>
+      </c>
+      <c r="G1132" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="H1132" s="16" t="s">
+        <v>4000</v>
+      </c>
+      <c r="I1132" s="16" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C1133" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1133" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G1133" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="H1133" s="16" t="s">
+        <v>4003</v>
+      </c>
+      <c r="I1133" s="16" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1134" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C1134" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1134" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G1134" s="16" t="s">
+        <v>4016</v>
+      </c>
+      <c r="H1134" s="16" t="s">
+        <v>4004</v>
+      </c>
+      <c r="I1134" s="16" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C1135" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1135" s="16" t="s">
+        <v>4016</v>
+      </c>
+      <c r="G1135" s="16" t="s">
+        <v>4013</v>
+      </c>
+      <c r="H1135" s="16" t="s">
+        <v>4005</v>
+      </c>
+      <c r="I1135" s="16" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C1136" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1136" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1136" s="16" t="s">
+        <v>4013</v>
+      </c>
+      <c r="G1136" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="H1136" s="16" t="s">
+        <v>4006</v>
+      </c>
+      <c r="I1136" s="16" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C1137" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1137" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G1137" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="H1137" s="16" t="s">
+        <v>4007</v>
+      </c>
+      <c r="I1137" s="16" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1138" s="3" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C1138" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1138" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1138" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G1138" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="H1138" s="16" t="s">
+        <v>4008</v>
+      </c>
+      <c r="I1138" s="16" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C1139" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1139" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1139" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G1139" s="16" t="s">
+        <v>4015</v>
+      </c>
+      <c r="H1139" s="16" t="s">
+        <v>4009</v>
+      </c>
+      <c r="I1139" s="16" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1140" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1140" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1140" s="16" t="s">
+        <v>4015</v>
+      </c>
+      <c r="G1140" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1140" s="16" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1141" s="16" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C1141" s="16" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D1141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1141" s="16" t="s">
+        <v>4001</v>
+      </c>
+      <c r="G1141" s="16" t="s">
+        <v>4016</v>
+      </c>
+      <c r="H1141" s="16" t="s">
+        <v>4020</v>
+      </c>
+      <c r="I1141" s="16" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1142" s="16" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C1142" s="16" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D1142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1142" s="16" t="s">
+        <v>4016</v>
+      </c>
+      <c r="G1142" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="H1142" s="16" t="s">
+        <v>4017</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -12467,9 +12467,6 @@
     <t>IMG_5079</t>
   </si>
   <si>
-    <t>IMG_5082</t>
-  </si>
-  <si>
     <t>Creek near campsite</t>
   </si>
   <si>
@@ -12488,9 +12485,6 @@
     <t>Narrow draw to hike through</t>
   </si>
   <si>
-    <t>Kim scrambling through narrow dra</t>
-  </si>
-  <si>
     <t>IMG_5096</t>
   </si>
   <si>
@@ -12516,6 +12510,12 @@
   </si>
   <si>
     <t>Tip of Weaver's Needle in far distance</t>
+  </si>
+  <si>
+    <t>Kim scrambling through narrow draw</t>
+  </si>
+  <si>
+    <t>IMG_5081</t>
   </si>
 </sst>
 </file>
@@ -71344,7 +71344,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B551" sqref="B551"/>
+      <selection pane="bottomLeft" activeCell="C543" sqref="C543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -75851,7 +75851,7 @@
         <v>1901</v>
       </c>
       <c r="D320" t="str">
-        <f>$D$301</f>
+        <f t="shared" ref="D320:D329" si="0">$D$301</f>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75866,7 +75866,7 @@
         <v>1902</v>
       </c>
       <c r="D321" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75881,7 +75881,7 @@
         <v>1903</v>
       </c>
       <c r="D322" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75896,7 +75896,7 @@
         <v>1904</v>
       </c>
       <c r="D323" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75911,7 +75911,7 @@
         <v>1905</v>
       </c>
       <c r="D324" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75926,7 +75926,7 @@
         <v>1906</v>
       </c>
       <c r="D325" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75941,7 +75941,7 @@
         <v>1907</v>
       </c>
       <c r="D326" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75956,7 +75956,7 @@
         <v>1908</v>
       </c>
       <c r="D327" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75971,7 +75971,7 @@
         <v>1909</v>
       </c>
       <c r="D328" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -75986,7 +75986,7 @@
         <v>1910</v>
       </c>
       <c r="D329" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="0"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -76143,7 +76143,7 @@
         <v>1921</v>
       </c>
       <c r="D340" t="str">
-        <f>$D$301</f>
+        <f t="shared" ref="D340:D346" si="1">$D$301</f>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -76158,7 +76158,7 @@
         <v>1922</v>
       </c>
       <c r="D341" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="1"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -76173,7 +76173,7 @@
         <v>1923</v>
       </c>
       <c r="D342" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="1"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -76188,7 +76188,7 @@
         <v>1924</v>
       </c>
       <c r="D343" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="1"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -76203,7 +76203,7 @@
         <v>1925</v>
       </c>
       <c r="D344" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="1"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -76218,7 +76218,7 @@
         <v>1926</v>
       </c>
       <c r="D345" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="1"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -76233,7 +76233,7 @@
         <v>1927</v>
       </c>
       <c r="D346" t="str">
-        <f>$D$301</f>
+        <f t="shared" si="1"/>
         <v>Erick Lake campsite view</v>
       </c>
     </row>
@@ -78951,7 +78951,7 @@
         <v>4072</v>
       </c>
       <c r="C542" s="16" t="s">
-        <v>4148</v>
+        <v>4164</v>
       </c>
       <c r="D542" t="s">
         <v>3652</v>
@@ -78962,10 +78962,10 @@
         <v>4073</v>
       </c>
       <c r="C543" s="16" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="D543" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -78973,10 +78973,10 @@
         <v>4073</v>
       </c>
       <c r="C544" s="16" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="D544" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="545" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -78984,10 +78984,10 @@
         <v>4073</v>
       </c>
       <c r="C545" s="16" t="s">
+        <v>4152</v>
+      </c>
+      <c r="D545" t="s">
         <v>4153</v>
-      </c>
-      <c r="D545" t="s">
-        <v>4154</v>
       </c>
     </row>
     <row r="546" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -78995,10 +78995,10 @@
         <v>4073</v>
       </c>
       <c r="C546" s="16" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="D546" t="s">
-        <v>4155</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="547" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -79006,10 +79006,10 @@
         <v>4073</v>
       </c>
       <c r="C547" s="16" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="D547" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="548" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -79017,10 +79017,10 @@
         <v>4074</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="D548" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="549" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -79028,10 +79028,10 @@
         <v>4074</v>
       </c>
       <c r="C549" s="16" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="D549" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="550" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -79039,7 +79039,7 @@
         <v>4077</v>
       </c>
       <c r="C550" s="16" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="D550" t="s">
         <v>4093</v>
@@ -79050,10 +79050,10 @@
         <v>4077</v>
       </c>
       <c r="C551" s="16" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="D551" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11971" uniqueCount="4165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12132" uniqueCount="4231">
   <si>
     <t>trackID</t>
   </si>
@@ -12516,6 +12516,204 @@
   </si>
   <si>
     <t>IMG_5081</t>
+  </si>
+  <si>
+    <t>RBRR01</t>
+  </si>
+  <si>
+    <t>RBRR02</t>
+  </si>
+  <si>
+    <t>RBRR03</t>
+  </si>
+  <si>
+    <t>RBRR04</t>
+  </si>
+  <si>
+    <t>RBRR05</t>
+  </si>
+  <si>
+    <t>RBRR06</t>
+  </si>
+  <si>
+    <t>RBRR07</t>
+  </si>
+  <si>
+    <t>RBRR08</t>
+  </si>
+  <si>
+    <t>RBRR09</t>
+  </si>
+  <si>
+    <t>RBRR10</t>
+  </si>
+  <si>
+    <t>RBRR11</t>
+  </si>
+  <si>
+    <t>RBRR12</t>
+  </si>
+  <si>
+    <t>RBRR13</t>
+  </si>
+  <si>
+    <t>Wave Cave Tr</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Lost Goldmine Tr East)</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Carney Springs Tr)</t>
+  </si>
+  <si>
+    <t>False summit</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Carney Springs / Superstition Ridgeline Tr)</t>
+  </si>
+  <si>
+    <t>leave Carney Springs / Superstition Ridgeline Tr</t>
+  </si>
+  <si>
+    <t>start Robber's Roost Tr</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Robber's Roost Tr)</t>
+  </si>
+  <si>
+    <t>spur to Robber's Roost</t>
+  </si>
+  <si>
+    <t>arrive Robber's Roost</t>
+  </si>
+  <si>
+    <t>arrive Fremont Saddle / leave Robber's Roost Tr</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Cave Tr)</t>
+  </si>
+  <si>
+    <t>Geronimo Cave</t>
+  </si>
+  <si>
+    <t>arrive Peralta TH / leave Dutchman's Tr</t>
+  </si>
+  <si>
+    <t>leave Bluff Spring Tr</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Bluff Spring Tr (235))</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Dutchman's Tr (104))</t>
+  </si>
+  <si>
+    <t>start Peralta Rd</t>
+  </si>
+  <si>
+    <t>arrive Lost Goldmine East TH</t>
+  </si>
+  <si>
+    <t>Robber's Roost Hike (Peralta Rd)</t>
+  </si>
+  <si>
+    <t>IMG_5122</t>
+  </si>
+  <si>
+    <t>Looking up Carney Sprngs Tr</t>
+  </si>
+  <si>
+    <t>IMG_5127</t>
+  </si>
+  <si>
+    <t>On Carney Springs Tr</t>
+  </si>
+  <si>
+    <t>IMG_5130</t>
+  </si>
+  <si>
+    <t>IMG_5132</t>
+  </si>
+  <si>
+    <t>View down from false summit</t>
+  </si>
+  <si>
+    <t>IMG_5134</t>
+  </si>
+  <si>
+    <t>IMG_5140</t>
+  </si>
+  <si>
+    <t>View down from summit</t>
+  </si>
+  <si>
+    <t>IMG_5142</t>
+  </si>
+  <si>
+    <t>Looking east across ridgeline</t>
+  </si>
+  <si>
+    <t>Nearing Robber's Roost from the west</t>
+  </si>
+  <si>
+    <t>IMG_5147</t>
+  </si>
+  <si>
+    <t>IMG_5149</t>
+  </si>
+  <si>
+    <t>First passage to entering Robber's Roost</t>
+  </si>
+  <si>
+    <t>IMG_5151</t>
+  </si>
+  <si>
+    <t>Entrance to Robber's Roost</t>
+  </si>
+  <si>
+    <t>Waterfall in Robber's Roost</t>
+  </si>
+  <si>
+    <t>IMG_5153</t>
+  </si>
+  <si>
+    <t>Looking southeast out of Robber's Roost</t>
+  </si>
+  <si>
+    <t>IMG_5157</t>
+  </si>
+  <si>
+    <t>IMG_5158</t>
+  </si>
+  <si>
+    <t>Weaver's Needle</t>
+  </si>
+  <si>
+    <t>IMG_5161</t>
+  </si>
+  <si>
+    <t>Looking down on the Peralta Tr</t>
+  </si>
+  <si>
+    <t>Looking east across Peralta Canyon</t>
+  </si>
+  <si>
+    <t>IMG_5163</t>
+  </si>
+  <si>
+    <t>IMG_5165</t>
+  </si>
+  <si>
+    <t>Looking south down Peralta Canyon</t>
+  </si>
+  <si>
+    <t>Looking north up Peralta Canyon</t>
+  </si>
+  <si>
+    <t>IMG_5166</t>
+  </si>
+  <si>
+    <t>IMG_5174</t>
   </si>
 </sst>
 </file>
@@ -12864,13 +13062,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1186"/>
+  <dimension ref="A1:X1200"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1156" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1172" sqref="A1172:XFD1172"/>
+      <selection pane="bottomRight" activeCell="D1187" sqref="D1187:D1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43960,6 +44158,9 @@
       <c r="G1149" s="3" t="s">
         <v>3509</v>
       </c>
+      <c r="H1149" s="3" t="s">
+        <v>3531</v>
+      </c>
       <c r="I1149" s="3" t="s">
         <v>3533</v>
       </c>
@@ -44355,6 +44556,9 @@
       <c r="G1163" s="3" t="s">
         <v>3529</v>
       </c>
+      <c r="H1163" s="3" t="s">
+        <v>4078</v>
+      </c>
       <c r="I1163" s="3" t="s">
         <v>4069</v>
       </c>
@@ -44645,6 +44849,9 @@
       <c r="H1173" s="3" t="s">
         <v>4077</v>
       </c>
+      <c r="I1173" s="3" t="s">
+        <v>4068</v>
+      </c>
     </row>
     <row r="1174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1174" s="3" t="s">
@@ -45003,6 +45210,386 @@
       <c r="H1186" s="3" t="s">
         <v>3489</v>
       </c>
+    </row>
+    <row r="1187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1187" s="3" t="s">
+        <v>4165</v>
+      </c>
+      <c r="C1187" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D1187">
+        <v>2023</v>
+      </c>
+      <c r="E1187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1187" s="3" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G1187" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="H1187" s="3" t="s">
+        <v>4177</v>
+      </c>
+      <c r="I1187" s="3" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1188" s="3" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C1188" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D1188">
+        <v>2023</v>
+      </c>
+      <c r="E1188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1188" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="G1188" s="3" t="s">
+        <v>4100</v>
+      </c>
+      <c r="H1188" s="3" t="s">
+        <v>4165</v>
+      </c>
+      <c r="I1188" s="3" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1189" s="3" t="s">
+        <v>4167</v>
+      </c>
+      <c r="C1189" s="3" t="s">
+        <v>4180</v>
+      </c>
+      <c r="D1189">
+        <v>2023</v>
+      </c>
+      <c r="E1189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1189" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G1189" s="3" t="s">
+        <v>4178</v>
+      </c>
+      <c r="H1189" s="3" t="s">
+        <v>4166</v>
+      </c>
+      <c r="I1189" s="3" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1190" s="3" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C1190" s="3" t="s">
+        <v>4180</v>
+      </c>
+      <c r="D1190">
+        <v>2023</v>
+      </c>
+      <c r="E1190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1190" s="3" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G1190" s="3" t="s">
+        <v>4181</v>
+      </c>
+      <c r="H1190" s="3" t="s">
+        <v>4167</v>
+      </c>
+      <c r="I1190" s="3" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C1191" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="D1191">
+        <v>2023</v>
+      </c>
+      <c r="E1191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1191" s="3" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G1191" s="3" t="s">
+        <v>4183</v>
+      </c>
+      <c r="H1191" s="3" t="s">
+        <v>4168</v>
+      </c>
+      <c r="I1191" s="3" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1192" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1192" s="3" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C1192" s="3" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D1192">
+        <v>2023</v>
+      </c>
+      <c r="E1192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1192" s="3" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G1192" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="H1192" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="I1192" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1193" s="3" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C1193" s="3" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D1193">
+        <v>2023</v>
+      </c>
+      <c r="E1193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1193" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="G1193" s="3" t="s">
+        <v>4187</v>
+      </c>
+      <c r="H1193" s="3" t="s">
+        <v>4170</v>
+      </c>
+      <c r="I1193" s="3" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1194" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1194" s="3" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C1194" s="3" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D1194">
+        <v>2023</v>
+      </c>
+      <c r="E1194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1194" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="G1194" s="3" t="s">
+        <v>4188</v>
+      </c>
+      <c r="H1194" s="3" t="s">
+        <v>4171</v>
+      </c>
+      <c r="I1194" s="3" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1195" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C1195" s="3" t="s">
+        <v>4189</v>
+      </c>
+      <c r="D1195">
+        <v>2023</v>
+      </c>
+      <c r="E1195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1195" s="3" t="s">
+        <v>4114</v>
+      </c>
+      <c r="G1195" s="3" t="s">
+        <v>4190</v>
+      </c>
+      <c r="H1195" s="3" t="s">
+        <v>4172</v>
+      </c>
+      <c r="I1195" s="3" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1196" s="3" t="s">
+        <v>4174</v>
+      </c>
+      <c r="C1196" s="3" t="s">
+        <v>4189</v>
+      </c>
+      <c r="D1196">
+        <v>2023</v>
+      </c>
+      <c r="E1196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1196" s="3" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G1196" s="3" t="s">
+        <v>4115</v>
+      </c>
+      <c r="H1196" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="I1196" s="3" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1197" s="3" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C1197" s="3" t="s">
+        <v>4193</v>
+      </c>
+      <c r="D1197">
+        <v>2023</v>
+      </c>
+      <c r="E1197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1197" s="3" t="s">
+        <v>4118</v>
+      </c>
+      <c r="G1197" s="3" t="s">
+        <v>4192</v>
+      </c>
+      <c r="H1197" s="3" t="s">
+        <v>4174</v>
+      </c>
+      <c r="I1197" s="3" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1198" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1198" s="3" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C1198" s="3" t="s">
+        <v>4194</v>
+      </c>
+      <c r="D1198">
+        <v>2023</v>
+      </c>
+      <c r="E1198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1198" s="3" t="s">
+        <v>4122</v>
+      </c>
+      <c r="G1198" s="3" t="s">
+        <v>4191</v>
+      </c>
+      <c r="H1198" s="3" t="s">
+        <v>4175</v>
+      </c>
+      <c r="I1198" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C1199" s="3" t="s">
+        <v>4197</v>
+      </c>
+      <c r="D1199">
+        <v>2023</v>
+      </c>
+      <c r="E1199" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1199" s="3" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G1199" s="3" t="s">
+        <v>4196</v>
+      </c>
+      <c r="H1199" s="3" t="s">
+        <v>4176</v>
+      </c>
+      <c r="I1199" s="3" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1200" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:X1186">
@@ -71340,11 +71927,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z551"/>
+  <dimension ref="A1:Z569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C543" sqref="C543"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C570" sqref="C570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -79056,6 +79643,204 @@
         <v>4162</v>
       </c>
     </row>
+    <row r="552" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="16" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C552" s="16" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D552" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="16" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C553" s="16" t="s">
+        <v>4200</v>
+      </c>
+      <c r="D553" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="554" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="16" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C554" s="16" t="s">
+        <v>4202</v>
+      </c>
+      <c r="D554" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="16" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C555" s="16" t="s">
+        <v>4203</v>
+      </c>
+      <c r="D555" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="16" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C556" s="16" t="s">
+        <v>4205</v>
+      </c>
+      <c r="D556" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="16" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C557" s="16" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D557" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="16" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C558" s="16" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D558" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="16" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C559" s="16" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D559" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="16" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C560" s="16" t="s">
+        <v>4212</v>
+      </c>
+      <c r="D560" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="16" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C561" s="16" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D561" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="562" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B562" s="16" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C562" s="16" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D562" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B563" s="16" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C563" s="16" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D563" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B564" s="16" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C564" s="16" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D564" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="16" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C565" s="16" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D565" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="566" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="16" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C566" s="16" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D566" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="16" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C567" s="16" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D567" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="16" t="s">
+        <v>4174</v>
+      </c>
+      <c r="C568" s="16" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D568" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="16" t="s">
+        <v>4174</v>
+      </c>
+      <c r="C569" s="16" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D569" t="s">
+        <v>4228</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:Z536">
     <sortCondition ref="A2:A536"/>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12132" uniqueCount="4231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12294" uniqueCount="4294">
   <si>
     <t>trackID</t>
   </si>
@@ -12714,6 +12714,195 @@
   </si>
   <si>
     <t>IMG_5174</t>
+  </si>
+  <si>
+    <t>POCL01</t>
+  </si>
+  <si>
+    <t>POCL02</t>
+  </si>
+  <si>
+    <t>POCL03</t>
+  </si>
+  <si>
+    <t>POCL04</t>
+  </si>
+  <si>
+    <t>POCL05</t>
+  </si>
+  <si>
+    <t>POCL06</t>
+  </si>
+  <si>
+    <t>POCL07</t>
+  </si>
+  <si>
+    <t>POCL08</t>
+  </si>
+  <si>
+    <t>POCL09</t>
+  </si>
+  <si>
+    <t>POCL10</t>
+  </si>
+  <si>
+    <t>Fremont Saddle</t>
+  </si>
+  <si>
+    <t>Weaver's Needle Tr</t>
+  </si>
+  <si>
+    <t>leave Peralta Tr</t>
+  </si>
+  <si>
+    <t>Peralta to Canyon Lake Hike (Dutchman's Tr 104)</t>
+  </si>
+  <si>
+    <t>Bull Pass Tr (129)</t>
+  </si>
+  <si>
+    <t>start Dutchman's Tr</t>
+  </si>
+  <si>
+    <t>start Boulder Canyon Tr</t>
+  </si>
+  <si>
+    <t>Cavalry Tr (239)</t>
+  </si>
+  <si>
+    <t>Peralta to Canyon Lake Hike (Boulder Canyon Tr 103)</t>
+  </si>
+  <si>
+    <t>leave Boulder Canyon Tr</t>
+  </si>
+  <si>
+    <t>start Boulder Canyon Tr ALT</t>
+  </si>
+  <si>
+    <t>leave Boulder Canyon Tr ALT</t>
+  </si>
+  <si>
+    <t>arrive Canyon Lake Marina</t>
+  </si>
+  <si>
+    <t>Peralta to Canyon Lake Hike (Boulder Canyon Tr ALT)</t>
+  </si>
+  <si>
+    <t>Peralta to Canyon Lake Hike (Peralta Tr 102)</t>
+  </si>
+  <si>
+    <t>IMG_4975</t>
+  </si>
+  <si>
+    <t>Taking off!</t>
+  </si>
+  <si>
+    <t>IMG_4977</t>
+  </si>
+  <si>
+    <t>IMG_4978</t>
+  </si>
+  <si>
+    <t>IMG_4981</t>
+  </si>
+  <si>
+    <t>First sight of water for the day</t>
+  </si>
+  <si>
+    <t>IMG_4983</t>
+  </si>
+  <si>
+    <t>IMG_4985</t>
+  </si>
+  <si>
+    <t>IMG_4989</t>
+  </si>
+  <si>
+    <t>IMG_4993</t>
+  </si>
+  <si>
+    <t>IMG_4999</t>
+  </si>
+  <si>
+    <t>IMG_5002</t>
+  </si>
+  <si>
+    <t>IMG_5005</t>
+  </si>
+  <si>
+    <t>IMG_5007</t>
+  </si>
+  <si>
+    <t>Looking back to Weaver's Needle</t>
+  </si>
+  <si>
+    <t>IMG_5009</t>
+  </si>
+  <si>
+    <t>IMG_5011</t>
+  </si>
+  <si>
+    <t>IMG_5016</t>
+  </si>
+  <si>
+    <t>IMG_5017</t>
+  </si>
+  <si>
+    <t>Looking north down Boulder Canyon</t>
+  </si>
+  <si>
+    <t>IMG_5020</t>
+  </si>
+  <si>
+    <t>Kim crossing the stream</t>
+  </si>
+  <si>
+    <t>IMG_5023</t>
+  </si>
+  <si>
+    <t>IMG_5024</t>
+  </si>
+  <si>
+    <t>IMG_5027</t>
+  </si>
+  <si>
+    <t>IMG_5030</t>
+  </si>
+  <si>
+    <t>IMG_5032</t>
+  </si>
+  <si>
+    <t>IMG_5040</t>
+  </si>
+  <si>
+    <t>First view of Canyon Lake</t>
+  </si>
+  <si>
+    <t>IMG_5045</t>
+  </si>
+  <si>
+    <t>IMG_5046</t>
+  </si>
+  <si>
+    <t>One last look at Weaver's Needle</t>
+  </si>
+  <si>
+    <t>IMG_5051</t>
+  </si>
+  <si>
+    <t>Canyon Lake (and marina)</t>
+  </si>
+  <si>
+    <t>IMG_5053</t>
+  </si>
+  <si>
+    <t>We made it!</t>
+  </si>
+  <si>
+    <t>Our Support Team</t>
+  </si>
+  <si>
+    <t>IMG_5056</t>
   </si>
 </sst>
 </file>
@@ -13062,20 +13251,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1200"/>
+  <dimension ref="A1:X1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1170" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1187" sqref="D1187:D1199"/>
+      <selection pane="bottomRight" activeCell="C1203" sqref="C1203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.21875" bestFit="1" customWidth="1"/>
@@ -45589,7 +45778,289 @@
       </c>
     </row>
     <row r="1200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1200" s="3" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C1200" s="3" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D1200">
+        <v>2023</v>
+      </c>
+      <c r="E1200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1200" s="3" t="s">
+        <v>4080</v>
+      </c>
+      <c r="G1200" s="3" t="s">
+        <v>4241</v>
+      </c>
       <c r="H1200" s="3"/>
+      <c r="I1200" s="3" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C1201" s="3" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D1201">
+        <v>2023</v>
+      </c>
+      <c r="E1201" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1201" s="3" t="s">
+        <v>4241</v>
+      </c>
+      <c r="G1201" s="3" t="s">
+        <v>4242</v>
+      </c>
+      <c r="H1201" s="3" t="s">
+        <v>4231</v>
+      </c>
+      <c r="I1201" s="3" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1202" s="3" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C1202" s="3" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D1202">
+        <v>2023</v>
+      </c>
+      <c r="E1202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1202" s="3" t="s">
+        <v>4242</v>
+      </c>
+      <c r="G1202" s="3" t="s">
+        <v>4243</v>
+      </c>
+      <c r="H1202" s="3" t="s">
+        <v>4232</v>
+      </c>
+      <c r="I1202" s="3" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1203" s="3" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C1203" s="3" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D1203">
+        <v>2023</v>
+      </c>
+      <c r="E1203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1203" s="3" t="s">
+        <v>4246</v>
+      </c>
+      <c r="G1203" s="3" t="s">
+        <v>4245</v>
+      </c>
+      <c r="H1203" s="3" t="s">
+        <v>4233</v>
+      </c>
+      <c r="I1203" s="3" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1204" s="3" t="s">
+        <v>4235</v>
+      </c>
+      <c r="C1204" s="3" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D1204">
+        <v>2023</v>
+      </c>
+      <c r="E1204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1204" s="3" t="s">
+        <v>4245</v>
+      </c>
+      <c r="G1204" s="3" t="s">
+        <v>4126</v>
+      </c>
+      <c r="H1204" s="3" t="s">
+        <v>4234</v>
+      </c>
+      <c r="I1204" s="3" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1205" s="3" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C1205" s="3" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D1205">
+        <v>2023</v>
+      </c>
+      <c r="E1205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1205" s="3" t="s">
+        <v>4247</v>
+      </c>
+      <c r="G1205" s="3" t="s">
+        <v>4248</v>
+      </c>
+      <c r="H1205" s="3" t="s">
+        <v>4235</v>
+      </c>
+      <c r="I1205" s="3" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1206" s="3" t="s">
+        <v>4237</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D1206">
+        <v>2023</v>
+      </c>
+      <c r="E1206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1206" s="3" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G1206" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="H1206" s="3" t="s">
+        <v>4236</v>
+      </c>
+      <c r="I1206" s="3" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1207" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1207" s="3" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C1207" s="3" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D1207">
+        <v>2023</v>
+      </c>
+      <c r="E1207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1207" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G1207" s="3" t="s">
+        <v>4250</v>
+      </c>
+      <c r="H1207" s="3" t="s">
+        <v>4237</v>
+      </c>
+      <c r="I1207" s="3" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1208" s="3" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C1208" s="3" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D1208">
+        <v>2023</v>
+      </c>
+      <c r="E1208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1208" s="3" t="s">
+        <v>4251</v>
+      </c>
+      <c r="G1208" s="3" t="s">
+        <v>4252</v>
+      </c>
+      <c r="H1208" s="3" t="s">
+        <v>4238</v>
+      </c>
+      <c r="I1208" s="3" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1209" s="3" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C1209" s="3" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D1209">
+        <v>2023</v>
+      </c>
+      <c r="E1209" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1209" s="3" t="s">
+        <v>4247</v>
+      </c>
+      <c r="G1209" s="3" t="s">
+        <v>4253</v>
+      </c>
+      <c r="H1209" s="3" t="s">
+        <v>4239</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:X1186">
@@ -71927,11 +72398,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z569"/>
+  <dimension ref="A1:Y597"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C570" sqref="C570"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C598" sqref="C598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -71942,7 +72413,7 @@
     <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -71976,9 +72447,8 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3664</v>
       </c>
@@ -71992,7 +72462,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72006,7 +72476,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72020,7 +72490,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72034,7 +72504,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72048,7 +72518,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72062,7 +72532,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72076,7 +72546,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72090,7 +72560,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72104,7 +72574,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72118,7 +72588,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72132,7 +72602,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72146,7 +72616,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72160,7 +72630,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>3664</v>
       </c>
@@ -72174,7 +72644,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>3664</v>
       </c>
@@ -79839,6 +80309,314 @@
       </c>
       <c r="D569" t="s">
         <v>4228</v>
+      </c>
+    </row>
+    <row r="570" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="16" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C570" s="16" t="s">
+        <v>4256</v>
+      </c>
+      <c r="D570" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="16" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C571" s="16" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D571" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="572" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="16" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C572" s="16" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D572" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="16" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C573" s="16" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D573" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="574" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="16" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C574" s="16" t="s">
+        <v>4262</v>
+      </c>
+      <c r="D574" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="16" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C575" s="16" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D575" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B576" s="16" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C576" s="16" t="s">
+        <v>4264</v>
+      </c>
+      <c r="D576" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="577" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="16" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C577" s="16" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D577" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="578" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="16" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C578" s="16" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D578" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="579" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="16" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C579" s="16" t="s">
+        <v>4267</v>
+      </c>
+      <c r="D579" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="580" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="16" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C580" s="16" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D580" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="581" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="16" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C581" s="16" t="s">
+        <v>4269</v>
+      </c>
+      <c r="D581" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="582" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="16" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C582" s="16" t="s">
+        <v>4271</v>
+      </c>
+      <c r="D582" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="583" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="16" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C583" s="16" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D583" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="16" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C584" s="16" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D584" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="585" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="16" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C585" s="16" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D585" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="586" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="16" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C586" s="16" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D586" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B587" s="16" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C587" s="16" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D587" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="588" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="16" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C588" s="16" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D588" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="589" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="16" t="s">
+        <v>4237</v>
+      </c>
+      <c r="C589" s="16" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D589" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="590" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="16" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C590" s="16" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D590" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="591" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="16" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C591" s="16" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D591" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="592" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B592" s="16" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C592" s="16" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D592" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="593" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="16" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C593" s="16" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D593" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="16" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C594" s="16" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D594" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="595" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="16" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C595" s="16" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D595" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="16" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C596" s="16" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D596" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="597" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="16" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C597" s="16" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D597" t="s">
+        <v>4292</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12294" uniqueCount="4294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12417" uniqueCount="4342">
   <si>
     <t>trackID</t>
   </si>
@@ -12903,6 +12903,150 @@
   </si>
   <si>
     <t>IMG_5056</t>
+  </si>
+  <si>
+    <t>NMAZ23</t>
+  </si>
+  <si>
+    <t>PCHOP01</t>
+  </si>
+  <si>
+    <t>PCHOP02</t>
+  </si>
+  <si>
+    <t>PCHOP03</t>
+  </si>
+  <si>
+    <t>PCHOP04</t>
+  </si>
+  <si>
+    <t>PCHOP05</t>
+  </si>
+  <si>
+    <t>PCHOP06</t>
+  </si>
+  <si>
+    <t>PCHOP07</t>
+  </si>
+  <si>
+    <t>PCHOP08</t>
+  </si>
+  <si>
+    <t>PCHOP09</t>
+  </si>
+  <si>
+    <t>PCHOP10</t>
+  </si>
+  <si>
+    <t>Pichaco Peak Hike</t>
+  </si>
+  <si>
+    <t>Santa Fe Canyon Preserve Parking</t>
+  </si>
+  <si>
+    <t>Marker 29</t>
+  </si>
+  <si>
+    <t>Marker 30</t>
+  </si>
+  <si>
+    <t>Marker 31</t>
+  </si>
+  <si>
+    <t>Marker 34</t>
+  </si>
+  <si>
+    <t>Pichaco Peak</t>
+  </si>
+  <si>
+    <t>Marker 35</t>
+  </si>
+  <si>
+    <t>Marker 41</t>
+  </si>
+  <si>
+    <t>Marker 40</t>
+  </si>
+  <si>
+    <t>Marker 32</t>
+  </si>
+  <si>
+    <t>PCHOP04, PCHOP10</t>
+  </si>
+  <si>
+    <t>PCHOP03, PCHOP10</t>
+  </si>
+  <si>
+    <t>PCHOP05, PCHOP06</t>
+  </si>
+  <si>
+    <t>PCHOP04, PCHOP06</t>
+  </si>
+  <si>
+    <t>PCHOP04, PCHOP05</t>
+  </si>
+  <si>
+    <t>PCHOP03, PCHOP04</t>
+  </si>
+  <si>
+    <t>IMG_0799</t>
+  </si>
+  <si>
+    <t>IMG_0801</t>
+  </si>
+  <si>
+    <t>IMG_0802</t>
+  </si>
+  <si>
+    <t>IMG_4623</t>
+  </si>
+  <si>
+    <t>IMG_4625</t>
+  </si>
+  <si>
+    <t>IMG_4628</t>
+  </si>
+  <si>
+    <t>IMG_4630</t>
+  </si>
+  <si>
+    <t>IMG_4632</t>
+  </si>
+  <si>
+    <t>IMG_4637</t>
+  </si>
+  <si>
+    <t>IMG_4641</t>
+  </si>
+  <si>
+    <t>IMG_4643</t>
+  </si>
+  <si>
+    <t>IMG_4650</t>
+  </si>
+  <si>
+    <t>IMG_4653</t>
+  </si>
+  <si>
+    <t>IMG_4655</t>
+  </si>
+  <si>
+    <t>Kim and I</t>
+  </si>
+  <si>
+    <t>Kim climbing to the peak</t>
+  </si>
+  <si>
+    <t>View from the peak</t>
+  </si>
+  <si>
+    <t>At the peak</t>
+  </si>
+  <si>
+    <t>Me on the trail</t>
+  </si>
+  <si>
+    <t>IMG_0804</t>
   </si>
 </sst>
 </file>
@@ -13251,13 +13395,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1209"/>
+  <dimension ref="A1:X1219"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1203" sqref="C1203"/>
+      <selection pane="bottomRight" activeCell="B1210" sqref="B1210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46060,6 +46204,291 @@
       </c>
       <c r="H1209" s="3" t="s">
         <v>4239</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1210" s="3" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C1210" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1210">
+        <v>2023</v>
+      </c>
+      <c r="E1210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1210" s="3" t="s">
+        <v>4306</v>
+      </c>
+      <c r="G1210" s="3" t="s">
+        <v>4307</v>
+      </c>
+      <c r="I1210" s="3" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1211" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1211" s="3" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C1211" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1211">
+        <v>2023</v>
+      </c>
+      <c r="E1211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1211" s="3" t="s">
+        <v>4307</v>
+      </c>
+      <c r="G1211" s="3" t="s">
+        <v>4308</v>
+      </c>
+      <c r="H1211" s="3" t="s">
+        <v>4295</v>
+      </c>
+      <c r="I1211" s="3" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1212" s="3" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C1212" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1212">
+        <v>2023</v>
+      </c>
+      <c r="E1212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1212" s="3" t="s">
+        <v>4308</v>
+      </c>
+      <c r="G1212" s="3" t="s">
+        <v>4309</v>
+      </c>
+      <c r="H1212" s="3" t="s">
+        <v>4296</v>
+      </c>
+      <c r="I1212" s="3" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1213" s="3" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C1213" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1213">
+        <v>2023</v>
+      </c>
+      <c r="E1213" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1213" s="3" t="s">
+        <v>4309</v>
+      </c>
+      <c r="G1213" s="3" t="s">
+        <v>4310</v>
+      </c>
+      <c r="H1213" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="I1213" s="3" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1214" s="3" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C1214" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1214">
+        <v>2023</v>
+      </c>
+      <c r="E1214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1214" s="3" t="s">
+        <v>4310</v>
+      </c>
+      <c r="G1214" s="3" t="s">
+        <v>4311</v>
+      </c>
+      <c r="H1214" s="3" t="s">
+        <v>4319</v>
+      </c>
+      <c r="I1214" s="3"/>
+    </row>
+    <row r="1215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1215" s="3" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1215" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1215">
+        <v>2023</v>
+      </c>
+      <c r="E1215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1215" s="3" t="s">
+        <v>4310</v>
+      </c>
+      <c r="G1215" s="3" t="s">
+        <v>4312</v>
+      </c>
+      <c r="H1215" s="3" t="s">
+        <v>4320</v>
+      </c>
+      <c r="I1215" s="3" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1216" s="3" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1216">
+        <v>2023</v>
+      </c>
+      <c r="E1216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1216" s="3" t="s">
+        <v>4312</v>
+      </c>
+      <c r="G1216" s="3" t="s">
+        <v>4313</v>
+      </c>
+      <c r="H1216" s="3" t="s">
+        <v>4300</v>
+      </c>
+      <c r="I1216" s="3" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1217" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1217" s="3" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1217" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1217">
+        <v>2023</v>
+      </c>
+      <c r="E1217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1217" s="3" t="s">
+        <v>4313</v>
+      </c>
+      <c r="G1217" s="3" t="s">
+        <v>4314</v>
+      </c>
+      <c r="H1217" s="3" t="s">
+        <v>4301</v>
+      </c>
+      <c r="I1217" s="3" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1218" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C1218" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1218">
+        <v>2023</v>
+      </c>
+      <c r="E1218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1218" s="3" t="s">
+        <v>4314</v>
+      </c>
+      <c r="G1218" s="3" t="s">
+        <v>4315</v>
+      </c>
+      <c r="H1218" s="3" t="s">
+        <v>4302</v>
+      </c>
+      <c r="I1218" s="3" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1219" s="3" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C1219" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1219">
+        <v>2023</v>
+      </c>
+      <c r="E1219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1219" s="3" t="s">
+        <v>4315</v>
+      </c>
+      <c r="G1219" s="3" t="s">
+        <v>4309</v>
+      </c>
+      <c r="H1219" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="I1219" s="3" t="s">
+        <v>4321</v>
       </c>
     </row>
   </sheetData>
@@ -72398,11 +72827,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y597"/>
+  <dimension ref="A1:Y612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C598" sqref="C598"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C602" sqref="C602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -80619,6 +81048,171 @@
         <v>4292</v>
       </c>
     </row>
+    <row r="598" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B598" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C598" s="16" t="s">
+        <v>4322</v>
+      </c>
+      <c r="D598" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="599" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C599" s="16" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D599" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="600" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C600" s="16" t="s">
+        <v>4324</v>
+      </c>
+      <c r="D600" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="601" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C601" s="16" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D601" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="602" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C602" s="16" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D602" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="603" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C603" s="16" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D603" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="604" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C604" s="16" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D604" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="605" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C605" s="16" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D605" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="606" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C606" s="16" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D606" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="607" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B607" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C607" s="16" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D607" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="608" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C608" s="16" t="s">
+        <v>4331</v>
+      </c>
+      <c r="D608" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B609" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C609" s="16" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D609" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B610" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C610" s="16" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D610" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B611" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C611" s="16" t="s">
+        <v>4334</v>
+      </c>
+      <c r="D611" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="612" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C612" s="16" t="s">
+        <v>4335</v>
+      </c>
+      <c r="D612" t="s">
+        <v>3714</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:Z536">
     <sortCondition ref="A2:A536"/>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12417" uniqueCount="4342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12486" uniqueCount="4372">
   <si>
     <t>trackID</t>
   </si>
@@ -13047,6 +13047,96 @@
   </si>
   <si>
     <t>IMG_0804</t>
+  </si>
+  <si>
+    <t>BNMP01</t>
+  </si>
+  <si>
+    <t>Mesa Point TR in Boca Negra Canyon</t>
+  </si>
+  <si>
+    <t>BNMP02</t>
+  </si>
+  <si>
+    <t>BNMP03</t>
+  </si>
+  <si>
+    <t>BNMP04</t>
+  </si>
+  <si>
+    <t>BNMP05</t>
+  </si>
+  <si>
+    <t>BNMP06</t>
+  </si>
+  <si>
+    <t>Parking lot</t>
+  </si>
+  <si>
+    <t>Lower split in trail</t>
+  </si>
+  <si>
+    <t>Upper split in trail</t>
+  </si>
+  <si>
+    <t>Split for close-up view</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Close-up view</t>
+  </si>
+  <si>
+    <t>BNMP03, BNMP06</t>
+  </si>
+  <si>
+    <t>BNMP02, BNMP06</t>
+  </si>
+  <si>
+    <t>BNMP04, BNMP05</t>
+  </si>
+  <si>
+    <t>BNMP03, BNMP05</t>
+  </si>
+  <si>
+    <t>BNMP03, BNMP04</t>
+  </si>
+  <si>
+    <t>BNMP01, BNMP02</t>
+  </si>
+  <si>
+    <t>BNMP01, BNMP06</t>
+  </si>
+  <si>
+    <t>BNMP02, BNMP03</t>
+  </si>
+  <si>
+    <t>IMG_4734</t>
+  </si>
+  <si>
+    <t>IMG_4735</t>
+  </si>
+  <si>
+    <t>IMG_4736</t>
+  </si>
+  <si>
+    <t>IMG_4737</t>
+  </si>
+  <si>
+    <t>IMG_4739</t>
+  </si>
+  <si>
+    <t>IMG_4741</t>
+  </si>
+  <si>
+    <t>IMG_4742</t>
+  </si>
+  <si>
+    <t>IMG_4743</t>
+  </si>
+  <si>
+    <t>Petroglyph</t>
   </si>
 </sst>
 </file>
@@ -13395,13 +13485,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1219"/>
+  <dimension ref="A1:X1225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1210" sqref="B1210"/>
+      <selection pane="bottomRight" activeCell="H1226" sqref="H1226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46489,6 +46579,172 @@
       </c>
       <c r="I1219" s="3" t="s">
         <v>4321</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1220" s="3" t="s">
+        <v>4342</v>
+      </c>
+      <c r="C1220" s="3" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D1220">
+        <v>2023</v>
+      </c>
+      <c r="E1220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1220" s="3" t="s">
+        <v>4349</v>
+      </c>
+      <c r="G1220" s="3" t="s">
+        <v>4350</v>
+      </c>
+      <c r="I1220" s="3" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1221" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1221" s="3" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C1221" s="3" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D1221">
+        <v>2023</v>
+      </c>
+      <c r="E1221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1221" s="3" t="s">
+        <v>4350</v>
+      </c>
+      <c r="G1221" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="H1221" s="3" t="s">
+        <v>4361</v>
+      </c>
+      <c r="I1221" s="3" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1222" s="3" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C1222" s="3" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D1222">
+        <v>2023</v>
+      </c>
+      <c r="E1222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1222" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="G1222" s="3" t="s">
+        <v>4352</v>
+      </c>
+      <c r="H1222" s="3" t="s">
+        <v>4356</v>
+      </c>
+      <c r="I1222" s="3" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1223" s="3" t="s">
+        <v>4346</v>
+      </c>
+      <c r="C1223" s="3" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D1223">
+        <v>2023</v>
+      </c>
+      <c r="E1223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1223" s="3" t="s">
+        <v>4352</v>
+      </c>
+      <c r="G1223" s="3" t="s">
+        <v>4353</v>
+      </c>
+      <c r="H1223" s="3" t="s">
+        <v>4358</v>
+      </c>
+      <c r="I1223" s="3"/>
+    </row>
+    <row r="1224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1224" s="3" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C1224" s="3" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D1224">
+        <v>2023</v>
+      </c>
+      <c r="E1224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1224" s="3" t="s">
+        <v>4352</v>
+      </c>
+      <c r="G1224" s="3" t="s">
+        <v>4354</v>
+      </c>
+      <c r="H1224" s="3" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1225" s="3" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C1225" s="3" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D1225">
+        <v>2023</v>
+      </c>
+      <c r="E1225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1225" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="G1225" s="3" t="s">
+        <v>4350</v>
+      </c>
+      <c r="H1225" s="3" t="s">
+        <v>4362</v>
+      </c>
+      <c r="I1225" s="3" t="s">
+        <v>4360</v>
       </c>
     </row>
   </sheetData>
@@ -72827,11 +73083,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y612"/>
+  <dimension ref="A1:Y620"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C602" sqref="C602"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B622" sqref="B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -81213,6 +81469,94 @@
         <v>3714</v>
       </c>
     </row>
+    <row r="613" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B613" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C613" s="16" t="s">
+        <v>4363</v>
+      </c>
+      <c r="D613" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="614" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B614" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C614" s="16" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D614" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="615" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B615" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C615" s="16" t="s">
+        <v>4365</v>
+      </c>
+      <c r="D615" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="616" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B616" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C616" s="16" t="s">
+        <v>4366</v>
+      </c>
+      <c r="D616" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="617" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B617" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C617" s="16" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D617" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="618" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B618" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C618" s="16" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D618" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="619" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B619" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C619" s="16" t="s">
+        <v>4369</v>
+      </c>
+      <c r="D619" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B620" t="s">
+        <v>4342</v>
+      </c>
+      <c r="C620" s="16" t="s">
+        <v>4370</v>
+      </c>
+      <c r="D620" t="s">
+        <v>4371</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:Z536">
     <sortCondition ref="A2:A536"/>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12486" uniqueCount="4372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12556" uniqueCount="4398">
   <si>
     <t>trackID</t>
   </si>
@@ -13137,6 +13137,84 @@
   </si>
   <si>
     <t>Petroglyph</t>
+  </si>
+  <si>
+    <t>PDMC01</t>
+  </si>
+  <si>
+    <t>PDMC02</t>
+  </si>
+  <si>
+    <t>PDMC03</t>
+  </si>
+  <si>
+    <t>PDMC04</t>
+  </si>
+  <si>
+    <t>PDMC09</t>
+  </si>
+  <si>
+    <t>Piedras Marcadas Hike</t>
+  </si>
+  <si>
+    <t>Split in loop trail</t>
+  </si>
+  <si>
+    <t>Split to deadend trail</t>
+  </si>
+  <si>
+    <t>Neighborhood access trail</t>
+  </si>
+  <si>
+    <t>PDMC02, PDMC04</t>
+  </si>
+  <si>
+    <t>PDMC01, PDMC04</t>
+  </si>
+  <si>
+    <t>PDMC03, PDMC09</t>
+  </si>
+  <si>
+    <t>PDMC02, PDMC09</t>
+  </si>
+  <si>
+    <t>PDMC01, PDMC02</t>
+  </si>
+  <si>
+    <t>PDMC02, PDMC03</t>
+  </si>
+  <si>
+    <t>IMG_4744</t>
+  </si>
+  <si>
+    <t>IMG_4746</t>
+  </si>
+  <si>
+    <t>IMG_4752</t>
+  </si>
+  <si>
+    <t>IMG_4755</t>
+  </si>
+  <si>
+    <t>IMG_4757</t>
+  </si>
+  <si>
+    <t>IMG_4759</t>
+  </si>
+  <si>
+    <t>IMG_4760</t>
+  </si>
+  <si>
+    <t>IMG_4763</t>
+  </si>
+  <si>
+    <t>IMG_4764</t>
+  </si>
+  <si>
+    <t>IMG_4766</t>
+  </si>
+  <si>
+    <t>IMG_4769</t>
   </si>
 </sst>
 </file>
@@ -13485,13 +13563,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1225"/>
+  <dimension ref="A1:X1230"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1226" sqref="H1226"/>
+      <selection pane="bottomRight" activeCell="B1227" sqref="B1227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46745,6 +46823,142 @@
       </c>
       <c r="I1225" s="3" t="s">
         <v>4360</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1226">
+        <v>2023</v>
+      </c>
+      <c r="E1226" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1226" s="3" t="s">
+        <v>4349</v>
+      </c>
+      <c r="G1226" s="3" t="s">
+        <v>4378</v>
+      </c>
+      <c r="I1226" s="3" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1227">
+        <v>2023</v>
+      </c>
+      <c r="E1227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1227" s="3" t="s">
+        <v>4378</v>
+      </c>
+      <c r="G1227" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="H1227" s="3" t="s">
+        <v>4382</v>
+      </c>
+      <c r="I1227" s="3" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>4374</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1228">
+        <v>2023</v>
+      </c>
+      <c r="E1228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1228" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="G1228" s="3" t="s">
+        <v>4380</v>
+      </c>
+      <c r="H1228" s="3" t="s">
+        <v>4384</v>
+      </c>
+      <c r="I1228" s="3" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1229">
+        <v>2023</v>
+      </c>
+      <c r="E1229" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1229" s="3" t="s">
+        <v>4380</v>
+      </c>
+      <c r="G1229" s="3" t="s">
+        <v>4378</v>
+      </c>
+      <c r="H1229" s="3" t="s">
+        <v>4374</v>
+      </c>
+      <c r="I1229" s="3" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1230">
+        <v>2023</v>
+      </c>
+      <c r="E1230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1230" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="H1230" s="3" t="s">
+        <v>4386</v>
       </c>
     </row>
   </sheetData>
@@ -73083,11 +73297,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y620"/>
+  <dimension ref="A1:Y631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B622" sqref="B622"/>
+      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D634" sqref="D634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -81557,6 +81771,127 @@
         <v>4371</v>
       </c>
     </row>
+    <row r="621" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B621" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C621" s="16" t="s">
+        <v>4387</v>
+      </c>
+      <c r="D621" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B622" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C622" s="16" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D622" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="623" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B623" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C623" s="16" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D623" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B624" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C624" s="16" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D624" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="625" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B625" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C625" s="16" t="s">
+        <v>4391</v>
+      </c>
+      <c r="D625" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B626" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C626" s="16" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D626" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="627" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B627" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C627" s="16" t="s">
+        <v>4393</v>
+      </c>
+      <c r="D627" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="628" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B628" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C628" s="16" t="s">
+        <v>4394</v>
+      </c>
+      <c r="D628" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B629" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C629" s="16" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D629" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B630" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C630" s="16" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D630" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C631" s="16" t="s">
+        <v>4397</v>
+      </c>
+      <c r="D631" t="s">
+        <v>4371</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:Z536">
     <sortCondition ref="A2:A536"/>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -73301,7 +73301,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D634" sqref="D634"/>
+      <selection pane="bottomLeft" activeCell="B623" sqref="B623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -81795,7 +81795,7 @@
     </row>
     <row r="623" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" t="s">
-        <v>4373</v>
+        <v>4375</v>
       </c>
       <c r="C623" s="16" t="s">
         <v>4389</v>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12556" uniqueCount="4398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12962" uniqueCount="4511">
   <si>
     <t>trackID</t>
   </si>
@@ -13215,6 +13215,345 @@
   </si>
   <si>
     <t>IMG_4769</t>
+  </si>
+  <si>
+    <t>PRIM01</t>
+  </si>
+  <si>
+    <t>Tawa Point</t>
+  </si>
+  <si>
+    <t>Painted Desert Inn</t>
+  </si>
+  <si>
+    <t>PRCO01</t>
+  </si>
+  <si>
+    <t>Blue Mesa Viewpoint</t>
+  </si>
+  <si>
+    <t>CRYF01</t>
+  </si>
+  <si>
+    <t>Crystal Forest Viewpoint</t>
+  </si>
+  <si>
+    <t>LLOG01</t>
+  </si>
+  <si>
+    <t>Long Logs Trail</t>
+  </si>
+  <si>
+    <t>Visitor Center</t>
+  </si>
+  <si>
+    <t>LLOG02</t>
+  </si>
+  <si>
+    <t>LLOG03</t>
+  </si>
+  <si>
+    <t>AGTH01</t>
+  </si>
+  <si>
+    <t>Agate House Trail</t>
+  </si>
+  <si>
+    <t>First split</t>
+  </si>
+  <si>
+    <t>LLOG02, LLOG03</t>
+  </si>
+  <si>
+    <t>LLOG01, LLOG03</t>
+  </si>
+  <si>
+    <t>LLOG03, AGTH01</t>
+  </si>
+  <si>
+    <t>LLOG02, AGTH01</t>
+  </si>
+  <si>
+    <t>LLOG01, LLOG02</t>
+  </si>
+  <si>
+    <t>Sandia Peak Aerial Tram</t>
+  </si>
+  <si>
+    <t>Lower tram house</t>
+  </si>
+  <si>
+    <t>Upper tram house</t>
+  </si>
+  <si>
+    <t>SOCR01</t>
+  </si>
+  <si>
+    <t>South Crest Tr</t>
+  </si>
+  <si>
+    <t>Puerco Pueblo Tr</t>
+  </si>
+  <si>
+    <t>Blue Mesa Tr</t>
+  </si>
+  <si>
+    <t>Crystal Forest Tr</t>
+  </si>
+  <si>
+    <t>Long Logs Tr</t>
+  </si>
+  <si>
+    <t>Agate House Tr</t>
+  </si>
+  <si>
+    <t>Ten 3 Restaurant</t>
+  </si>
+  <si>
+    <t>Kiwanis Cabin Tr</t>
+  </si>
+  <si>
+    <t>SOCR02</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>TRAM01</t>
+  </si>
+  <si>
+    <t>GLOG01</t>
+  </si>
+  <si>
+    <t>Giant Logs Tr</t>
+  </si>
+  <si>
+    <t>Museum</t>
+  </si>
+  <si>
+    <t>IMG_4676</t>
+  </si>
+  <si>
+    <t>View on way up</t>
+  </si>
+  <si>
+    <t>IMG_4677</t>
+  </si>
+  <si>
+    <t>IMG_4683</t>
+  </si>
+  <si>
+    <t>IMG_4686</t>
+  </si>
+  <si>
+    <t>IMG_4690</t>
+  </si>
+  <si>
+    <t>IMG_4691</t>
+  </si>
+  <si>
+    <t>IMG_4693</t>
+  </si>
+  <si>
+    <t>At the top</t>
+  </si>
+  <si>
+    <t>View from the top</t>
+  </si>
+  <si>
+    <t>IMG_4694</t>
+  </si>
+  <si>
+    <t>IMG_4699</t>
+  </si>
+  <si>
+    <t>IMG_4700</t>
+  </si>
+  <si>
+    <t>IMG_4701</t>
+  </si>
+  <si>
+    <t>IMG_4704</t>
+  </si>
+  <si>
+    <t>IMG_4709</t>
+  </si>
+  <si>
+    <t>IMG_4710</t>
+  </si>
+  <si>
+    <t>Kim and I at start of trail</t>
+  </si>
+  <si>
+    <t>Derek on the rim</t>
+  </si>
+  <si>
+    <t>IMG_4715</t>
+  </si>
+  <si>
+    <t>IMG_4716</t>
+  </si>
+  <si>
+    <t>Foggy/Snowy at the top</t>
+  </si>
+  <si>
+    <t>IMG_4717</t>
+  </si>
+  <si>
+    <t>Kim in the trees</t>
+  </si>
+  <si>
+    <t>IMG_4722</t>
+  </si>
+  <si>
+    <t>IMG_4723</t>
+  </si>
+  <si>
+    <t>IMG_4727</t>
+  </si>
+  <si>
+    <t>IMG_4804</t>
+  </si>
+  <si>
+    <t>IMG_4805</t>
+  </si>
+  <si>
+    <t>IMG_4806</t>
+  </si>
+  <si>
+    <t>IMG_4808</t>
+  </si>
+  <si>
+    <t>IMG_4810</t>
+  </si>
+  <si>
+    <t>IMG_4811</t>
+  </si>
+  <si>
+    <t>Kim in the Painted Desert Inn</t>
+  </si>
+  <si>
+    <t>Painted Desert Inn Soda Fountain</t>
+  </si>
+  <si>
+    <t>Painted Desert Rim Tr</t>
+  </si>
+  <si>
+    <t>IMG_4829</t>
+  </si>
+  <si>
+    <t>IMG_4830</t>
+  </si>
+  <si>
+    <t>IMG_4832</t>
+  </si>
+  <si>
+    <t>IMG_4837</t>
+  </si>
+  <si>
+    <t>IMG_4839</t>
+  </si>
+  <si>
+    <t>Puerco Pueblo ruins</t>
+  </si>
+  <si>
+    <t>IMG_4848</t>
+  </si>
+  <si>
+    <t>IMG_4852</t>
+  </si>
+  <si>
+    <t>IMG_4855</t>
+  </si>
+  <si>
+    <t>IMG_4860</t>
+  </si>
+  <si>
+    <t>IMG_4862</t>
+  </si>
+  <si>
+    <t>IMG_4863</t>
+  </si>
+  <si>
+    <t>IMG_4865</t>
+  </si>
+  <si>
+    <t>IMG_4869</t>
+  </si>
+  <si>
+    <t>IMG_4871</t>
+  </si>
+  <si>
+    <t>IMG_4875</t>
+  </si>
+  <si>
+    <t>IMG_4877</t>
+  </si>
+  <si>
+    <t>IMG_4878</t>
+  </si>
+  <si>
+    <t>IMG_4879</t>
+  </si>
+  <si>
+    <t>IMG_4881</t>
+  </si>
+  <si>
+    <t>IMG_4884</t>
+  </si>
+  <si>
+    <t>IMG_4887</t>
+  </si>
+  <si>
+    <t>IMG_4890</t>
+  </si>
+  <si>
+    <t>Petrified wood</t>
+  </si>
+  <si>
+    <t>Kim with petrified wood</t>
+  </si>
+  <si>
+    <t>IMG_4895</t>
+  </si>
+  <si>
+    <t>IMG_4896</t>
+  </si>
+  <si>
+    <t>IMG_4897</t>
+  </si>
+  <si>
+    <t>IMG_4900</t>
+  </si>
+  <si>
+    <t>IMG_4902</t>
+  </si>
+  <si>
+    <t>IMG_4903</t>
+  </si>
+  <si>
+    <t>IMG_4904</t>
+  </si>
+  <si>
+    <t>IMG_4905</t>
+  </si>
+  <si>
+    <t>IMG_4909</t>
+  </si>
+  <si>
+    <t>IMG_4910</t>
+  </si>
+  <si>
+    <t>IMG_4913</t>
+  </si>
+  <si>
+    <t>IMG_4914</t>
+  </si>
+  <si>
+    <t>IMG_4916</t>
+  </si>
+  <si>
+    <t>Agate House</t>
   </si>
 </sst>
 </file>
@@ -13563,13 +13902,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1230"/>
+  <dimension ref="A1:X1242"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1227" sqref="B1227"/>
+      <selection pane="bottomRight" activeCell="B1237" sqref="B1237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46959,6 +47298,306 @@
       </c>
       <c r="H1230" s="3" t="s">
         <v>4386</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1231" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D1231">
+        <v>2023</v>
+      </c>
+      <c r="E1231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1231" s="3" t="s">
+        <v>4399</v>
+      </c>
+      <c r="G1231" s="3" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>4423</v>
+      </c>
+      <c r="D1232">
+        <v>2023</v>
+      </c>
+      <c r="E1232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1232" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1232" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1233" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D1233">
+        <v>2023</v>
+      </c>
+      <c r="E1233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1233" s="3" t="s">
+        <v>4402</v>
+      </c>
+      <c r="G1233" s="3" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>4425</v>
+      </c>
+      <c r="D1234">
+        <v>2023</v>
+      </c>
+      <c r="E1234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1234" s="3" t="s">
+        <v>4404</v>
+      </c>
+      <c r="G1234" s="3" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1235" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D1235">
+        <v>2023</v>
+      </c>
+      <c r="E1235" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1235" s="3" t="s">
+        <v>4407</v>
+      </c>
+      <c r="G1235" s="3" t="s">
+        <v>4412</v>
+      </c>
+      <c r="I1235" s="3" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D1236">
+        <v>2023</v>
+      </c>
+      <c r="E1236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1236" s="3" t="s">
+        <v>4412</v>
+      </c>
+      <c r="G1236" s="3" t="s">
+        <v>4411</v>
+      </c>
+      <c r="H1236" s="3" t="s">
+        <v>4414</v>
+      </c>
+      <c r="I1236" s="3" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1237" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D1237">
+        <v>2023</v>
+      </c>
+      <c r="E1237" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1237" s="3" t="s">
+        <v>4411</v>
+      </c>
+      <c r="G1237" s="3" t="s">
+        <v>4412</v>
+      </c>
+      <c r="H1237" s="3" t="s">
+        <v>4416</v>
+      </c>
+      <c r="I1237" s="3" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D1238">
+        <v>2023</v>
+      </c>
+      <c r="E1238" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>4406</v>
+      </c>
+      <c r="G1238" s="3" t="s">
+        <v>4411</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1239" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D1239">
+        <v>2023</v>
+      </c>
+      <c r="E1239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1239" s="3" t="s">
+        <v>4419</v>
+      </c>
+      <c r="G1239" s="3" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D1240">
+        <v>2023</v>
+      </c>
+      <c r="E1240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1240" s="3" t="s">
+        <v>4428</v>
+      </c>
+      <c r="G1240" s="3" t="s">
+        <v>4429</v>
+      </c>
+      <c r="I1240" s="3" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1241" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C1241" s="3" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D1241">
+        <v>2023</v>
+      </c>
+      <c r="E1241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1241" s="3" t="s">
+        <v>4429</v>
+      </c>
+      <c r="H1241" s="3" t="s">
+        <v>4421</v>
+      </c>
+      <c r="J1241" s="3" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D1242">
+        <v>2023</v>
+      </c>
+      <c r="E1242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1242" s="3" t="s">
+        <v>4435</v>
+      </c>
+      <c r="G1242" s="3" t="s">
+        <v>4435</v>
       </c>
     </row>
   </sheetData>
@@ -73297,11 +73936,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y631"/>
+  <dimension ref="A1:Y692"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B623" sqref="B623"/>
+      <pane ySplit="1" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C697" sqref="C697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -80848,6 +81487,9 @@
       </c>
     </row>
     <row r="537" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B537" s="16" t="s">
         <v>4069</v>
       </c>
@@ -80859,6 +81501,9 @@
       </c>
     </row>
     <row r="538" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B538" s="16" t="s">
         <v>4070</v>
       </c>
@@ -80870,6 +81515,9 @@
       </c>
     </row>
     <row r="539" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B539" s="16" t="s">
         <v>4071</v>
       </c>
@@ -80881,6 +81529,9 @@
       </c>
     </row>
     <row r="540" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B540" s="16" t="s">
         <v>4072</v>
       </c>
@@ -80892,6 +81543,9 @@
       </c>
     </row>
     <row r="541" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B541" s="16" t="s">
         <v>4072</v>
       </c>
@@ -80903,6 +81557,9 @@
       </c>
     </row>
     <row r="542" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B542" s="16" t="s">
         <v>4072</v>
       </c>
@@ -80914,6 +81571,9 @@
       </c>
     </row>
     <row r="543" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B543" s="16" t="s">
         <v>4073</v>
       </c>
@@ -80925,6 +81585,9 @@
       </c>
     </row>
     <row r="544" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B544" s="16" t="s">
         <v>4073</v>
       </c>
@@ -80935,7 +81598,10 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="545" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B545" s="16" t="s">
         <v>4073</v>
       </c>
@@ -80946,7 +81612,10 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="546" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B546" s="16" t="s">
         <v>4073</v>
       </c>
@@ -80957,7 +81626,10 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="547" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B547" s="16" t="s">
         <v>4073</v>
       </c>
@@ -80968,7 +81640,10 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="548" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B548" s="16" t="s">
         <v>4074</v>
       </c>
@@ -80979,7 +81654,10 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="549" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B549" s="16" t="s">
         <v>4074</v>
       </c>
@@ -80990,7 +81668,10 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="550" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B550" s="16" t="s">
         <v>4077</v>
       </c>
@@ -81001,7 +81682,10 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="551" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B551" s="16" t="s">
         <v>4077</v>
       </c>
@@ -81012,7 +81696,10 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="552" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B552" s="16" t="s">
         <v>4168</v>
       </c>
@@ -81023,7 +81710,10 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="553" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B553" s="16" t="s">
         <v>4168</v>
       </c>
@@ -81034,7 +81724,10 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="554" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B554" s="16" t="s">
         <v>4168</v>
       </c>
@@ -81045,7 +81738,10 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="555" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B555" s="16" t="s">
         <v>4168</v>
       </c>
@@ -81056,7 +81752,10 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="556" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B556" s="16" t="s">
         <v>4169</v>
       </c>
@@ -81067,7 +81766,10 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="557" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B557" s="16" t="s">
         <v>4170</v>
       </c>
@@ -81078,7 +81780,10 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="558" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B558" s="16" t="s">
         <v>4170</v>
       </c>
@@ -81089,7 +81794,10 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="559" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B559" s="16" t="s">
         <v>4170</v>
       </c>
@@ -81100,7 +81808,10 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="560" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B560" s="16" t="s">
         <v>4171</v>
       </c>
@@ -81111,7 +81822,10 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="561" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B561" s="16" t="s">
         <v>4171</v>
       </c>
@@ -81122,7 +81836,10 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="562" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B562" s="16" t="s">
         <v>4171</v>
       </c>
@@ -81133,7 +81850,10 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="563" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B563" s="16" t="s">
         <v>4171</v>
       </c>
@@ -81144,7 +81864,10 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="564" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B564" s="16" t="s">
         <v>4172</v>
       </c>
@@ -81155,7 +81878,10 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="565" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B565" s="16" t="s">
         <v>4172</v>
       </c>
@@ -81166,7 +81892,10 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="566" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B566" s="16" t="s">
         <v>4172</v>
       </c>
@@ -81177,7 +81906,10 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="567" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B567" s="16" t="s">
         <v>4173</v>
       </c>
@@ -81188,7 +81920,10 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="568" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B568" s="16" t="s">
         <v>4174</v>
       </c>
@@ -81199,7 +81934,10 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="569" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B569" s="16" t="s">
         <v>4174</v>
       </c>
@@ -81210,7 +81948,10 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="570" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B570" s="16" t="s">
         <v>4231</v>
       </c>
@@ -81221,7 +81962,10 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="571" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B571" s="16" t="s">
         <v>4231</v>
       </c>
@@ -81232,7 +81976,10 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="572" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B572" s="16" t="s">
         <v>4231</v>
       </c>
@@ -81243,7 +81990,10 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="573" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B573" s="16" t="s">
         <v>4232</v>
       </c>
@@ -81254,7 +82004,10 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="574" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B574" s="16" t="s">
         <v>4232</v>
       </c>
@@ -81265,7 +82018,10 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="575" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B575" s="16" t="s">
         <v>4233</v>
       </c>
@@ -81276,7 +82032,10 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="576" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B576" s="16" t="s">
         <v>4233</v>
       </c>
@@ -81287,7 +82046,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="577" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B577" s="16" t="s">
         <v>4233</v>
       </c>
@@ -81298,7 +82060,10 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="578" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B578" s="16" t="s">
         <v>4233</v>
       </c>
@@ -81309,7 +82074,10 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="579" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B579" s="16" t="s">
         <v>4233</v>
       </c>
@@ -81320,7 +82088,10 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="580" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B580" s="16" t="s">
         <v>4233</v>
       </c>
@@ -81331,7 +82102,10 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="581" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B581" s="16" t="s">
         <v>4234</v>
       </c>
@@ -81342,7 +82116,10 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="582" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B582" s="16" t="s">
         <v>4234</v>
       </c>
@@ -81353,7 +82130,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="583" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B583" s="16" t="s">
         <v>4234</v>
       </c>
@@ -81364,7 +82144,10 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="584" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B584" s="16" t="s">
         <v>4236</v>
       </c>
@@ -81375,7 +82158,10 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="585" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B585" s="16" t="s">
         <v>4236</v>
       </c>
@@ -81386,7 +82172,10 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="586" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B586" s="16" t="s">
         <v>4236</v>
       </c>
@@ -81397,7 +82186,10 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="587" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B587" s="16" t="s">
         <v>4236</v>
       </c>
@@ -81408,7 +82200,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="588" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B588" s="16" t="s">
         <v>4236</v>
       </c>
@@ -81419,7 +82214,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="589" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B589" s="16" t="s">
         <v>4237</v>
       </c>
@@ -81430,7 +82228,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="590" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B590" s="16" t="s">
         <v>4238</v>
       </c>
@@ -81441,7 +82242,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="591" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B591" s="16" t="s">
         <v>4238</v>
       </c>
@@ -81452,7 +82256,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="592" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B592" s="16" t="s">
         <v>4238</v>
       </c>
@@ -81463,7 +82270,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="593" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B593" s="16" t="s">
         <v>4238</v>
       </c>
@@ -81474,7 +82284,10 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="594" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B594" s="16" t="s">
         <v>4238</v>
       </c>
@@ -81485,7 +82298,10 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="595" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B595" s="16" t="s">
         <v>4239</v>
       </c>
@@ -81496,7 +82312,10 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="596" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B596" s="16" t="s">
         <v>4240</v>
       </c>
@@ -81507,7 +82326,10 @@
         <v>4291</v>
       </c>
     </row>
-    <row r="597" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="10" t="s">
+        <v>3485</v>
+      </c>
       <c r="B597" s="16" t="s">
         <v>4240</v>
       </c>
@@ -81518,7 +82340,10 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="598" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>4294</v>
+      </c>
       <c r="B598" t="s">
         <v>4298</v>
       </c>
@@ -81529,7 +82354,10 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="599" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>4294</v>
+      </c>
       <c r="B599" t="s">
         <v>4299</v>
       </c>
@@ -81540,7 +82368,10 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="600" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>4294</v>
+      </c>
       <c r="B600" t="s">
         <v>4299</v>
       </c>
@@ -81551,7 +82382,10 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="601" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>4294</v>
+      </c>
       <c r="B601" t="s">
         <v>4302</v>
       </c>
@@ -81562,7 +82396,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="602" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>4294</v>
+      </c>
       <c r="B602" t="s">
         <v>4296</v>
       </c>
@@ -81573,7 +82410,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="603" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>4294</v>
+      </c>
       <c r="B603" t="s">
         <v>4296</v>
       </c>
@@ -81584,7 +82424,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="604" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>4294</v>
+      </c>
       <c r="B604" t="s">
         <v>4297</v>
       </c>
@@ -81595,7 +82438,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="605" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>4294</v>
+      </c>
       <c r="B605" t="s">
         <v>4297</v>
       </c>
@@ -81606,7 +82452,10 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="606" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>4294</v>
+      </c>
       <c r="B606" t="s">
         <v>4298</v>
       </c>
@@ -81617,7 +82466,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="607" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>4294</v>
+      </c>
       <c r="B607" t="s">
         <v>4299</v>
       </c>
@@ -81628,7 +82480,10 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="608" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>4294</v>
+      </c>
       <c r="B608" t="s">
         <v>4299</v>
       </c>
@@ -81639,7 +82494,10 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="609" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>4294</v>
+      </c>
       <c r="B609" t="s">
         <v>4299</v>
       </c>
@@ -81650,7 +82508,10 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="610" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>4294</v>
+      </c>
       <c r="B610" t="s">
         <v>4302</v>
       </c>
@@ -81661,7 +82522,10 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="611" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>4294</v>
+      </c>
       <c r="B611" t="s">
         <v>4303</v>
       </c>
@@ -81672,7 +82536,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="612" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>4294</v>
+      </c>
       <c r="B612" t="s">
         <v>4303</v>
       </c>
@@ -81683,7 +82550,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="613" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>4294</v>
+      </c>
       <c r="B613" t="s">
         <v>4344</v>
       </c>
@@ -81694,7 +82564,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="614" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>4294</v>
+      </c>
       <c r="B614" t="s">
         <v>4345</v>
       </c>
@@ -81705,7 +82578,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="615" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>4294</v>
+      </c>
       <c r="B615" t="s">
         <v>4345</v>
       </c>
@@ -81716,7 +82592,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="616" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>4294</v>
+      </c>
       <c r="B616" t="s">
         <v>4347</v>
       </c>
@@ -81727,7 +82606,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="617" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>4294</v>
+      </c>
       <c r="B617" t="s">
         <v>4347</v>
       </c>
@@ -81738,7 +82620,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="618" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>4294</v>
+      </c>
       <c r="B618" t="s">
         <v>4347</v>
       </c>
@@ -81749,7 +82634,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="619" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>4294</v>
+      </c>
       <c r="B619" t="s">
         <v>4348</v>
       </c>
@@ -81760,7 +82648,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="620" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>4294</v>
+      </c>
       <c r="B620" t="s">
         <v>4342</v>
       </c>
@@ -81771,7 +82662,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="621" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>4294</v>
+      </c>
       <c r="B621" t="s">
         <v>4373</v>
       </c>
@@ -81782,7 +82676,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="622" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>4294</v>
+      </c>
       <c r="B622" t="s">
         <v>4373</v>
       </c>
@@ -81793,7 +82690,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="623" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>4294</v>
+      </c>
       <c r="B623" t="s">
         <v>4375</v>
       </c>
@@ -81804,7 +82704,10 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="624" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>4294</v>
+      </c>
       <c r="B624" t="s">
         <v>4375</v>
       </c>
@@ -81815,7 +82718,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="625" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>4294</v>
+      </c>
       <c r="B625" t="s">
         <v>4375</v>
       </c>
@@ -81826,7 +82732,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="626" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>4294</v>
+      </c>
       <c r="B626" t="s">
         <v>4375</v>
       </c>
@@ -81837,7 +82746,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="627" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>4294</v>
+      </c>
       <c r="B627" t="s">
         <v>4375</v>
       </c>
@@ -81848,7 +82760,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="628" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>4294</v>
+      </c>
       <c r="B628" t="s">
         <v>4375</v>
       </c>
@@ -81859,7 +82774,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="629" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>4294</v>
+      </c>
       <c r="B629" t="s">
         <v>4375</v>
       </c>
@@ -81870,7 +82788,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="630" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>4294</v>
+      </c>
       <c r="B630" t="s">
         <v>4375</v>
       </c>
@@ -81881,7 +82802,10 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="631" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>4294</v>
+      </c>
       <c r="B631" t="s">
         <v>4375</v>
       </c>
@@ -81890,6 +82814,821 @@
       </c>
       <c r="D631" t="s">
         <v>4371</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B632" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C632" s="16" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D632" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B633" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C633" s="16" t="s">
+        <v>4438</v>
+      </c>
+      <c r="D633" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B634" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C634" s="16" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D634" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B635" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C635" s="16" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D635" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B636" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C636" s="16" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D636" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B637" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C637" s="16" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D637" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B638" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C638" s="16" t="s">
+        <v>4443</v>
+      </c>
+      <c r="D638" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B639" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C639" s="16" t="s">
+        <v>4446</v>
+      </c>
+      <c r="D639" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B640" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C640" s="16" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D640" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B641" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C641" s="16" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D641" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B642" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C642" s="16" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D642" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B643" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C643" s="16" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D643" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B644" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C644" s="16" t="s">
+        <v>4451</v>
+      </c>
+      <c r="D644" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B645" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C645" s="16" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D645" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B646" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C646" s="16" t="s">
+        <v>4455</v>
+      </c>
+      <c r="D646" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B647" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C647" s="16" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D647" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B648" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C648" s="16" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D648" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B649" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C649" s="16" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D649" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B650" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C650" s="16" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D650" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B651" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C651" s="16" t="s">
+        <v>4462</v>
+      </c>
+      <c r="D651" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B652" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C652" s="16" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D652" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B653" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C653" s="16" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D653" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B654" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C654" s="16" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D654" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B655" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C655" s="16" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D655" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B656" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C656" s="16" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D656" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B657" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C657" s="16" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D657" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B658" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C658" s="16" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D658" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B659" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C659" s="16" t="s">
+        <v>4473</v>
+      </c>
+      <c r="D659" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B660" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C660" s="16" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D660" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B661" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C661" s="16" t="s">
+        <v>4475</v>
+      </c>
+      <c r="D661" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B662" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C662" s="16" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D662" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B663" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C663" s="16" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D663" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B664" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C664" s="16" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D664" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B665" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C665" s="16" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D665" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B666" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C666" s="16" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D666" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B667" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C667" s="16" t="s">
+        <v>4482</v>
+      </c>
+      <c r="D667" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B668" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C668" s="16" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D668" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B669" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C669" s="16" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D669" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B670" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C670" s="16" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D670" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B671" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C671" s="16" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D671" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B672" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C672" s="16" t="s">
+        <v>4487</v>
+      </c>
+      <c r="D672" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B673" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C673" s="16" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D673" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B674" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C674" s="16" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D674" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B675" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C675" s="16" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D675" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B676" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C676" s="16" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D676" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B677" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C677" s="16" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D677" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B678" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C678" s="16" t="s">
+        <v>4493</v>
+      </c>
+      <c r="D678" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B679" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C679" s="16" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D679" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B680" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C680" s="16" t="s">
+        <v>4497</v>
+      </c>
+      <c r="D680" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B681" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C681" s="16" t="s">
+        <v>4498</v>
+      </c>
+      <c r="D681" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B682" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C682" s="16" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D682" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B683" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C683" s="16" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D683" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B684" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C684" s="16" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D684" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B685" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C685" s="16" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D685" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B686" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C686" s="16" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D686" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B687" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C687" s="16" t="s">
+        <v>4504</v>
+      </c>
+      <c r="D687" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B688" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C688" s="16" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D688" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="689" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B689" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C689" s="16" t="s">
+        <v>4506</v>
+      </c>
+      <c r="D689" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="690" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B690" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C690" s="16" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D690" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="691" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B691" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C691" s="16" t="s">
+        <v>4508</v>
+      </c>
+      <c r="D691" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="692" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B692" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C692" s="16" t="s">
+        <v>4509</v>
+      </c>
+      <c r="D692" t="s">
+        <v>4495</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12962" uniqueCount="4511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13113" uniqueCount="4546">
   <si>
     <t>trackID</t>
   </si>
@@ -11801,12 +11801,6 @@
     <t>Unnamed trail off Hughes Town Hall Rd</t>
   </si>
   <si>
-    <t>PERO01, GLGR01</t>
-  </si>
-  <si>
-    <t>HUTH01, GLGR01</t>
-  </si>
-  <si>
     <t>PERO11, NCTBF07, NCTBF08</t>
   </si>
   <si>
@@ -11816,9 +11810,6 @@
     <t>ATV/Snow Trail 31</t>
   </si>
   <si>
-    <t>HUTH08, PERO01</t>
-  </si>
-  <si>
     <t>PIKR01, PIKR02</t>
   </si>
   <si>
@@ -11981,12 +11972,6 @@
     <t>start of gravel</t>
   </si>
   <si>
-    <t>PINE07, PLKT01, PMRS12</t>
-  </si>
-  <si>
-    <t>PINE06, PLKT01, PRMR11</t>
-  </si>
-  <si>
     <t>PMRS11</t>
   </si>
   <si>
@@ -13554,6 +13539,126 @@
   </si>
   <si>
     <t>Agate House</t>
+  </si>
+  <si>
+    <t>PINE07, PLKT01, PMRS11, PMRS12</t>
+  </si>
+  <si>
+    <t>PINE06, PLKT01, PRMR11, PMRS12</t>
+  </si>
+  <si>
+    <t>HUTH08, GLGR01, LGRN09</t>
+  </si>
+  <si>
+    <t>PERO01, GLGR01, LGRN09</t>
+  </si>
+  <si>
+    <t>HUTH08, PERO01, LGRN09</t>
+  </si>
+  <si>
+    <t>WLLS01</t>
+  </si>
+  <si>
+    <t>Wills Rd</t>
+  </si>
+  <si>
+    <t>WLLS02</t>
+  </si>
+  <si>
+    <t>WLLS03</t>
+  </si>
+  <si>
+    <t>WLLS04</t>
+  </si>
+  <si>
+    <t>WLLS05</t>
+  </si>
+  <si>
+    <t>LGRN01</t>
+  </si>
+  <si>
+    <t>Lindgren Rd</t>
+  </si>
+  <si>
+    <t>LGRN02</t>
+  </si>
+  <si>
+    <t>LGRN03</t>
+  </si>
+  <si>
+    <t>LGRN04</t>
+  </si>
+  <si>
+    <t>LGRN05</t>
+  </si>
+  <si>
+    <t>LGRN06</t>
+  </si>
+  <si>
+    <t>LGRN07</t>
+  </si>
+  <si>
+    <t>LGRN08</t>
+  </si>
+  <si>
+    <t>LGRN09</t>
+  </si>
+  <si>
+    <t>Unnamed trail off Wills Rd</t>
+  </si>
+  <si>
+    <t>Lindren Rd</t>
+  </si>
+  <si>
+    <t>Wills Rd [West]</t>
+  </si>
+  <si>
+    <t>Wills Rd [East]</t>
+  </si>
+  <si>
+    <t>Unnamed trail off Lindgren Rd</t>
+  </si>
+  <si>
+    <t>Hughes Town Hall Rd / Gallagher Rd / Pero Rd</t>
+  </si>
+  <si>
+    <t>HUTH08, GLGR01, PERO01</t>
+  </si>
+  <si>
+    <t>PIKR03, SUTH01</t>
+  </si>
+  <si>
+    <t>CTOF03, SUTH01</t>
+  </si>
+  <si>
+    <t>SUTH01</t>
+  </si>
+  <si>
+    <t>SUTH02</t>
+  </si>
+  <si>
+    <t>KERN01</t>
+  </si>
+  <si>
+    <t>Sutherland Rd</t>
+  </si>
+  <si>
+    <t>Kern Lake Rd</t>
+  </si>
+  <si>
+    <t>Cutoff Rd / Pike River Rd</t>
+  </si>
+  <si>
+    <t>Unnamed trail of Sutherland Rd</t>
+  </si>
+  <si>
+    <t>CTOF03, PIKR03</t>
+  </si>
+  <si>
+    <t>SUTH03, KERN01</t>
+  </si>
+  <si>
+    <t>SUTH02, SUTH03</t>
   </si>
 </sst>
 </file>
@@ -13902,13 +14007,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1242"/>
+  <dimension ref="A1:X1259"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1214" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1237" sqref="B1237"/>
+      <selection pane="bottomRight" activeCell="A1259" sqref="A1259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20138,7 +20243,7 @@
         <v>3484</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>3947</v>
+        <v>3944</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>304</v>
@@ -20153,10 +20258,10 @@
         <v>3408</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>3954</v>
+        <v>3951</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>3959</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20164,7 +20269,7 @@
         <v>3484</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>3948</v>
+        <v>3945</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>304</v>
@@ -20176,16 +20281,16 @@
         <v>10</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>3954</v>
+        <v>3951</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>3960</v>
+        <v>3957</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20193,7 +20298,7 @@
         <v>3484</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>304</v>
@@ -20205,16 +20310,16 @@
         <v>10</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>3948</v>
+        <v>3945</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20222,7 +20327,7 @@
         <v>3484</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>304</v>
@@ -20234,16 +20339,16 @@
         <v>10</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20251,7 +20356,7 @@
         <v>3484</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>304</v>
@@ -20263,16 +20368,16 @@
         <v>10</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20280,7 +20385,7 @@
         <v>3484</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>304</v>
@@ -20292,16 +20397,16 @@
         <v>10</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20309,7 +20414,7 @@
         <v>3484</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>304</v>
@@ -20321,16 +20426,16 @@
         <v>10</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>3982</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20338,10 +20443,10 @@
         <v>3484</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>3982</v>
+        <v>3979</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>25</v>
@@ -20353,13 +20458,13 @@
         <v>304</v>
       </c>
       <c r="G241" s="16" t="s">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="H241" s="16" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="I241" s="16" t="s">
-        <v>3984</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20367,10 +20472,10 @@
         <v>3484</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>3984</v>
+        <v>3981</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>9</v>
@@ -20379,13 +20484,13 @@
         <v>10</v>
       </c>
       <c r="F242" s="16" t="s">
-        <v>3985</v>
+        <v>3982</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>839</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>3982</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20613,10 +20718,10 @@
         <v>3484</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>3936</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>3939</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>9</v>
@@ -20628,10 +20733,10 @@
         <v>333</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20639,10 +20744,10 @@
         <v>3484</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>9</v>
@@ -20651,16 +20756,16 @@
         <v>10</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>3936</v>
+        <v>3933</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20668,10 +20773,10 @@
         <v>3484</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>9</v>
@@ -20680,16 +20785,16 @@
         <v>10</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>3943</v>
+        <v>3940</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>3935</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -24235,7 +24340,7 @@
         <v>1939</v>
       </c>
       <c r="G390" s="4" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="H390" s="4"/>
       <c r="I390" t="s">
@@ -24259,7 +24364,7 @@
         <v>10</v>
       </c>
       <c r="F391" s="4" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="G391" s="4" t="s">
         <v>1940</v>
@@ -24823,10 +24928,10 @@
         <v>3484</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>3961</v>
+        <v>3958</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>9</v>
@@ -24835,13 +24940,13 @@
         <v>10</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>3963</v>
+        <v>3960</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="I412" s="16" t="s">
-        <v>3980</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -24849,10 +24954,10 @@
         <v>3484</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>9</v>
@@ -24861,16 +24966,16 @@
         <v>10</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="G413" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="H413" s="16" t="s">
-        <v>3961</v>
+        <v>3958</v>
       </c>
       <c r="I413" s="16" t="s">
-        <v>3965</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -24878,10 +24983,10 @@
         <v>3484</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>3965</v>
+        <v>3962</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>9</v>
@@ -24890,16 +24995,16 @@
         <v>10</v>
       </c>
       <c r="F414" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="G414" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="H414" s="16" t="s">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="I414" s="16" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -24907,10 +25012,10 @@
         <v>3484</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>9</v>
@@ -24919,16 +25024,16 @@
         <v>10</v>
       </c>
       <c r="F415" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="G415" s="16" t="s">
-        <v>3977</v>
+        <v>3974</v>
       </c>
       <c r="H415" s="16" t="s">
-        <v>3965</v>
+        <v>3962</v>
       </c>
       <c r="I415" s="16" t="s">
-        <v>3967</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -24936,10 +25041,10 @@
         <v>3484</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>3967</v>
+        <v>3964</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>9</v>
@@ -24948,16 +25053,16 @@
         <v>10</v>
       </c>
       <c r="F416" s="16" t="s">
-        <v>3977</v>
+        <v>3974</v>
       </c>
       <c r="G416" s="16" t="s">
-        <v>3974</v>
+        <v>3971</v>
       </c>
       <c r="H416" s="16" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
       <c r="I416" s="16" t="s">
-        <v>3968</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -24965,10 +25070,10 @@
         <v>3484</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>3968</v>
+        <v>3965</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>25</v>
@@ -24977,16 +25082,16 @@
         <v>10</v>
       </c>
       <c r="F417" s="16" t="s">
-        <v>3974</v>
+        <v>3971</v>
       </c>
       <c r="G417" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="H417" s="16" t="s">
-        <v>3967</v>
+        <v>3964</v>
       </c>
       <c r="I417" s="16" t="s">
-        <v>3969</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -24994,10 +25099,10 @@
         <v>3484</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>3969</v>
+        <v>3966</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>25</v>
@@ -25006,16 +25111,16 @@
         <v>10</v>
       </c>
       <c r="F418" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="G418" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="H418" s="16" t="s">
-        <v>3968</v>
+        <v>3965</v>
       </c>
       <c r="I418" s="16" t="s">
-        <v>3970</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -25023,10 +25128,10 @@
         <v>3484</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>3970</v>
+        <v>3967</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>25</v>
@@ -25035,16 +25140,16 @@
         <v>10</v>
       </c>
       <c r="F419" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="G419" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="H419" s="16" t="s">
-        <v>3969</v>
+        <v>3966</v>
       </c>
       <c r="I419" s="16" t="s">
-        <v>3971</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -25052,10 +25157,10 @@
         <v>3484</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>3971</v>
+        <v>3968</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>25</v>
@@ -25064,16 +25169,16 @@
         <v>10</v>
       </c>
       <c r="F420" s="16" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="G420" s="16" t="s">
-        <v>3976</v>
+        <v>3973</v>
       </c>
       <c r="H420" s="16" t="s">
-        <v>3970</v>
+        <v>3967</v>
       </c>
       <c r="I420" s="16" t="s">
-        <v>3972</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -25081,10 +25186,10 @@
         <v>3484</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>3972</v>
+        <v>3969</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>25</v>
@@ -25093,13 +25198,13 @@
         <v>10</v>
       </c>
       <c r="F421" s="16" t="s">
-        <v>3976</v>
+        <v>3973</v>
       </c>
       <c r="G421" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H421" s="16" t="s">
-        <v>3971</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -28393,7 +28498,7 @@
         <v>3444</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="H539" s="3" t="s">
         <v>3437</v>
@@ -28419,7 +28524,7 @@
         <v>10</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="G540" s="3" t="s">
         <v>3445</v>
@@ -28483,7 +28588,7 @@
         <v>2554</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>3931</v>
+        <v>4510</v>
       </c>
       <c r="I542" s="3" t="s">
         <v>3346</v>
@@ -29025,7 +29130,7 @@
         <v>3908</v>
       </c>
       <c r="I561" s="3" t="s">
-        <v>3926</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="562" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -34192,7 +34297,7 @@
         <v>3064</v>
       </c>
       <c r="I747" s="3" t="s">
-        <v>3946</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="748" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34421,7 +34526,7 @@
         <v>3924</v>
       </c>
       <c r="H755" s="3" t="s">
-        <v>3927</v>
+        <v>4508</v>
       </c>
       <c r="I755" s="3" t="s">
         <v>3911</v>
@@ -34685,7 +34790,7 @@
         <v>3918</v>
       </c>
       <c r="I764" s="3" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="765" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34693,7 +34798,7 @@
         <v>3484</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>4002</v>
+        <v>3997</v>
       </c>
       <c r="C765" s="3" t="s">
         <v>1850</v>
@@ -34711,10 +34816,10 @@
         <v>3924</v>
       </c>
       <c r="H765" s="3" t="s">
-        <v>4008</v>
+        <v>4003</v>
       </c>
       <c r="I765" s="3" t="s">
-        <v>4003</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="766" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34722,7 +34827,7 @@
         <v>3484</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>4003</v>
+        <v>3998</v>
       </c>
       <c r="C766" s="3" t="s">
         <v>1850</v>
@@ -34740,10 +34845,10 @@
         <v>3924</v>
       </c>
       <c r="H766" s="3" t="s">
-        <v>4002</v>
+        <v>3997</v>
       </c>
       <c r="I766" s="3" t="s">
-        <v>4004</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="767" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34751,7 +34856,7 @@
         <v>3484</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>4004</v>
+        <v>3999</v>
       </c>
       <c r="C767" s="3" t="s">
         <v>1850</v>
@@ -34769,11 +34874,11 @@
         <v>1807</v>
       </c>
       <c r="H767" s="3" t="s">
-        <v>4003</v>
+        <v>3998</v>
       </c>
       <c r="I767" s="3"/>
       <c r="J767" s="3" t="s">
-        <v>4010</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="768" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34781,7 +34886,7 @@
         <v>3484</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>4005</v>
+        <v>4000</v>
       </c>
       <c r="C768" s="3" t="s">
         <v>1850</v>
@@ -34800,10 +34905,10 @@
       </c>
       <c r="H768" s="3"/>
       <c r="I768" s="3" t="s">
+        <v>4001</v>
+      </c>
+      <c r="J768" s="3" t="s">
         <v>4006</v>
-      </c>
-      <c r="J768" s="3" t="s">
-        <v>4011</v>
       </c>
     </row>
     <row r="769" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34811,7 +34916,7 @@
         <v>3484</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>4006</v>
+        <v>4001</v>
       </c>
       <c r="C769" s="3" t="s">
         <v>1850</v>
@@ -34826,13 +34931,13 @@
         <v>3924</v>
       </c>
       <c r="G769" s="3" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="H769" s="3" t="s">
-        <v>4005</v>
+        <v>4000</v>
       </c>
       <c r="I769" s="3" t="s">
-        <v>4009</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="770" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34895,7 +35000,7 @@
         <v>3484</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="C772" s="3" t="s">
         <v>1748</v>
@@ -34913,7 +35018,7 @@
         <v>2111</v>
       </c>
       <c r="I772" s="3" t="s">
-        <v>3945</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="773" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34921,7 +35026,7 @@
         <v>3484</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
       <c r="C773" s="3" t="s">
         <v>1748</v>
@@ -34936,13 +35041,13 @@
         <v>2111</v>
       </c>
       <c r="G773" s="3" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="H773" s="3" t="s">
-        <v>3944</v>
+        <v>3941</v>
       </c>
       <c r="I773" s="3" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="774" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34950,7 +35055,7 @@
         <v>3484</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
       <c r="C774" s="3" t="s">
         <v>1748</v>
@@ -34962,16 +35067,16 @@
         <v>10</v>
       </c>
       <c r="F774" s="3" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="G774" s="3" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="H774" s="3" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
       <c r="I774" s="3" t="s">
-        <v>3938</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="775" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35145,7 +35250,7 @@
         <v>2702</v>
       </c>
       <c r="I780" t="s">
-        <v>3986</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="781" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35171,7 +35276,7 @@
         <v>302</v>
       </c>
       <c r="H781" s="4" t="s">
-        <v>3987</v>
+        <v>4507</v>
       </c>
       <c r="I781" t="s">
         <v>3061</v>
@@ -35234,7 +35339,7 @@
         <v>3484</v>
       </c>
       <c r="B784" s="16" t="s">
-        <v>3988</v>
+        <v>3983</v>
       </c>
       <c r="C784" s="16" t="s">
         <v>311</v>
@@ -35246,16 +35351,16 @@
         <v>10</v>
       </c>
       <c r="F784" s="16" t="s">
-        <v>3993</v>
+        <v>3988</v>
       </c>
       <c r="G784" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I784" s="16" t="s">
-        <v>3996</v>
+        <v>3991</v>
       </c>
       <c r="J784" s="16" t="s">
-        <v>3995</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="785" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35263,7 +35368,7 @@
         <v>3484</v>
       </c>
       <c r="B785" s="16" t="s">
-        <v>3989</v>
+        <v>3984</v>
       </c>
       <c r="C785" s="16" t="s">
         <v>311</v>
@@ -35278,13 +35383,13 @@
         <v>60</v>
       </c>
       <c r="G785" s="16" t="s">
+        <v>3988</v>
+      </c>
+      <c r="H785" s="16" t="s">
+        <v>3992</v>
+      </c>
+      <c r="I785" s="16" t="s">
         <v>3993</v>
-      </c>
-      <c r="H785" s="16" t="s">
-        <v>3997</v>
-      </c>
-      <c r="I785" s="16" t="s">
-        <v>3998</v>
       </c>
     </row>
     <row r="786" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35292,7 +35397,7 @@
         <v>3484</v>
       </c>
       <c r="B786" s="16" t="s">
-        <v>3990</v>
+        <v>3985</v>
       </c>
       <c r="C786" s="16" t="s">
         <v>311</v>
@@ -35304,16 +35409,16 @@
         <v>10</v>
       </c>
       <c r="F786" s="16" t="s">
-        <v>3993</v>
+        <v>3988</v>
       </c>
       <c r="G786" s="16" t="s">
-        <v>3993</v>
+        <v>3988</v>
       </c>
       <c r="H786" s="16" t="s">
-        <v>3999</v>
+        <v>3994</v>
       </c>
       <c r="I786" s="16" t="s">
-        <v>4000</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="787" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35321,7 +35426,7 @@
         <v>3484</v>
       </c>
       <c r="B787" s="16" t="s">
-        <v>3991</v>
+        <v>3986</v>
       </c>
       <c r="C787" s="16" t="s">
         <v>311</v>
@@ -35333,16 +35438,16 @@
         <v>10</v>
       </c>
       <c r="F787" s="16" t="s">
+        <v>3988</v>
+      </c>
+      <c r="G787" s="16" t="s">
+        <v>3988</v>
+      </c>
+      <c r="H787" s="16" t="s">
         <v>3993</v>
       </c>
-      <c r="G787" s="16" t="s">
-        <v>3993</v>
-      </c>
-      <c r="H787" s="16" t="s">
-        <v>3998</v>
-      </c>
       <c r="I787" s="16" t="s">
-        <v>4001</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="788" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35350,7 +35455,7 @@
         <v>3484</v>
       </c>
       <c r="B788" s="16" t="s">
-        <v>3992</v>
+        <v>3987</v>
       </c>
       <c r="C788" s="16" t="s">
         <v>311</v>
@@ -35362,13 +35467,13 @@
         <v>10</v>
       </c>
       <c r="F788" s="16" t="s">
-        <v>3993</v>
+        <v>3988</v>
       </c>
       <c r="G788" s="16" t="s">
-        <v>3994</v>
+        <v>3989</v>
       </c>
       <c r="H788" s="16" t="s">
-        <v>4000</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="789" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35402,10 +35507,10 @@
         <v>3484</v>
       </c>
       <c r="B790" s="16" t="s">
-        <v>3978</v>
+        <v>3975</v>
       </c>
       <c r="C790" s="16" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>9</v>
@@ -35414,16 +35519,16 @@
         <v>10</v>
       </c>
       <c r="F790" s="16" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="G790" s="16" t="s">
-        <v>3977</v>
+        <v>3974</v>
       </c>
       <c r="H790" s="16" t="s">
-        <v>3981</v>
+        <v>3978</v>
       </c>
       <c r="I790" s="16" t="s">
-        <v>3979</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="791" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35431,10 +35536,10 @@
         <v>3484</v>
       </c>
       <c r="B791" s="16" t="s">
-        <v>3979</v>
+        <v>3976</v>
       </c>
       <c r="C791" s="16" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="D791" s="3" t="s">
         <v>9</v>
@@ -35443,13 +35548,13 @@
         <v>10</v>
       </c>
       <c r="F791" s="16" t="s">
-        <v>3977</v>
+        <v>3974</v>
       </c>
       <c r="G791" s="16" t="s">
         <v>839</v>
       </c>
       <c r="H791" s="16" t="s">
-        <v>3978</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="792" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36908,7 +37013,7 @@
         <v>3837</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>3820</v>
@@ -36934,7 +37039,7 @@
         <v>10</v>
       </c>
       <c r="F845" s="3" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="G845" s="3" t="s">
         <v>3828</v>
@@ -37885,7 +37990,7 @@
         <v>3843</v>
       </c>
       <c r="G881" s="3" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="H881" s="3" t="s">
         <v>3839</v>
@@ -37911,7 +38016,7 @@
         <v>10</v>
       </c>
       <c r="F882" s="3" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="G882" s="3" t="s">
         <v>3844</v>
@@ -42120,10 +42225,10 @@
         <v>3484</v>
       </c>
       <c r="B1043" s="16" t="s">
-        <v>4012</v>
+        <v>4007</v>
       </c>
       <c r="C1043" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1043" s="3" t="s">
         <v>9</v>
@@ -42135,10 +42240,10 @@
         <v>167</v>
       </c>
       <c r="G1043" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="I1043" s="16" t="s">
-        <v>4013</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1044" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42146,10 +42251,10 @@
         <v>3484</v>
       </c>
       <c r="B1044" s="16" t="s">
-        <v>4013</v>
+        <v>4008</v>
       </c>
       <c r="C1044" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1044" s="3" t="s">
         <v>9</v>
@@ -42158,16 +42263,16 @@
         <v>10</v>
       </c>
       <c r="F1044" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1044" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1044" s="16" t="s">
-        <v>4012</v>
+        <v>4007</v>
       </c>
       <c r="I1044" s="16" t="s">
-        <v>4014</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1045" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42175,10 +42280,10 @@
         <v>3484</v>
       </c>
       <c r="B1045" s="16" t="s">
-        <v>4014</v>
+        <v>4009</v>
       </c>
       <c r="C1045" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1045" s="3" t="s">
         <v>9</v>
@@ -42187,16 +42292,16 @@
         <v>10</v>
       </c>
       <c r="F1045" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1045" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1045" s="16" t="s">
-        <v>4013</v>
+        <v>4008</v>
       </c>
       <c r="I1045" s="16" t="s">
-        <v>4015</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1046" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42204,10 +42309,10 @@
         <v>3484</v>
       </c>
       <c r="B1046" s="16" t="s">
-        <v>4015</v>
+        <v>4010</v>
       </c>
       <c r="C1046" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1046" s="3" t="s">
         <v>9</v>
@@ -42216,16 +42321,16 @@
         <v>10</v>
       </c>
       <c r="F1046" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1046" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1046" s="16" t="s">
-        <v>4014</v>
+        <v>4009</v>
       </c>
       <c r="I1046" s="16" t="s">
-        <v>4016</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1047" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42233,10 +42338,10 @@
         <v>3484</v>
       </c>
       <c r="B1047" s="16" t="s">
-        <v>4016</v>
+        <v>4011</v>
       </c>
       <c r="C1047" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1047" s="3" t="s">
         <v>9</v>
@@ -42245,16 +42350,16 @@
         <v>10</v>
       </c>
       <c r="F1047" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1047" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1047" s="16" t="s">
-        <v>4015</v>
+        <v>4010</v>
       </c>
       <c r="I1047" s="16" t="s">
-        <v>4017</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1048" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42262,10 +42367,10 @@
         <v>3484</v>
       </c>
       <c r="B1048" s="16" t="s">
-        <v>4017</v>
+        <v>4012</v>
       </c>
       <c r="C1048" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1048" s="3" t="s">
         <v>9</v>
@@ -42274,16 +42379,16 @@
         <v>10</v>
       </c>
       <c r="F1048" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1048" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1048" s="16" t="s">
-        <v>4016</v>
+        <v>4011</v>
       </c>
       <c r="I1048" s="16" t="s">
-        <v>4018</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="1049" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42291,10 +42396,10 @@
         <v>3484</v>
       </c>
       <c r="B1049" s="16" t="s">
-        <v>4018</v>
+        <v>4013</v>
       </c>
       <c r="C1049" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1049" s="3" t="s">
         <v>9</v>
@@ -42303,16 +42408,16 @@
         <v>10</v>
       </c>
       <c r="F1049" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1049" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1049" s="16" t="s">
-        <v>4017</v>
+        <v>4012</v>
       </c>
       <c r="I1049" s="16" t="s">
-        <v>4019</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1050" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42320,10 +42425,10 @@
         <v>3484</v>
       </c>
       <c r="B1050" s="16" t="s">
-        <v>4019</v>
+        <v>4014</v>
       </c>
       <c r="C1050" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1050" s="3" t="s">
         <v>9</v>
@@ -42332,16 +42437,16 @@
         <v>10</v>
       </c>
       <c r="F1050" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1050" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1050" s="16" t="s">
-        <v>4018</v>
+        <v>4013</v>
       </c>
       <c r="I1050" s="16" t="s">
-        <v>4020</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1051" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42349,10 +42454,10 @@
         <v>3484</v>
       </c>
       <c r="B1051" s="16" t="s">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="C1051" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1051" s="3" t="s">
         <v>9</v>
@@ -42361,16 +42466,16 @@
         <v>10</v>
       </c>
       <c r="F1051" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1051" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1051" s="16" t="s">
-        <v>4019</v>
+        <v>4014</v>
       </c>
       <c r="I1051" s="16" t="s">
-        <v>4021</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1052" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42378,10 +42483,10 @@
         <v>3484</v>
       </c>
       <c r="B1052" s="16" t="s">
-        <v>4021</v>
+        <v>4016</v>
       </c>
       <c r="C1052" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1052" s="3" t="s">
         <v>9</v>
@@ -42390,16 +42495,16 @@
         <v>10</v>
       </c>
       <c r="F1052" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1052" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1052" s="16" t="s">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="I1052" s="16" t="s">
-        <v>4022</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1053" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42407,10 +42512,10 @@
         <v>3484</v>
       </c>
       <c r="B1053" s="16" t="s">
-        <v>4022</v>
+        <v>4017</v>
       </c>
       <c r="C1053" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1053" s="3" t="s">
         <v>9</v>
@@ -42419,16 +42524,16 @@
         <v>10</v>
       </c>
       <c r="F1053" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1053" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1053" s="16" t="s">
-        <v>4021</v>
+        <v>4016</v>
       </c>
       <c r="I1053" s="16" t="s">
-        <v>4023</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1054" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42436,10 +42541,10 @@
         <v>3484</v>
       </c>
       <c r="B1054" s="16" t="s">
-        <v>4023</v>
+        <v>4018</v>
       </c>
       <c r="C1054" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1054" s="3" t="s">
         <v>9</v>
@@ -42448,16 +42553,16 @@
         <v>10</v>
       </c>
       <c r="F1054" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1054" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1054" s="16" t="s">
-        <v>4022</v>
+        <v>4017</v>
       </c>
       <c r="I1054" s="16" t="s">
-        <v>4024</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="1055" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42465,10 +42570,10 @@
         <v>3484</v>
       </c>
       <c r="B1055" s="16" t="s">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="C1055" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1055" s="3" t="s">
         <v>9</v>
@@ -42477,16 +42582,16 @@
         <v>10</v>
       </c>
       <c r="F1055" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1055" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1055" s="16" t="s">
-        <v>4023</v>
+        <v>4018</v>
       </c>
       <c r="I1055" s="16" t="s">
-        <v>4025</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1056" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42494,10 +42599,10 @@
         <v>3484</v>
       </c>
       <c r="B1056" s="16" t="s">
-        <v>4025</v>
+        <v>4020</v>
       </c>
       <c r="C1056" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1056" s="3" t="s">
         <v>9</v>
@@ -42506,16 +42611,16 @@
         <v>10</v>
       </c>
       <c r="F1056" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="G1056" s="16" t="s">
         <v>1850</v>
       </c>
       <c r="H1056" s="16" t="s">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="I1056" s="16" t="s">
-        <v>4028</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1057" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42523,10 +42628,10 @@
         <v>3484</v>
       </c>
       <c r="B1057" s="16" t="s">
-        <v>4026</v>
+        <v>4021</v>
       </c>
       <c r="C1057" s="16" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="D1057" s="3" t="s">
         <v>9</v>
@@ -42538,13 +42643,13 @@
         <v>1850</v>
       </c>
       <c r="G1057" s="16" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="H1057" s="16" t="s">
-        <v>4029</v>
+        <v>4024</v>
       </c>
       <c r="J1057" s="16" t="s">
-        <v>4030</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="1058" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44517,7 +44622,7 @@
         <v>1744</v>
       </c>
       <c r="H1132" s="3" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="I1132" s="3" t="s">
         <v>1741</v>
@@ -44806,10 +44911,10 @@
         <v>3485</v>
       </c>
       <c r="B1143" s="16" t="s">
-        <v>4031</v>
+        <v>4026</v>
       </c>
       <c r="C1143" s="16" t="s">
-        <v>4042</v>
+        <v>4037</v>
       </c>
       <c r="D1143">
         <v>2023</v>
@@ -44818,13 +44923,13 @@
         <v>10</v>
       </c>
       <c r="F1143" s="16" t="s">
-        <v>4045</v>
+        <v>4040</v>
       </c>
       <c r="G1143" s="16" t="s">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="I1143" s="16" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44832,10 +44937,10 @@
         <v>3485</v>
       </c>
       <c r="B1144" s="16" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
       <c r="C1144" s="16" t="s">
-        <v>4042</v>
+        <v>4037</v>
       </c>
       <c r="D1144">
         <v>2023</v>
@@ -44844,16 +44949,16 @@
         <v>10</v>
       </c>
       <c r="F1144" s="16" t="s">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="G1144" s="16" t="s">
-        <v>4096</v>
+        <v>4091</v>
       </c>
       <c r="H1144" s="16" t="s">
+        <v>4026</v>
+      </c>
+      <c r="I1144" s="16" t="s">
         <v>4031</v>
-      </c>
-      <c r="I1144" s="16" t="s">
-        <v>4036</v>
       </c>
     </row>
     <row r="1145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44861,10 +44966,10 @@
         <v>3485</v>
       </c>
       <c r="B1145" s="16" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="C1145" s="16" t="s">
-        <v>4040</v>
+        <v>4035</v>
       </c>
       <c r="D1145">
         <v>2023</v>
@@ -44873,19 +44978,19 @@
         <v>10</v>
       </c>
       <c r="F1145" s="16" t="s">
-        <v>4097</v>
+        <v>4092</v>
       </c>
       <c r="G1145" s="16" t="s">
-        <v>4099</v>
+        <v>4094</v>
       </c>
       <c r="H1145" s="16" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
       <c r="I1145" s="16" t="s">
-        <v>4043</v>
+        <v>4038</v>
       </c>
       <c r="J1145" s="16" t="s">
-        <v>4046</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="1146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44893,10 +44998,10 @@
         <v>3485</v>
       </c>
       <c r="B1146" s="16" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="C1146" s="16" t="s">
-        <v>4041</v>
+        <v>4036</v>
       </c>
       <c r="D1146">
         <v>2023</v>
@@ -44905,17 +45010,17 @@
         <v>10</v>
       </c>
       <c r="F1146" s="16" t="s">
-        <v>4098</v>
+        <v>4093</v>
       </c>
       <c r="G1146" s="16" t="s">
-        <v>4048</v>
+        <v>4043</v>
       </c>
       <c r="H1146" s="16" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="I1146" s="16"/>
       <c r="J1146" s="16" t="s">
-        <v>4047</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44923,10 +45028,10 @@
         <v>3485</v>
       </c>
       <c r="B1147" s="16" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="C1147" s="16" t="s">
-        <v>4040</v>
+        <v>4035</v>
       </c>
       <c r="D1147">
         <v>2023</v>
@@ -44935,19 +45040,19 @@
         <v>10</v>
       </c>
       <c r="F1147" s="16" t="s">
-        <v>4033</v>
+        <v>4028</v>
       </c>
       <c r="G1147" s="16" t="s">
+        <v>4029</v>
+      </c>
+      <c r="H1147" s="16" t="s">
+        <v>4039</v>
+      </c>
+      <c r="I1147" s="16" t="s">
         <v>4034</v>
       </c>
-      <c r="H1147" s="16" t="s">
-        <v>4044</v>
-      </c>
-      <c r="I1147" s="16" t="s">
-        <v>4039</v>
-      </c>
       <c r="J1147" s="16" t="s">
-        <v>4047</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44955,10 +45060,10 @@
         <v>3485</v>
       </c>
       <c r="B1148" s="16" t="s">
-        <v>4039</v>
+        <v>4034</v>
       </c>
       <c r="C1148" s="16" t="s">
-        <v>4040</v>
+        <v>4035</v>
       </c>
       <c r="D1148">
         <v>2023</v>
@@ -44967,13 +45072,13 @@
         <v>10</v>
       </c>
       <c r="F1148" s="16" t="s">
-        <v>4034</v>
+        <v>4029</v>
       </c>
       <c r="G1148" s="16" t="s">
-        <v>4049</v>
+        <v>4044</v>
       </c>
       <c r="H1148" s="16" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44984,7 +45089,7 @@
         <v>3508</v>
       </c>
       <c r="C1149" s="3" t="s">
-        <v>4134</v>
+        <v>4129</v>
       </c>
       <c r="D1149">
         <v>2022</v>
@@ -44993,7 +45098,7 @@
         <v>10</v>
       </c>
       <c r="F1149" s="3" t="s">
-        <v>4083</v>
+        <v>4078</v>
       </c>
       <c r="G1149" s="3" t="s">
         <v>3509</v>
@@ -45013,7 +45118,7 @@
         <v>3513</v>
       </c>
       <c r="C1150" s="3" t="s">
-        <v>4134</v>
+        <v>4129</v>
       </c>
       <c r="D1150">
         <v>2022</v>
@@ -45042,7 +45147,7 @@
         <v>3514</v>
       </c>
       <c r="C1151" s="3" t="s">
-        <v>4134</v>
+        <v>4129</v>
       </c>
       <c r="D1151">
         <v>2022</v>
@@ -45071,7 +45176,7 @@
         <v>3515</v>
       </c>
       <c r="C1152" s="3" t="s">
-        <v>4134</v>
+        <v>4129</v>
       </c>
       <c r="D1152">
         <v>2022</v>
@@ -45100,7 +45205,7 @@
         <v>3516</v>
       </c>
       <c r="C1153" s="3" t="s">
-        <v>4134</v>
+        <v>4129</v>
       </c>
       <c r="D1153">
         <v>2022</v>
@@ -45129,7 +45234,7 @@
         <v>3517</v>
       </c>
       <c r="C1154" s="3" t="s">
-        <v>4134</v>
+        <v>4129</v>
       </c>
       <c r="D1154">
         <v>2022</v>
@@ -45141,7 +45246,7 @@
         <v>3512</v>
       </c>
       <c r="G1154" s="3" t="s">
-        <v>4126</v>
+        <v>4121</v>
       </c>
       <c r="H1154" s="3" t="s">
         <v>3525</v>
@@ -45158,7 +45263,7 @@
         <v>3518</v>
       </c>
       <c r="C1155" s="3" t="s">
-        <v>4135</v>
+        <v>4130</v>
       </c>
       <c r="D1155">
         <v>2022</v>
@@ -45167,10 +45272,10 @@
         <v>10</v>
       </c>
       <c r="F1155" s="3" t="s">
-        <v>4127</v>
+        <v>4122</v>
       </c>
       <c r="G1155" s="3" t="s">
-        <v>4128</v>
+        <v>4123</v>
       </c>
       <c r="H1155" s="3" t="s">
         <v>3517</v>
@@ -45187,7 +45292,7 @@
         <v>3520</v>
       </c>
       <c r="C1156" s="3" t="s">
-        <v>4136</v>
+        <v>4131</v>
       </c>
       <c r="D1156">
         <v>2022</v>
@@ -45196,10 +45301,10 @@
         <v>10</v>
       </c>
       <c r="F1156" s="3" t="s">
-        <v>4129</v>
+        <v>4124</v>
       </c>
       <c r="G1156" s="3" t="s">
-        <v>4130</v>
+        <v>4125</v>
       </c>
       <c r="H1156" s="3" t="s">
         <v>3518</v>
@@ -45214,7 +45319,7 @@
         <v>3521</v>
       </c>
       <c r="C1157" s="3" t="s">
-        <v>4137</v>
+        <v>4132</v>
       </c>
       <c r="D1157">
         <v>2022</v>
@@ -45223,10 +45328,10 @@
         <v>10</v>
       </c>
       <c r="F1157" s="3" t="s">
-        <v>4131</v>
+        <v>4126</v>
       </c>
       <c r="G1157" s="3" t="s">
-        <v>4132</v>
+        <v>4127</v>
       </c>
       <c r="H1157" s="3" t="s">
         <v>3523</v>
@@ -45243,7 +45348,7 @@
         <v>3526</v>
       </c>
       <c r="C1158" s="3" t="s">
-        <v>4138</v>
+        <v>4133</v>
       </c>
       <c r="D1158">
         <v>2022</v>
@@ -45252,7 +45357,7 @@
         <v>10</v>
       </c>
       <c r="F1158" s="3" t="s">
-        <v>4133</v>
+        <v>4128</v>
       </c>
       <c r="G1158" s="3" t="s">
         <v>3528</v>
@@ -45272,7 +45377,7 @@
         <v>3530</v>
       </c>
       <c r="C1159" s="3" t="s">
-        <v>4138</v>
+        <v>4133</v>
       </c>
       <c r="D1159">
         <v>2022</v>
@@ -45301,7 +45406,7 @@
         <v>3531</v>
       </c>
       <c r="C1160" s="3" t="s">
-        <v>4138</v>
+        <v>4133</v>
       </c>
       <c r="D1160">
         <v>2022</v>
@@ -45313,7 +45418,7 @@
         <v>3527</v>
       </c>
       <c r="G1160" s="3" t="s">
-        <v>4089</v>
+        <v>4084</v>
       </c>
       <c r="H1160" s="3" t="s">
         <v>3530</v>
@@ -45339,7 +45444,7 @@
         <v>10</v>
       </c>
       <c r="F1161" s="3" t="s">
-        <v>4081</v>
+        <v>4076</v>
       </c>
       <c r="G1161" s="3" t="s">
         <v>3505</v>
@@ -45379,10 +45484,10 @@
         <v>3485</v>
       </c>
       <c r="B1163" s="3" t="s">
-        <v>4068</v>
+        <v>4063</v>
       </c>
       <c r="C1163" s="3" t="s">
-        <v>4084</v>
+        <v>4079</v>
       </c>
       <c r="D1163">
         <v>2023</v>
@@ -45391,16 +45496,16 @@
         <v>10</v>
       </c>
       <c r="F1163" s="3" t="s">
-        <v>4083</v>
+        <v>4078</v>
       </c>
       <c r="G1163" s="3" t="s">
         <v>3529</v>
       </c>
       <c r="H1163" s="3" t="s">
-        <v>4078</v>
+        <v>4073</v>
       </c>
       <c r="I1163" s="3" t="s">
-        <v>4069</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45408,10 +45513,10 @@
         <v>3485</v>
       </c>
       <c r="B1164" s="3" t="s">
-        <v>4069</v>
+        <v>4064</v>
       </c>
       <c r="C1164" s="3" t="s">
-        <v>4084</v>
+        <v>4079</v>
       </c>
       <c r="D1164">
         <v>2023</v>
@@ -45426,10 +45531,10 @@
         <v>3705</v>
       </c>
       <c r="H1164" s="3" t="s">
-        <v>4068</v>
+        <v>4063</v>
       </c>
       <c r="I1164" s="3" t="s">
-        <v>4070</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45437,10 +45542,10 @@
         <v>3485</v>
       </c>
       <c r="B1165" s="3" t="s">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="C1165" s="3" t="s">
-        <v>4084</v>
+        <v>4079</v>
       </c>
       <c r="D1165">
         <v>2023</v>
@@ -45455,10 +45560,10 @@
         <v>3522</v>
       </c>
       <c r="H1165" s="3" t="s">
-        <v>4069</v>
+        <v>4064</v>
       </c>
       <c r="I1165" s="3" t="s">
-        <v>4071</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45466,10 +45571,10 @@
         <v>3485</v>
       </c>
       <c r="B1166" s="3" t="s">
-        <v>4071</v>
+        <v>4066</v>
       </c>
       <c r="C1166" s="3" t="s">
-        <v>4084</v>
+        <v>4079</v>
       </c>
       <c r="D1166">
         <v>2023</v>
@@ -45481,13 +45586,13 @@
         <v>3522</v>
       </c>
       <c r="G1166" s="3" t="s">
-        <v>4089</v>
+        <v>4084</v>
       </c>
       <c r="H1166" s="3" t="s">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="I1166" s="3" t="s">
-        <v>4072</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="1167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45495,10 +45600,10 @@
         <v>3485</v>
       </c>
       <c r="B1167" s="3" t="s">
-        <v>4072</v>
+        <v>4067</v>
       </c>
       <c r="C1167" s="3" t="s">
-        <v>4086</v>
+        <v>4081</v>
       </c>
       <c r="D1167">
         <v>2023</v>
@@ -45507,16 +45612,16 @@
         <v>10</v>
       </c>
       <c r="F1167" s="3" t="s">
-        <v>4085</v>
+        <v>4080</v>
       </c>
       <c r="G1167" s="3" t="s">
-        <v>4087</v>
+        <v>4082</v>
       </c>
       <c r="H1167" s="3" t="s">
-        <v>4071</v>
+        <v>4066</v>
       </c>
       <c r="I1167" s="3" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45524,10 +45629,10 @@
         <v>3485</v>
       </c>
       <c r="B1168" s="3" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="C1168" s="3" t="s">
-        <v>4086</v>
+        <v>4081</v>
       </c>
       <c r="D1168">
         <v>2023</v>
@@ -45536,16 +45641,16 @@
         <v>10</v>
       </c>
       <c r="F1168" s="3" t="s">
-        <v>4087</v>
+        <v>4082</v>
       </c>
       <c r="G1168" s="3" t="s">
-        <v>4091</v>
+        <v>4086</v>
       </c>
       <c r="H1168" s="3" t="s">
-        <v>4072</v>
+        <v>4067</v>
       </c>
       <c r="I1168" s="3" t="s">
-        <v>4074</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="1169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45553,10 +45658,10 @@
         <v>3485</v>
       </c>
       <c r="B1169" s="3" t="s">
-        <v>4074</v>
+        <v>4069</v>
       </c>
       <c r="C1169" s="3" t="s">
-        <v>4088</v>
+        <v>4083</v>
       </c>
       <c r="D1169">
         <v>2023</v>
@@ -45565,16 +45670,16 @@
         <v>10</v>
       </c>
       <c r="F1169" t="s">
-        <v>4090</v>
+        <v>4085</v>
       </c>
       <c r="G1169" s="3" t="s">
         <v>3705</v>
       </c>
       <c r="H1169" s="3" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="I1169" s="3" t="s">
-        <v>4075</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45582,10 +45687,10 @@
         <v>3485</v>
       </c>
       <c r="B1170" s="3" t="s">
-        <v>4075</v>
+        <v>4070</v>
       </c>
       <c r="C1170" s="3" t="s">
-        <v>4088</v>
+        <v>4083</v>
       </c>
       <c r="D1170">
         <v>2023</v>
@@ -45600,10 +45705,10 @@
         <v>3705</v>
       </c>
       <c r="H1170" s="3" t="s">
-        <v>4074</v>
+        <v>4069</v>
       </c>
       <c r="I1170" s="3" t="s">
-        <v>4076</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="1171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45611,10 +45716,10 @@
         <v>3485</v>
       </c>
       <c r="B1171" s="3" t="s">
-        <v>4076</v>
+        <v>4071</v>
       </c>
       <c r="C1171" s="3" t="s">
-        <v>4088</v>
+        <v>4083</v>
       </c>
       <c r="D1171">
         <v>2023</v>
@@ -45626,13 +45731,13 @@
         <v>3705</v>
       </c>
       <c r="G1171" s="3" t="s">
-        <v>4093</v>
+        <v>4088</v>
       </c>
       <c r="H1171" s="3" t="s">
-        <v>4075</v>
+        <v>4070</v>
       </c>
       <c r="I1171" s="3" t="s">
-        <v>4077</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45640,10 +45745,10 @@
         <v>3485</v>
       </c>
       <c r="B1172" s="3" t="s">
-        <v>4077</v>
+        <v>4072</v>
       </c>
       <c r="C1172" s="3" t="s">
-        <v>4088</v>
+        <v>4083</v>
       </c>
       <c r="D1172">
         <v>2023</v>
@@ -45652,16 +45757,16 @@
         <v>10</v>
       </c>
       <c r="F1172" s="3" t="s">
-        <v>4093</v>
+        <v>4088</v>
       </c>
       <c r="G1172" t="s">
-        <v>4092</v>
+        <v>4087</v>
       </c>
       <c r="H1172" s="3" t="s">
-        <v>4076</v>
+        <v>4071</v>
       </c>
       <c r="I1172" s="3" t="s">
-        <v>4078</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="1173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45669,10 +45774,10 @@
         <v>3485</v>
       </c>
       <c r="B1173" s="3" t="s">
-        <v>4078</v>
+        <v>4073</v>
       </c>
       <c r="C1173" s="3" t="s">
-        <v>4095</v>
+        <v>4090</v>
       </c>
       <c r="D1173">
         <v>2023</v>
@@ -45681,16 +45786,16 @@
         <v>10</v>
       </c>
       <c r="F1173" s="3" t="s">
-        <v>4094</v>
+        <v>4089</v>
       </c>
       <c r="G1173" s="3" t="s">
-        <v>4083</v>
+        <v>4078</v>
       </c>
       <c r="H1173" s="3" t="s">
-        <v>4077</v>
+        <v>4072</v>
       </c>
       <c r="I1173" s="3" t="s">
-        <v>4068</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="1174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45710,7 +45815,7 @@
         <v>10</v>
       </c>
       <c r="F1174" s="3" t="s">
-        <v>4082</v>
+        <v>4077</v>
       </c>
       <c r="G1174" s="3" t="s">
         <v>3497</v>
@@ -45776,10 +45881,10 @@
         <v>3485</v>
       </c>
       <c r="B1177" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="C1177" s="3" t="s">
-        <v>4111</v>
+        <v>4106</v>
       </c>
       <c r="D1177">
         <v>2022</v>
@@ -45788,13 +45893,13 @@
         <v>10</v>
       </c>
       <c r="F1177" s="3" t="s">
-        <v>4080</v>
+        <v>4075</v>
       </c>
       <c r="G1177" s="3" t="s">
-        <v>4113</v>
+        <v>4108</v>
       </c>
       <c r="I1177" s="3" t="s">
-        <v>4105</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45802,10 +45907,10 @@
         <v>3485</v>
       </c>
       <c r="B1178" s="3" t="s">
-        <v>4105</v>
+        <v>4100</v>
       </c>
       <c r="C1178" s="3" t="s">
-        <v>4112</v>
+        <v>4107</v>
       </c>
       <c r="D1178">
         <v>2022</v>
@@ -45814,16 +45919,16 @@
         <v>10</v>
       </c>
       <c r="F1178" s="3" t="s">
-        <v>4114</v>
+        <v>4109</v>
       </c>
       <c r="G1178" s="3" t="s">
-        <v>4115</v>
+        <v>4110</v>
       </c>
       <c r="H1178" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="I1178" s="3" t="s">
-        <v>4123</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45831,10 +45936,10 @@
         <v>3485</v>
       </c>
       <c r="B1179" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C1179" s="3" t="s">
         <v>4106</v>
-      </c>
-      <c r="C1179" s="3" t="s">
-        <v>4111</v>
       </c>
       <c r="D1179">
         <v>2022</v>
@@ -45843,13 +45948,13 @@
         <v>10</v>
       </c>
       <c r="F1179" s="3" t="s">
-        <v>4116</v>
+        <v>4111</v>
       </c>
       <c r="G1179" s="3" t="s">
-        <v>4110</v>
+        <v>4105</v>
       </c>
       <c r="H1179" s="3" t="s">
-        <v>4124</v>
+        <v>4119</v>
       </c>
       <c r="I1179" s="3"/>
     </row>
@@ -45858,10 +45963,10 @@
         <v>3485</v>
       </c>
       <c r="B1180" s="3" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C1180" s="3" t="s">
         <v>4107</v>
-      </c>
-      <c r="C1180" s="3" t="s">
-        <v>4112</v>
       </c>
       <c r="D1180">
         <v>2022</v>
@@ -45870,16 +45975,16 @@
         <v>10</v>
       </c>
       <c r="F1180" s="3" t="s">
-        <v>4117</v>
+        <v>4112</v>
       </c>
       <c r="G1180" s="3" t="s">
-        <v>4115</v>
+        <v>4110</v>
       </c>
       <c r="H1180" s="3" t="s">
-        <v>4125</v>
+        <v>4120</v>
       </c>
       <c r="I1180" s="3" t="s">
-        <v>4109</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45887,10 +45992,10 @@
         <v>3485</v>
       </c>
       <c r="B1181" s="3" t="s">
-        <v>4108</v>
+        <v>4103</v>
       </c>
       <c r="C1181" s="3" t="s">
-        <v>4119</v>
+        <v>4114</v>
       </c>
       <c r="D1181">
         <v>2022</v>
@@ -45899,16 +46004,16 @@
         <v>10</v>
       </c>
       <c r="F1181" s="3" t="s">
-        <v>4118</v>
+        <v>4113</v>
       </c>
       <c r="G1181" s="3" t="s">
-        <v>4121</v>
+        <v>4116</v>
       </c>
       <c r="H1181" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="I1181" s="3" t="s">
-        <v>4109</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45916,10 +46021,10 @@
         <v>3485</v>
       </c>
       <c r="B1182" s="3" t="s">
-        <v>4109</v>
+        <v>4104</v>
       </c>
       <c r="C1182" s="3" t="s">
-        <v>4120</v>
+        <v>4115</v>
       </c>
       <c r="D1182">
         <v>2022</v>
@@ -45928,16 +46033,16 @@
         <v>10</v>
       </c>
       <c r="F1182" s="3" t="s">
-        <v>4122</v>
+        <v>4117</v>
       </c>
       <c r="G1182" s="3" t="s">
         <v>3492</v>
       </c>
       <c r="H1182" s="3" t="s">
-        <v>4108</v>
+        <v>4103</v>
       </c>
       <c r="I1182" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="1183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45957,7 +46062,7 @@
         <v>10</v>
       </c>
       <c r="F1183" s="3" t="s">
-        <v>4079</v>
+        <v>4074</v>
       </c>
       <c r="G1183" s="3" t="s">
         <v>3491</v>
@@ -45987,7 +46092,7 @@
         <v>3491</v>
       </c>
       <c r="G1184" s="3" t="s">
-        <v>4100</v>
+        <v>4095</v>
       </c>
       <c r="H1184" s="3" t="s">
         <v>3486</v>
@@ -46013,10 +46118,10 @@
         <v>10</v>
       </c>
       <c r="F1185" s="3" t="s">
-        <v>4101</v>
+        <v>4096</v>
       </c>
       <c r="G1185" s="3" t="s">
-        <v>4102</v>
+        <v>4097</v>
       </c>
       <c r="H1185" s="3" t="s">
         <v>3488</v>
@@ -46042,7 +46147,7 @@
         <v>10</v>
       </c>
       <c r="F1186" s="3" t="s">
-        <v>4103</v>
+        <v>4098</v>
       </c>
       <c r="G1186" s="3" t="s">
         <v>3487</v>
@@ -46056,10 +46161,10 @@
         <v>3485</v>
       </c>
       <c r="B1187" s="3" t="s">
-        <v>4165</v>
+        <v>4160</v>
       </c>
       <c r="C1187" s="3" t="s">
-        <v>4179</v>
+        <v>4174</v>
       </c>
       <c r="D1187">
         <v>2023</v>
@@ -46068,16 +46173,16 @@
         <v>10</v>
       </c>
       <c r="F1187" s="3" t="s">
-        <v>4079</v>
+        <v>4074</v>
       </c>
       <c r="G1187" s="3" t="s">
         <v>3491</v>
       </c>
       <c r="H1187" s="3" t="s">
-        <v>4177</v>
+        <v>4172</v>
       </c>
       <c r="I1187" s="3" t="s">
-        <v>4166</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46085,10 +46190,10 @@
         <v>3485</v>
       </c>
       <c r="B1188" s="3" t="s">
-        <v>4166</v>
+        <v>4161</v>
       </c>
       <c r="C1188" s="3" t="s">
-        <v>4179</v>
+        <v>4174</v>
       </c>
       <c r="D1188">
         <v>2023</v>
@@ -46100,13 +46205,13 @@
         <v>3491</v>
       </c>
       <c r="G1188" s="3" t="s">
-        <v>4100</v>
+        <v>4095</v>
       </c>
       <c r="H1188" s="3" t="s">
-        <v>4165</v>
+        <v>4160</v>
       </c>
       <c r="I1188" s="3" t="s">
-        <v>4167</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46114,10 +46219,10 @@
         <v>3485</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>4167</v>
+        <v>4162</v>
       </c>
       <c r="C1189" s="3" t="s">
-        <v>4180</v>
+        <v>4175</v>
       </c>
       <c r="D1189">
         <v>2023</v>
@@ -46126,16 +46231,16 @@
         <v>10</v>
       </c>
       <c r="F1189" s="3" t="s">
-        <v>4101</v>
+        <v>4096</v>
       </c>
       <c r="G1189" s="3" t="s">
-        <v>4178</v>
+        <v>4173</v>
       </c>
       <c r="H1189" s="3" t="s">
-        <v>4166</v>
+        <v>4161</v>
       </c>
       <c r="I1189" s="3" t="s">
-        <v>4168</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="1190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46143,10 +46248,10 @@
         <v>3485</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>4168</v>
+        <v>4163</v>
       </c>
       <c r="C1190" s="3" t="s">
-        <v>4180</v>
+        <v>4175</v>
       </c>
       <c r="D1190">
         <v>2023</v>
@@ -46155,16 +46260,16 @@
         <v>10</v>
       </c>
       <c r="F1190" s="3" t="s">
-        <v>4178</v>
+        <v>4173</v>
       </c>
       <c r="G1190" s="3" t="s">
-        <v>4181</v>
+        <v>4176</v>
       </c>
       <c r="H1190" s="3" t="s">
-        <v>4167</v>
+        <v>4162</v>
       </c>
       <c r="I1190" s="3" t="s">
-        <v>4169</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46172,10 +46277,10 @@
         <v>3485</v>
       </c>
       <c r="B1191" s="3" t="s">
-        <v>4169</v>
+        <v>4164</v>
       </c>
       <c r="C1191" s="3" t="s">
-        <v>4182</v>
+        <v>4177</v>
       </c>
       <c r="D1191">
         <v>2023</v>
@@ -46184,16 +46289,16 @@
         <v>10</v>
       </c>
       <c r="F1191" s="3" t="s">
-        <v>4181</v>
+        <v>4176</v>
       </c>
       <c r="G1191" s="3" t="s">
-        <v>4183</v>
+        <v>4178</v>
       </c>
       <c r="H1191" s="3" t="s">
-        <v>4168</v>
+        <v>4163</v>
       </c>
       <c r="I1191" s="3" t="s">
-        <v>4170</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="1192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46201,10 +46306,10 @@
         <v>3485</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>4170</v>
+        <v>4165</v>
       </c>
       <c r="C1192" s="3" t="s">
-        <v>4185</v>
+        <v>4180</v>
       </c>
       <c r="D1192">
         <v>2023</v>
@@ -46213,16 +46318,16 @@
         <v>10</v>
       </c>
       <c r="F1192" s="3" t="s">
-        <v>4184</v>
+        <v>4179</v>
       </c>
       <c r="G1192" s="3" t="s">
-        <v>4186</v>
+        <v>4181</v>
       </c>
       <c r="H1192" s="3" t="s">
-        <v>4169</v>
+        <v>4164</v>
       </c>
       <c r="I1192" s="3" t="s">
-        <v>4171</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46230,10 +46335,10 @@
         <v>3485</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>4171</v>
+        <v>4166</v>
       </c>
       <c r="C1193" s="3" t="s">
-        <v>4185</v>
+        <v>4180</v>
       </c>
       <c r="D1193">
         <v>2023</v>
@@ -46242,16 +46347,16 @@
         <v>10</v>
       </c>
       <c r="F1193" s="3" t="s">
-        <v>4186</v>
+        <v>4181</v>
       </c>
       <c r="G1193" s="3" t="s">
-        <v>4187</v>
+        <v>4182</v>
       </c>
       <c r="H1193" s="3" t="s">
-        <v>4170</v>
+        <v>4165</v>
       </c>
       <c r="I1193" s="3" t="s">
-        <v>4172</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="1194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46259,10 +46364,10 @@
         <v>3485</v>
       </c>
       <c r="B1194" s="3" t="s">
-        <v>4172</v>
+        <v>4167</v>
       </c>
       <c r="C1194" s="3" t="s">
-        <v>4185</v>
+        <v>4180</v>
       </c>
       <c r="D1194">
         <v>2023</v>
@@ -46271,16 +46376,16 @@
         <v>10</v>
       </c>
       <c r="F1194" s="3" t="s">
-        <v>4186</v>
+        <v>4181</v>
       </c>
       <c r="G1194" s="3" t="s">
-        <v>4188</v>
+        <v>4183</v>
       </c>
       <c r="H1194" s="3" t="s">
-        <v>4171</v>
+        <v>4166</v>
       </c>
       <c r="I1194" s="3" t="s">
-        <v>4173</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46288,10 +46393,10 @@
         <v>3485</v>
       </c>
       <c r="B1195" s="3" t="s">
-        <v>4173</v>
+        <v>4168</v>
       </c>
       <c r="C1195" s="3" t="s">
-        <v>4189</v>
+        <v>4184</v>
       </c>
       <c r="D1195">
         <v>2023</v>
@@ -46300,16 +46405,16 @@
         <v>10</v>
       </c>
       <c r="F1195" s="3" t="s">
-        <v>4114</v>
+        <v>4109</v>
       </c>
       <c r="G1195" s="3" t="s">
-        <v>4190</v>
+        <v>4185</v>
       </c>
       <c r="H1195" s="3" t="s">
-        <v>4172</v>
+        <v>4167</v>
       </c>
       <c r="I1195" s="3" t="s">
-        <v>4174</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="1196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46317,10 +46422,10 @@
         <v>3485</v>
       </c>
       <c r="B1196" s="3" t="s">
-        <v>4174</v>
+        <v>4169</v>
       </c>
       <c r="C1196" s="3" t="s">
-        <v>4189</v>
+        <v>4184</v>
       </c>
       <c r="D1196">
         <v>2023</v>
@@ -46329,16 +46434,16 @@
         <v>10</v>
       </c>
       <c r="F1196" s="3" t="s">
-        <v>4190</v>
+        <v>4185</v>
       </c>
       <c r="G1196" s="3" t="s">
-        <v>4115</v>
+        <v>4110</v>
       </c>
       <c r="H1196" s="3" t="s">
-        <v>4173</v>
+        <v>4168</v>
       </c>
       <c r="I1196" s="3" t="s">
-        <v>4175</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46346,10 +46451,10 @@
         <v>3485</v>
       </c>
       <c r="B1197" s="3" t="s">
-        <v>4175</v>
+        <v>4170</v>
       </c>
       <c r="C1197" s="3" t="s">
-        <v>4193</v>
+        <v>4188</v>
       </c>
       <c r="D1197">
         <v>2023</v>
@@ -46358,16 +46463,16 @@
         <v>10</v>
       </c>
       <c r="F1197" s="3" t="s">
-        <v>4118</v>
+        <v>4113</v>
       </c>
       <c r="G1197" s="3" t="s">
-        <v>4192</v>
+        <v>4187</v>
       </c>
       <c r="H1197" s="3" t="s">
-        <v>4174</v>
+        <v>4169</v>
       </c>
       <c r="I1197" s="3" t="s">
-        <v>4176</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="1198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46375,10 +46480,10 @@
         <v>3485</v>
       </c>
       <c r="B1198" s="3" t="s">
-        <v>4176</v>
+        <v>4171</v>
       </c>
       <c r="C1198" s="3" t="s">
-        <v>4194</v>
+        <v>4189</v>
       </c>
       <c r="D1198">
         <v>2023</v>
@@ -46387,16 +46492,16 @@
         <v>10</v>
       </c>
       <c r="F1198" s="3" t="s">
-        <v>4122</v>
+        <v>4117</v>
       </c>
       <c r="G1198" s="3" t="s">
-        <v>4191</v>
+        <v>4186</v>
       </c>
       <c r="H1198" s="3" t="s">
-        <v>4175</v>
+        <v>4170</v>
       </c>
       <c r="I1198" s="3" t="s">
-        <v>4177</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46404,10 +46509,10 @@
         <v>3485</v>
       </c>
       <c r="B1199" s="3" t="s">
-        <v>4177</v>
+        <v>4172</v>
       </c>
       <c r="C1199" s="3" t="s">
-        <v>4197</v>
+        <v>4192</v>
       </c>
       <c r="D1199">
         <v>2023</v>
@@ -46416,16 +46521,16 @@
         <v>10</v>
       </c>
       <c r="F1199" s="3" t="s">
-        <v>4195</v>
+        <v>4190</v>
       </c>
       <c r="G1199" s="3" t="s">
-        <v>4196</v>
+        <v>4191</v>
       </c>
       <c r="H1199" s="3" t="s">
-        <v>4176</v>
+        <v>4171</v>
       </c>
       <c r="I1199" s="3" t="s">
-        <v>4165</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46433,10 +46538,10 @@
         <v>3485</v>
       </c>
       <c r="B1200" s="3" t="s">
-        <v>4231</v>
+        <v>4226</v>
       </c>
       <c r="C1200" s="3" t="s">
-        <v>4255</v>
+        <v>4250</v>
       </c>
       <c r="D1200">
         <v>2023</v>
@@ -46445,14 +46550,14 @@
         <v>10</v>
       </c>
       <c r="F1200" s="3" t="s">
-        <v>4080</v>
+        <v>4075</v>
       </c>
       <c r="G1200" s="3" t="s">
-        <v>4241</v>
+        <v>4236</v>
       </c>
       <c r="H1200" s="3"/>
       <c r="I1200" s="3" t="s">
-        <v>4232</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46460,10 +46565,10 @@
         <v>3485</v>
       </c>
       <c r="B1201" s="3" t="s">
-        <v>4232</v>
+        <v>4227</v>
       </c>
       <c r="C1201" s="3" t="s">
-        <v>4255</v>
+        <v>4250</v>
       </c>
       <c r="D1201">
         <v>2023</v>
@@ -46472,16 +46577,16 @@
         <v>10</v>
       </c>
       <c r="F1201" s="3" t="s">
-        <v>4241</v>
+        <v>4236</v>
       </c>
       <c r="G1201" s="3" t="s">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="H1201" s="3" t="s">
-        <v>4231</v>
+        <v>4226</v>
       </c>
       <c r="I1201" s="3" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46489,10 +46594,10 @@
         <v>3485</v>
       </c>
       <c r="B1202" s="3" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="C1202" s="3" t="s">
-        <v>4255</v>
+        <v>4250</v>
       </c>
       <c r="D1202">
         <v>2023</v>
@@ -46501,16 +46606,16 @@
         <v>10</v>
       </c>
       <c r="F1202" s="3" t="s">
-        <v>4242</v>
+        <v>4237</v>
       </c>
       <c r="G1202" s="3" t="s">
-        <v>4243</v>
+        <v>4238</v>
       </c>
       <c r="H1202" s="3" t="s">
-        <v>4232</v>
+        <v>4227</v>
       </c>
       <c r="I1202" s="3" t="s">
-        <v>4234</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="1203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46518,10 +46623,10 @@
         <v>3485</v>
       </c>
       <c r="B1203" s="3" t="s">
-        <v>4234</v>
+        <v>4229</v>
       </c>
       <c r="C1203" s="3" t="s">
-        <v>4244</v>
+        <v>4239</v>
       </c>
       <c r="D1203">
         <v>2023</v>
@@ -46530,16 +46635,16 @@
         <v>10</v>
       </c>
       <c r="F1203" s="3" t="s">
-        <v>4246</v>
+        <v>4241</v>
       </c>
       <c r="G1203" s="3" t="s">
-        <v>4245</v>
+        <v>4240</v>
       </c>
       <c r="H1203" s="3" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="I1203" s="3" t="s">
-        <v>4235</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46547,10 +46652,10 @@
         <v>3485</v>
       </c>
       <c r="B1204" s="3" t="s">
-        <v>4235</v>
+        <v>4230</v>
       </c>
       <c r="C1204" s="3" t="s">
-        <v>4244</v>
+        <v>4239</v>
       </c>
       <c r="D1204">
         <v>2023</v>
@@ -46559,16 +46664,16 @@
         <v>10</v>
       </c>
       <c r="F1204" s="3" t="s">
-        <v>4245</v>
+        <v>4240</v>
       </c>
       <c r="G1204" s="3" t="s">
-        <v>4126</v>
+        <v>4121</v>
       </c>
       <c r="H1204" s="3" t="s">
-        <v>4234</v>
+        <v>4229</v>
       </c>
       <c r="I1204" s="3" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46576,10 +46681,10 @@
         <v>3485</v>
       </c>
       <c r="B1205" s="3" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
       <c r="C1205" s="3" t="s">
-        <v>4249</v>
+        <v>4244</v>
       </c>
       <c r="D1205">
         <v>2023</v>
@@ -46588,16 +46693,16 @@
         <v>10</v>
       </c>
       <c r="F1205" s="3" t="s">
-        <v>4247</v>
+        <v>4242</v>
       </c>
       <c r="G1205" s="3" t="s">
-        <v>4248</v>
+        <v>4243</v>
       </c>
       <c r="H1205" s="3" t="s">
-        <v>4235</v>
+        <v>4230</v>
       </c>
       <c r="I1205" s="3" t="s">
-        <v>4237</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46605,10 +46710,10 @@
         <v>3485</v>
       </c>
       <c r="B1206" s="3" t="s">
-        <v>4237</v>
+        <v>4232</v>
       </c>
       <c r="C1206" s="3" t="s">
-        <v>4249</v>
+        <v>4244</v>
       </c>
       <c r="D1206">
         <v>2023</v>
@@ -46617,16 +46722,16 @@
         <v>10</v>
       </c>
       <c r="F1206" s="3" t="s">
-        <v>4248</v>
+        <v>4243</v>
       </c>
       <c r="G1206" s="3" t="s">
         <v>3509</v>
       </c>
       <c r="H1206" s="3" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
       <c r="I1206" s="3" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="1207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46634,10 +46739,10 @@
         <v>3485</v>
       </c>
       <c r="B1207" s="3" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="C1207" s="3" t="s">
-        <v>4249</v>
+        <v>4244</v>
       </c>
       <c r="D1207">
         <v>2023</v>
@@ -46649,13 +46754,13 @@
         <v>3509</v>
       </c>
       <c r="G1207" s="3" t="s">
-        <v>4250</v>
+        <v>4245</v>
       </c>
       <c r="H1207" s="3" t="s">
-        <v>4237</v>
+        <v>4232</v>
       </c>
       <c r="I1207" s="3" t="s">
-        <v>4239</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46663,10 +46768,10 @@
         <v>3485</v>
       </c>
       <c r="B1208" s="3" t="s">
-        <v>4239</v>
+        <v>4234</v>
       </c>
       <c r="C1208" s="3" t="s">
-        <v>4254</v>
+        <v>4249</v>
       </c>
       <c r="D1208">
         <v>2023</v>
@@ -46675,16 +46780,16 @@
         <v>10</v>
       </c>
       <c r="F1208" s="3" t="s">
-        <v>4251</v>
+        <v>4246</v>
       </c>
       <c r="G1208" s="3" t="s">
-        <v>4252</v>
+        <v>4247</v>
       </c>
       <c r="H1208" s="3" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="I1208" s="3" t="s">
-        <v>4240</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46692,10 +46797,10 @@
         <v>3485</v>
       </c>
       <c r="B1209" s="3" t="s">
-        <v>4240</v>
+        <v>4235</v>
       </c>
       <c r="C1209" s="3" t="s">
-        <v>4249</v>
+        <v>4244</v>
       </c>
       <c r="D1209">
         <v>2023</v>
@@ -46704,24 +46809,24 @@
         <v>10</v>
       </c>
       <c r="F1209" s="3" t="s">
-        <v>4247</v>
+        <v>4242</v>
       </c>
       <c r="G1209" s="3" t="s">
-        <v>4253</v>
+        <v>4248</v>
       </c>
       <c r="H1209" s="3" t="s">
-        <v>4239</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1210" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1210" s="3" t="s">
-        <v>4295</v>
+        <v>4290</v>
       </c>
       <c r="C1210" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1210">
         <v>2023</v>
@@ -46730,24 +46835,24 @@
         <v>10</v>
       </c>
       <c r="F1210" s="3" t="s">
-        <v>4306</v>
+        <v>4301</v>
       </c>
       <c r="G1210" s="3" t="s">
-        <v>4307</v>
+        <v>4302</v>
       </c>
       <c r="I1210" s="3" t="s">
-        <v>4296</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1211" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1211" s="3" t="s">
-        <v>4296</v>
+        <v>4291</v>
       </c>
       <c r="C1211" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1211">
         <v>2023</v>
@@ -46756,27 +46861,27 @@
         <v>10</v>
       </c>
       <c r="F1211" s="3" t="s">
-        <v>4307</v>
+        <v>4302</v>
       </c>
       <c r="G1211" s="3" t="s">
-        <v>4308</v>
+        <v>4303</v>
       </c>
       <c r="H1211" s="3" t="s">
-        <v>4295</v>
+        <v>4290</v>
       </c>
       <c r="I1211" s="3" t="s">
-        <v>4297</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1212" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1212" s="3" t="s">
-        <v>4297</v>
+        <v>4292</v>
       </c>
       <c r="C1212" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1212">
         <v>2023</v>
@@ -46785,27 +46890,27 @@
         <v>10</v>
       </c>
       <c r="F1212" s="3" t="s">
-        <v>4308</v>
+        <v>4303</v>
       </c>
       <c r="G1212" s="3" t="s">
-        <v>4309</v>
+        <v>4304</v>
       </c>
       <c r="H1212" s="3" t="s">
-        <v>4296</v>
+        <v>4291</v>
       </c>
       <c r="I1212" s="3" t="s">
-        <v>4316</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1213" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1213" s="3" t="s">
-        <v>4298</v>
+        <v>4293</v>
       </c>
       <c r="C1213" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1213">
         <v>2023</v>
@@ -46814,27 +46919,27 @@
         <v>10</v>
       </c>
       <c r="F1213" s="3" t="s">
-        <v>4309</v>
+        <v>4304</v>
       </c>
       <c r="G1213" s="3" t="s">
-        <v>4310</v>
+        <v>4305</v>
       </c>
       <c r="H1213" s="3" t="s">
-        <v>4317</v>
+        <v>4312</v>
       </c>
       <c r="I1213" s="3" t="s">
-        <v>4318</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1214" s="3" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B1214" s="3" t="s">
         <v>4294</v>
       </c>
-      <c r="B1214" s="3" t="s">
-        <v>4299</v>
-      </c>
       <c r="C1214" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1214">
         <v>2023</v>
@@ -46843,25 +46948,25 @@
         <v>10</v>
       </c>
       <c r="F1214" s="3" t="s">
-        <v>4310</v>
+        <v>4305</v>
       </c>
       <c r="G1214" s="3" t="s">
-        <v>4311</v>
+        <v>4306</v>
       </c>
       <c r="H1214" s="3" t="s">
-        <v>4319</v>
+        <v>4314</v>
       </c>
       <c r="I1214" s="3"/>
     </row>
     <row r="1215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1215" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1215" s="3" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C1215" s="3" t="s">
         <v>4300</v>
-      </c>
-      <c r="C1215" s="3" t="s">
-        <v>4305</v>
       </c>
       <c r="D1215">
         <v>2023</v>
@@ -46870,27 +46975,27 @@
         <v>10</v>
       </c>
       <c r="F1215" s="3" t="s">
-        <v>4310</v>
+        <v>4305</v>
       </c>
       <c r="G1215" s="3" t="s">
-        <v>4312</v>
+        <v>4307</v>
       </c>
       <c r="H1215" s="3" t="s">
-        <v>4320</v>
+        <v>4315</v>
       </c>
       <c r="I1215" s="3" t="s">
-        <v>4301</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1216" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1216" s="3" t="s">
-        <v>4301</v>
+        <v>4296</v>
       </c>
       <c r="C1216" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1216">
         <v>2023</v>
@@ -46899,27 +47004,27 @@
         <v>10</v>
       </c>
       <c r="F1216" s="3" t="s">
-        <v>4312</v>
+        <v>4307</v>
       </c>
       <c r="G1216" s="3" t="s">
-        <v>4313</v>
+        <v>4308</v>
       </c>
       <c r="H1216" s="3" t="s">
-        <v>4300</v>
+        <v>4295</v>
       </c>
       <c r="I1216" s="3" t="s">
-        <v>4302</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1217" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1217" s="3" t="s">
-        <v>4302</v>
+        <v>4297</v>
       </c>
       <c r="C1217" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1217">
         <v>2023</v>
@@ -46928,27 +47033,27 @@
         <v>10</v>
       </c>
       <c r="F1217" s="3" t="s">
-        <v>4313</v>
+        <v>4308</v>
       </c>
       <c r="G1217" s="3" t="s">
-        <v>4314</v>
+        <v>4309</v>
       </c>
       <c r="H1217" s="3" t="s">
-        <v>4301</v>
+        <v>4296</v>
       </c>
       <c r="I1217" s="3" t="s">
-        <v>4303</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1218" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1218" s="3" t="s">
-        <v>4303</v>
+        <v>4298</v>
       </c>
       <c r="C1218" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1218">
         <v>2023</v>
@@ -46957,27 +47062,27 @@
         <v>10</v>
       </c>
       <c r="F1218" s="3" t="s">
-        <v>4314</v>
+        <v>4309</v>
       </c>
       <c r="G1218" s="3" t="s">
-        <v>4315</v>
+        <v>4310</v>
       </c>
       <c r="H1218" s="3" t="s">
-        <v>4302</v>
+        <v>4297</v>
       </c>
       <c r="I1218" s="3" t="s">
-        <v>4304</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1219" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1219" s="3" t="s">
-        <v>4304</v>
+        <v>4299</v>
       </c>
       <c r="C1219" s="3" t="s">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="D1219">
         <v>2023</v>
@@ -46986,27 +47091,27 @@
         <v>10</v>
       </c>
       <c r="F1219" s="3" t="s">
-        <v>4315</v>
+        <v>4310</v>
       </c>
       <c r="G1219" s="3" t="s">
-        <v>4309</v>
+        <v>4304</v>
       </c>
       <c r="H1219" s="3" t="s">
-        <v>4303</v>
+        <v>4298</v>
       </c>
       <c r="I1219" s="3" t="s">
-        <v>4321</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1220" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1220" s="3" t="s">
-        <v>4342</v>
+        <v>4337</v>
       </c>
       <c r="C1220" s="3" t="s">
-        <v>4343</v>
+        <v>4338</v>
       </c>
       <c r="D1220">
         <v>2023</v>
@@ -47015,24 +47120,24 @@
         <v>10</v>
       </c>
       <c r="F1220" s="3" t="s">
-        <v>4349</v>
+        <v>4344</v>
       </c>
       <c r="G1220" s="3" t="s">
-        <v>4350</v>
+        <v>4345</v>
       </c>
       <c r="I1220" s="3" t="s">
-        <v>4356</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1221" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1221" s="3" t="s">
-        <v>4344</v>
+        <v>4339</v>
       </c>
       <c r="C1221" s="3" t="s">
-        <v>4343</v>
+        <v>4338</v>
       </c>
       <c r="D1221">
         <v>2023</v>
@@ -47041,27 +47146,27 @@
         <v>10</v>
       </c>
       <c r="F1221" s="3" t="s">
+        <v>4345</v>
+      </c>
+      <c r="G1221" s="3" t="s">
+        <v>4346</v>
+      </c>
+      <c r="H1221" s="3" t="s">
+        <v>4356</v>
+      </c>
+      <c r="I1221" s="3" t="s">
         <v>4350</v>
-      </c>
-      <c r="G1221" s="3" t="s">
-        <v>4351</v>
-      </c>
-      <c r="H1221" s="3" t="s">
-        <v>4361</v>
-      </c>
-      <c r="I1221" s="3" t="s">
-        <v>4355</v>
       </c>
     </row>
     <row r="1222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1222" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1222" s="3" t="s">
-        <v>4345</v>
+        <v>4340</v>
       </c>
       <c r="C1222" s="3" t="s">
-        <v>4343</v>
+        <v>4338</v>
       </c>
       <c r="D1222">
         <v>2023</v>
@@ -47070,27 +47175,27 @@
         <v>10</v>
       </c>
       <c r="F1222" s="3" t="s">
+        <v>4346</v>
+      </c>
+      <c r="G1222" s="3" t="s">
+        <v>4347</v>
+      </c>
+      <c r="H1222" s="3" t="s">
         <v>4351</v>
       </c>
-      <c r="G1222" s="3" t="s">
+      <c r="I1222" s="3" t="s">
         <v>4352</v>
-      </c>
-      <c r="H1222" s="3" t="s">
-        <v>4356</v>
-      </c>
-      <c r="I1222" s="3" t="s">
-        <v>4357</v>
       </c>
     </row>
     <row r="1223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1223" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1223" s="3" t="s">
-        <v>4346</v>
+        <v>4341</v>
       </c>
       <c r="C1223" s="3" t="s">
-        <v>4343</v>
+        <v>4338</v>
       </c>
       <c r="D1223">
         <v>2023</v>
@@ -47099,25 +47204,25 @@
         <v>10</v>
       </c>
       <c r="F1223" s="3" t="s">
-        <v>4352</v>
+        <v>4347</v>
       </c>
       <c r="G1223" s="3" t="s">
+        <v>4348</v>
+      </c>
+      <c r="H1223" s="3" t="s">
         <v>4353</v>
-      </c>
-      <c r="H1223" s="3" t="s">
-        <v>4358</v>
       </c>
       <c r="I1223" s="3"/>
     </row>
     <row r="1224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1224" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1224" s="3" t="s">
-        <v>4347</v>
+        <v>4342</v>
       </c>
       <c r="C1224" s="3" t="s">
-        <v>4343</v>
+        <v>4338</v>
       </c>
       <c r="D1224">
         <v>2023</v>
@@ -47126,24 +47231,24 @@
         <v>10</v>
       </c>
       <c r="F1224" s="3" t="s">
-        <v>4352</v>
+        <v>4347</v>
       </c>
       <c r="G1224" s="3" t="s">
+        <v>4349</v>
+      </c>
+      <c r="H1224" s="3" t="s">
         <v>4354</v>
-      </c>
-      <c r="H1224" s="3" t="s">
-        <v>4359</v>
       </c>
     </row>
     <row r="1225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1225" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1225" s="3" t="s">
-        <v>4348</v>
+        <v>4343</v>
       </c>
       <c r="C1225" s="3" t="s">
-        <v>4343</v>
+        <v>4338</v>
       </c>
       <c r="D1225">
         <v>2023</v>
@@ -47152,27 +47257,27 @@
         <v>10</v>
       </c>
       <c r="F1225" s="3" t="s">
-        <v>4351</v>
+        <v>4346</v>
       </c>
       <c r="G1225" s="3" t="s">
-        <v>4350</v>
+        <v>4345</v>
       </c>
       <c r="H1225" s="3" t="s">
-        <v>4362</v>
+        <v>4357</v>
       </c>
       <c r="I1225" s="3" t="s">
-        <v>4360</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1226" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1226" t="s">
+        <v>4367</v>
+      </c>
+      <c r="C1226" t="s">
         <v>4372</v>
-      </c>
-      <c r="C1226" t="s">
-        <v>4377</v>
       </c>
       <c r="D1226">
         <v>2023</v>
@@ -47181,24 +47286,24 @@
         <v>10</v>
       </c>
       <c r="F1226" s="3" t="s">
-        <v>4349</v>
+        <v>4344</v>
       </c>
       <c r="G1226" s="3" t="s">
-        <v>4378</v>
+        <v>4373</v>
       </c>
       <c r="I1226" s="3" t="s">
-        <v>4381</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1227" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1227" t="s">
-        <v>4373</v>
+        <v>4368</v>
       </c>
       <c r="C1227" t="s">
-        <v>4377</v>
+        <v>4372</v>
       </c>
       <c r="D1227">
         <v>2023</v>
@@ -47207,27 +47312,27 @@
         <v>10</v>
       </c>
       <c r="F1227" s="3" t="s">
+        <v>4373</v>
+      </c>
+      <c r="G1227" s="3" t="s">
+        <v>4374</v>
+      </c>
+      <c r="H1227" s="3" t="s">
+        <v>4377</v>
+      </c>
+      <c r="I1227" s="3" t="s">
         <v>4378</v>
-      </c>
-      <c r="G1227" s="3" t="s">
-        <v>4379</v>
-      </c>
-      <c r="H1227" s="3" t="s">
-        <v>4382</v>
-      </c>
-      <c r="I1227" s="3" t="s">
-        <v>4383</v>
       </c>
     </row>
     <row r="1228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1228" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1228" t="s">
-        <v>4374</v>
+        <v>4369</v>
       </c>
       <c r="C1228" t="s">
-        <v>4377</v>
+        <v>4372</v>
       </c>
       <c r="D1228">
         <v>2023</v>
@@ -47236,27 +47341,27 @@
         <v>10</v>
       </c>
       <c r="F1228" s="3" t="s">
+        <v>4374</v>
+      </c>
+      <c r="G1228" s="3" t="s">
+        <v>4375</v>
+      </c>
+      <c r="H1228" s="3" t="s">
         <v>4379</v>
       </c>
-      <c r="G1228" s="3" t="s">
-        <v>4380</v>
-      </c>
-      <c r="H1228" s="3" t="s">
-        <v>4384</v>
-      </c>
       <c r="I1228" s="3" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1229" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1229" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C1229" t="s">
-        <v>4377</v>
+        <v>4372</v>
       </c>
       <c r="D1229">
         <v>2023</v>
@@ -47265,27 +47370,27 @@
         <v>10</v>
       </c>
       <c r="F1229" s="3" t="s">
+        <v>4375</v>
+      </c>
+      <c r="G1229" s="3" t="s">
+        <v>4373</v>
+      </c>
+      <c r="H1229" s="3" t="s">
+        <v>4369</v>
+      </c>
+      <c r="I1229" s="3" t="s">
         <v>4380</v>
-      </c>
-      <c r="G1229" s="3" t="s">
-        <v>4378</v>
-      </c>
-      <c r="H1229" s="3" t="s">
-        <v>4374</v>
-      </c>
-      <c r="I1229" s="3" t="s">
-        <v>4385</v>
       </c>
     </row>
     <row r="1230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1230" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1230" t="s">
-        <v>4376</v>
+        <v>4371</v>
       </c>
       <c r="C1230" t="s">
-        <v>4377</v>
+        <v>4372</v>
       </c>
       <c r="D1230">
         <v>2023</v>
@@ -47294,21 +47399,21 @@
         <v>10</v>
       </c>
       <c r="F1230" s="3" t="s">
-        <v>4379</v>
+        <v>4374</v>
       </c>
       <c r="H1230" s="3" t="s">
-        <v>4386</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1231" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1231" t="s">
-        <v>4398</v>
+        <v>4393</v>
       </c>
       <c r="C1231" t="s">
-        <v>4471</v>
+        <v>4466</v>
       </c>
       <c r="D1231">
         <v>2023</v>
@@ -47317,21 +47422,21 @@
         <v>10</v>
       </c>
       <c r="F1231" s="3" t="s">
-        <v>4399</v>
+        <v>4394</v>
       </c>
       <c r="G1231" s="3" t="s">
-        <v>4400</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1232" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1232" t="s">
-        <v>4401</v>
+        <v>4396</v>
       </c>
       <c r="C1232" t="s">
-        <v>4423</v>
+        <v>4418</v>
       </c>
       <c r="D1232">
         <v>2023</v>
@@ -47348,13 +47453,13 @@
     </row>
     <row r="1233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1233" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1233" t="s">
         <v>3508</v>
       </c>
       <c r="C1233" t="s">
-        <v>4424</v>
+        <v>4419</v>
       </c>
       <c r="D1233">
         <v>2023</v>
@@ -47363,21 +47468,21 @@
         <v>10</v>
       </c>
       <c r="F1233" s="3" t="s">
-        <v>4402</v>
+        <v>4397</v>
       </c>
       <c r="G1233" s="3" t="s">
-        <v>4402</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1234" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1234" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C1234" t="s">
-        <v>4425</v>
+        <v>4420</v>
       </c>
       <c r="D1234">
         <v>2023</v>
@@ -47386,21 +47491,21 @@
         <v>10</v>
       </c>
       <c r="F1234" s="3" t="s">
-        <v>4404</v>
+        <v>4399</v>
       </c>
       <c r="G1234" s="3" t="s">
-        <v>4404</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1235" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1235" t="s">
-        <v>4405</v>
+        <v>4400</v>
       </c>
       <c r="C1235" t="s">
-        <v>4426</v>
+        <v>4421</v>
       </c>
       <c r="D1235">
         <v>2023</v>
@@ -47409,24 +47514,24 @@
         <v>10</v>
       </c>
       <c r="F1235" s="3" t="s">
+        <v>4402</v>
+      </c>
+      <c r="G1235" s="3" t="s">
         <v>4407</v>
       </c>
-      <c r="G1235" s="3" t="s">
-        <v>4412</v>
-      </c>
       <c r="I1235" s="3" t="s">
-        <v>4413</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1236" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1236" t="s">
-        <v>4408</v>
+        <v>4403</v>
       </c>
       <c r="C1236" t="s">
-        <v>4426</v>
+        <v>4421</v>
       </c>
       <c r="D1236">
         <v>2023</v>
@@ -47435,27 +47540,27 @@
         <v>10</v>
       </c>
       <c r="F1236" s="3" t="s">
-        <v>4412</v>
+        <v>4407</v>
       </c>
       <c r="G1236" s="3" t="s">
-        <v>4411</v>
+        <v>4406</v>
       </c>
       <c r="H1236" s="3" t="s">
-        <v>4414</v>
+        <v>4409</v>
       </c>
       <c r="I1236" s="3" t="s">
-        <v>4415</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1237" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1237" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C1237" t="s">
-        <v>4426</v>
+        <v>4421</v>
       </c>
       <c r="D1237">
         <v>2023</v>
@@ -47464,27 +47569,27 @@
         <v>10</v>
       </c>
       <c r="F1237" s="3" t="s">
+        <v>4406</v>
+      </c>
+      <c r="G1237" s="3" t="s">
+        <v>4407</v>
+      </c>
+      <c r="H1237" s="3" t="s">
         <v>4411</v>
       </c>
-      <c r="G1237" s="3" t="s">
+      <c r="I1237" s="3" t="s">
         <v>4412</v>
-      </c>
-      <c r="H1237" s="3" t="s">
-        <v>4416</v>
-      </c>
-      <c r="I1237" s="3" t="s">
-        <v>4417</v>
       </c>
     </row>
     <row r="1238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1238" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1238" t="s">
-        <v>4410</v>
+        <v>4405</v>
       </c>
       <c r="C1238" t="s">
-        <v>4427</v>
+        <v>4422</v>
       </c>
       <c r="D1238">
         <v>2023</v>
@@ -47493,24 +47598,24 @@
         <v>10</v>
       </c>
       <c r="F1238" t="s">
+        <v>4401</v>
+      </c>
+      <c r="G1238" s="3" t="s">
         <v>4406</v>
       </c>
-      <c r="G1238" s="3" t="s">
-        <v>4411</v>
-      </c>
       <c r="H1238" t="s">
-        <v>4413</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1239" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1239" t="s">
-        <v>4432</v>
+        <v>4427</v>
       </c>
       <c r="C1239" t="s">
-        <v>4418</v>
+        <v>4413</v>
       </c>
       <c r="D1239">
         <v>2023</v>
@@ -47519,21 +47624,21 @@
         <v>10</v>
       </c>
       <c r="F1239" s="3" t="s">
-        <v>4419</v>
+        <v>4414</v>
       </c>
       <c r="G1239" s="3" t="s">
-        <v>4420</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1240" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1240" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C1240" t="s">
-        <v>4422</v>
+        <v>4417</v>
       </c>
       <c r="D1240">
         <v>2023</v>
@@ -47542,24 +47647,24 @@
         <v>10</v>
       </c>
       <c r="F1240" s="3" t="s">
-        <v>4428</v>
+        <v>4423</v>
       </c>
       <c r="G1240" s="3" t="s">
-        <v>4429</v>
+        <v>4424</v>
       </c>
       <c r="I1240" s="3" t="s">
-        <v>4430</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1241" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1241" t="s">
-        <v>4430</v>
+        <v>4425</v>
       </c>
       <c r="C1241" s="3" t="s">
-        <v>4429</v>
+        <v>4424</v>
       </c>
       <c r="D1241">
         <v>2023</v>
@@ -47568,24 +47673,24 @@
         <v>10</v>
       </c>
       <c r="F1241" s="3" t="s">
-        <v>4429</v>
+        <v>4424</v>
       </c>
       <c r="H1241" s="3" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="J1241" s="3" t="s">
-        <v>4431</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1242" s="3" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B1242" t="s">
-        <v>4433</v>
+        <v>4428</v>
       </c>
       <c r="C1242" t="s">
-        <v>4434</v>
+        <v>4429</v>
       </c>
       <c r="D1242">
         <v>2023</v>
@@ -47594,10 +47699,497 @@
         <v>10</v>
       </c>
       <c r="F1242" s="3" t="s">
-        <v>4435</v>
+        <v>4430</v>
       </c>
       <c r="G1242" s="3" t="s">
-        <v>4435</v>
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1243" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1243" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="G1243" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1244" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1244" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="G1244" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>4511</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1245" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1245" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1245" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="G1245" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>4513</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1246" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1246" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="G1246" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>4514</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1247" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1247" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1247" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="G1247" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>4515</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1248" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1248" s="3" t="s">
+        <v>4529</v>
+      </c>
+      <c r="G1248" s="3" t="s">
+        <v>4530</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>4516</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1249" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1249" s="3" t="s">
+        <v>4530</v>
+      </c>
+      <c r="G1249" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>4517</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1250" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1250" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>4519</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1251" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1251" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1251" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>4520</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1252" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1252" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>4521</v>
+      </c>
+      <c r="I1252" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1253" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1253" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1253" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1253" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>4522</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1254" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1254" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1254" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>4523</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1255" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1255" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1255" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>4524</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1256" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1256" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1256" s="3" t="s">
+        <v>4532</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>4525</v>
+      </c>
+      <c r="I1256" s="3" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1257" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>4539</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1257" s="3" t="s">
+        <v>4541</v>
+      </c>
+      <c r="G1257" s="3" t="s">
+        <v>4542</v>
+      </c>
+      <c r="H1257" s="3" t="s">
+        <v>4543</v>
+      </c>
+      <c r="I1257" s="3" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>4539</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1258" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1258" s="3" t="s">
+        <v>4542</v>
+      </c>
+      <c r="G1258" s="3" t="s">
+        <v>4540</v>
+      </c>
+      <c r="H1258" s="3" t="s">
+        <v>4536</v>
+      </c>
+      <c r="I1258" s="3" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1259" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1259" s="3" t="s">
+        <v>4539</v>
+      </c>
+      <c r="G1259" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H1259" s="3" t="s">
+        <v>4545</v>
       </c>
     </row>
   </sheetData>
@@ -73938,7 +74530,7 @@
   </sheetPr>
   <dimension ref="A1:Y692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C697" sqref="C697"/>
     </sheetView>
@@ -80581,7 +81173,7 @@
         <v>3485</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="C472" s="16" t="s">
         <v>3579</v>
@@ -80595,7 +81187,7 @@
         <v>3485</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="C473" s="16" t="s">
         <v>3580</v>
@@ -80609,7 +81201,7 @@
         <v>3485</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="C474" s="16" t="s">
         <v>3581</v>
@@ -80623,7 +81215,7 @@
         <v>3485</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="C475" s="16" t="s">
         <v>3582</v>
@@ -80637,7 +81229,7 @@
         <v>3485</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="C476" s="16" t="s">
         <v>3583</v>
@@ -80651,7 +81243,7 @@
         <v>3485</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="C477" s="16" t="s">
         <v>3584</v>
@@ -80665,7 +81257,7 @@
         <v>3485</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>4105</v>
+        <v>4100</v>
       </c>
       <c r="C478" s="16" t="s">
         <v>3585</v>
@@ -80679,7 +81271,7 @@
         <v>3485</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>4105</v>
+        <v>4100</v>
       </c>
       <c r="C479" s="16" t="s">
         <v>3586</v>
@@ -80693,13 +81285,13 @@
         <v>3485</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>4105</v>
+        <v>4100</v>
       </c>
       <c r="C480" s="16" t="s">
         <v>3587</v>
       </c>
       <c r="D480" t="s">
-        <v>4140</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -80707,13 +81299,13 @@
         <v>3485</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>4106</v>
+        <v>4101</v>
       </c>
       <c r="C481" s="16" t="s">
         <v>3588</v>
       </c>
       <c r="D481" t="s">
-        <v>4139</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -80721,7 +81313,7 @@
         <v>3485</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C482" s="16" t="s">
         <v>3589</v>
@@ -80735,7 +81327,7 @@
         <v>3485</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C483" s="16" t="s">
         <v>3590</v>
@@ -80749,7 +81341,7 @@
         <v>3485</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C484" s="16" t="s">
         <v>3591</v>
@@ -80763,7 +81355,7 @@
         <v>3485</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C485" s="16" t="s">
         <v>3592</v>
@@ -80777,7 +81369,7 @@
         <v>3485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C486" s="16" t="s">
         <v>3593</v>
@@ -80791,7 +81383,7 @@
         <v>3485</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C487" s="16" t="s">
         <v>3594</v>
@@ -80805,7 +81397,7 @@
         <v>3485</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C488" s="16" t="s">
         <v>3595</v>
@@ -81337,10 +81929,10 @@
         <v>3485</v>
       </c>
       <c r="B526" s="16" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>4050</v>
+        <v>4045</v>
       </c>
       <c r="D526" t="s">
         <v>3714</v>
@@ -81351,13 +81943,13 @@
         <v>3485</v>
       </c>
       <c r="B527" s="16" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="C527" s="16" t="s">
-        <v>4051</v>
+        <v>4046</v>
       </c>
       <c r="D527" t="s">
-        <v>4052</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81365,13 +81957,13 @@
         <v>3485</v>
       </c>
       <c r="B528" s="16" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="C528" s="16" t="s">
-        <v>4053</v>
+        <v>4048</v>
       </c>
       <c r="D528" t="s">
-        <v>4054</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81379,13 +81971,13 @@
         <v>3485</v>
       </c>
       <c r="B529" s="16" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="C529" s="16" t="s">
-        <v>4055</v>
+        <v>4050</v>
       </c>
       <c r="D529" t="s">
-        <v>4054</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81393,13 +81985,13 @@
         <v>3485</v>
       </c>
       <c r="B530" s="16" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="C530" s="16" t="s">
-        <v>4056</v>
+        <v>4051</v>
       </c>
       <c r="D530" t="s">
-        <v>4054</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81407,13 +81999,13 @@
         <v>3485</v>
       </c>
       <c r="B531" s="16" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="C531" s="16" t="s">
-        <v>4058</v>
+        <v>4053</v>
       </c>
       <c r="D531" t="s">
-        <v>4057</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81421,13 +82013,13 @@
         <v>3485</v>
       </c>
       <c r="B532" s="16" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="C532" s="16" t="s">
-        <v>4059</v>
+        <v>4054</v>
       </c>
       <c r="D532" t="s">
-        <v>4060</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81435,13 +82027,13 @@
         <v>3485</v>
       </c>
       <c r="B533" s="16" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="C533" s="16" t="s">
-        <v>4062</v>
+        <v>4057</v>
       </c>
       <c r="D533" t="s">
-        <v>4061</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81449,13 +82041,13 @@
         <v>3485</v>
       </c>
       <c r="B534" s="16" t="s">
-        <v>4039</v>
+        <v>4034</v>
       </c>
       <c r="C534" s="16" t="s">
-        <v>4064</v>
+        <v>4059</v>
       </c>
       <c r="D534" t="s">
-        <v>4063</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81463,13 +82055,13 @@
         <v>3485</v>
       </c>
       <c r="B535" s="16" t="s">
-        <v>4039</v>
+        <v>4034</v>
       </c>
       <c r="C535" s="16" t="s">
-        <v>4065</v>
+        <v>4060</v>
       </c>
       <c r="D535" t="s">
-        <v>4063</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81477,13 +82069,13 @@
         <v>3485</v>
       </c>
       <c r="B536" s="16" t="s">
-        <v>4039</v>
+        <v>4034</v>
       </c>
       <c r="C536" s="16" t="s">
-        <v>4066</v>
+        <v>4061</v>
       </c>
       <c r="D536" t="s">
-        <v>4067</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81491,13 +82083,13 @@
         <v>3485</v>
       </c>
       <c r="B537" s="16" t="s">
-        <v>4069</v>
+        <v>4064</v>
       </c>
       <c r="C537" s="16" t="s">
-        <v>4141</v>
+        <v>4136</v>
       </c>
       <c r="D537" t="s">
-        <v>4142</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81505,10 +82097,10 @@
         <v>3485</v>
       </c>
       <c r="B538" s="16" t="s">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="C538" s="16" t="s">
-        <v>4145</v>
+        <v>4140</v>
       </c>
       <c r="D538" t="s">
         <v>3714</v>
@@ -81519,13 +82111,13 @@
         <v>3485</v>
       </c>
       <c r="B539" s="16" t="s">
-        <v>4071</v>
+        <v>4066</v>
       </c>
       <c r="C539" s="16" t="s">
-        <v>4143</v>
+        <v>4138</v>
       </c>
       <c r="D539" t="s">
-        <v>4144</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81533,10 +82125,10 @@
         <v>3485</v>
       </c>
       <c r="B540" s="16" t="s">
-        <v>4072</v>
+        <v>4067</v>
       </c>
       <c r="C540" s="16" t="s">
-        <v>4146</v>
+        <v>4141</v>
       </c>
       <c r="D540" t="s">
         <v>3652</v>
@@ -81547,10 +82139,10 @@
         <v>3485</v>
       </c>
       <c r="B541" s="16" t="s">
-        <v>4072</v>
+        <v>4067</v>
       </c>
       <c r="C541" s="16" t="s">
-        <v>4147</v>
+        <v>4142</v>
       </c>
       <c r="D541" t="s">
         <v>3714</v>
@@ -81561,10 +82153,10 @@
         <v>3485</v>
       </c>
       <c r="B542" s="16" t="s">
-        <v>4072</v>
+        <v>4067</v>
       </c>
       <c r="C542" s="16" t="s">
-        <v>4164</v>
+        <v>4159</v>
       </c>
       <c r="D542" t="s">
         <v>3652</v>
@@ -81575,13 +82167,13 @@
         <v>3485</v>
       </c>
       <c r="B543" s="16" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="C543" s="16" t="s">
-        <v>4149</v>
+        <v>4144</v>
       </c>
       <c r="D543" t="s">
-        <v>4148</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81589,13 +82181,13 @@
         <v>3485</v>
       </c>
       <c r="B544" s="16" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="C544" s="16" t="s">
-        <v>4151</v>
+        <v>4146</v>
       </c>
       <c r="D544" t="s">
-        <v>4150</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81603,13 +82195,13 @@
         <v>3485</v>
       </c>
       <c r="B545" s="16" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="C545" s="16" t="s">
-        <v>4152</v>
+        <v>4147</v>
       </c>
       <c r="D545" t="s">
-        <v>4153</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81617,13 +82209,13 @@
         <v>3485</v>
       </c>
       <c r="B546" s="16" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="C546" s="16" t="s">
-        <v>4154</v>
+        <v>4149</v>
       </c>
       <c r="D546" t="s">
-        <v>4163</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81631,13 +82223,13 @@
         <v>3485</v>
       </c>
       <c r="B547" s="16" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="C547" s="16" t="s">
-        <v>4155</v>
+        <v>4150</v>
       </c>
       <c r="D547" t="s">
-        <v>4153</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81645,13 +82237,13 @@
         <v>3485</v>
       </c>
       <c r="B548" s="16" t="s">
-        <v>4074</v>
+        <v>4069</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>4157</v>
+        <v>4152</v>
       </c>
       <c r="D548" t="s">
-        <v>4156</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81659,13 +82251,13 @@
         <v>3485</v>
       </c>
       <c r="B549" s="16" t="s">
-        <v>4074</v>
+        <v>4069</v>
       </c>
       <c r="C549" s="16" t="s">
-        <v>4159</v>
+        <v>4154</v>
       </c>
       <c r="D549" t="s">
-        <v>4158</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81673,13 +82265,13 @@
         <v>3485</v>
       </c>
       <c r="B550" s="16" t="s">
-        <v>4077</v>
+        <v>4072</v>
       </c>
       <c r="C550" s="16" t="s">
-        <v>4160</v>
+        <v>4155</v>
       </c>
       <c r="D550" t="s">
-        <v>4093</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81687,13 +82279,13 @@
         <v>3485</v>
       </c>
       <c r="B551" s="16" t="s">
-        <v>4077</v>
+        <v>4072</v>
       </c>
       <c r="C551" s="16" t="s">
-        <v>4161</v>
+        <v>4156</v>
       </c>
       <c r="D551" t="s">
-        <v>4162</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="552" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81701,13 +82293,13 @@
         <v>3485</v>
       </c>
       <c r="B552" s="16" t="s">
-        <v>4168</v>
+        <v>4163</v>
       </c>
       <c r="C552" s="16" t="s">
-        <v>4198</v>
+        <v>4193</v>
       </c>
       <c r="D552" t="s">
-        <v>4199</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81715,13 +82307,13 @@
         <v>3485</v>
       </c>
       <c r="B553" s="16" t="s">
-        <v>4168</v>
+        <v>4163</v>
       </c>
       <c r="C553" s="16" t="s">
-        <v>4200</v>
+        <v>4195</v>
       </c>
       <c r="D553" t="s">
-        <v>4201</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81729,13 +82321,13 @@
         <v>3485</v>
       </c>
       <c r="B554" s="16" t="s">
-        <v>4168</v>
+        <v>4163</v>
       </c>
       <c r="C554" s="16" t="s">
-        <v>4202</v>
+        <v>4197</v>
       </c>
       <c r="D554" t="s">
-        <v>4199</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81743,13 +82335,13 @@
         <v>3485</v>
       </c>
       <c r="B555" s="16" t="s">
-        <v>4168</v>
+        <v>4163</v>
       </c>
       <c r="C555" s="16" t="s">
-        <v>4203</v>
+        <v>4198</v>
       </c>
       <c r="D555" t="s">
-        <v>4199</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81757,13 +82349,13 @@
         <v>3485</v>
       </c>
       <c r="B556" s="16" t="s">
-        <v>4169</v>
+        <v>4164</v>
       </c>
       <c r="C556" s="16" t="s">
-        <v>4205</v>
+        <v>4200</v>
       </c>
       <c r="D556" t="s">
-        <v>4204</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81771,13 +82363,13 @@
         <v>3485</v>
       </c>
       <c r="B557" s="16" t="s">
-        <v>4170</v>
+        <v>4165</v>
       </c>
       <c r="C557" s="16" t="s">
-        <v>4206</v>
+        <v>4201</v>
       </c>
       <c r="D557" t="s">
-        <v>4207</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81785,13 +82377,13 @@
         <v>3485</v>
       </c>
       <c r="B558" s="16" t="s">
-        <v>4170</v>
+        <v>4165</v>
       </c>
       <c r="C558" s="16" t="s">
-        <v>4208</v>
+        <v>4203</v>
       </c>
       <c r="D558" t="s">
-        <v>4209</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81799,13 +82391,13 @@
         <v>3485</v>
       </c>
       <c r="B559" s="16" t="s">
-        <v>4170</v>
+        <v>4165</v>
       </c>
       <c r="C559" s="16" t="s">
-        <v>4211</v>
+        <v>4206</v>
       </c>
       <c r="D559" t="s">
-        <v>4210</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81813,13 +82405,13 @@
         <v>3485</v>
       </c>
       <c r="B560" s="16" t="s">
-        <v>4171</v>
+        <v>4166</v>
       </c>
       <c r="C560" s="16" t="s">
-        <v>4212</v>
+        <v>4207</v>
       </c>
       <c r="D560" t="s">
-        <v>4213</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81827,13 +82419,13 @@
         <v>3485</v>
       </c>
       <c r="B561" s="16" t="s">
-        <v>4171</v>
+        <v>4166</v>
       </c>
       <c r="C561" s="16" t="s">
-        <v>4214</v>
+        <v>4209</v>
       </c>
       <c r="D561" t="s">
-        <v>4215</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81841,13 +82433,13 @@
         <v>3485</v>
       </c>
       <c r="B562" s="16" t="s">
-        <v>4171</v>
+        <v>4166</v>
       </c>
       <c r="C562" s="16" t="s">
-        <v>4217</v>
+        <v>4212</v>
       </c>
       <c r="D562" t="s">
-        <v>4216</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81855,13 +82447,13 @@
         <v>3485</v>
       </c>
       <c r="B563" s="16" t="s">
-        <v>4171</v>
+        <v>4166</v>
       </c>
       <c r="C563" s="16" t="s">
-        <v>4219</v>
+        <v>4214</v>
       </c>
       <c r="D563" t="s">
-        <v>4218</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81869,13 +82461,13 @@
         <v>3485</v>
       </c>
       <c r="B564" s="16" t="s">
-        <v>4172</v>
+        <v>4167</v>
       </c>
       <c r="C564" s="16" t="s">
-        <v>4220</v>
+        <v>4215</v>
       </c>
       <c r="D564" t="s">
-        <v>4221</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81883,13 +82475,13 @@
         <v>3485</v>
       </c>
       <c r="B565" s="16" t="s">
-        <v>4172</v>
+        <v>4167</v>
       </c>
       <c r="C565" s="16" t="s">
-        <v>4222</v>
+        <v>4217</v>
       </c>
       <c r="D565" t="s">
-        <v>4223</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81897,13 +82489,13 @@
         <v>3485</v>
       </c>
       <c r="B566" s="16" t="s">
-        <v>4172</v>
+        <v>4167</v>
       </c>
       <c r="C566" s="16" t="s">
-        <v>4225</v>
+        <v>4220</v>
       </c>
       <c r="D566" t="s">
-        <v>4224</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81911,13 +82503,13 @@
         <v>3485</v>
       </c>
       <c r="B567" s="16" t="s">
-        <v>4173</v>
+        <v>4168</v>
       </c>
       <c r="C567" s="16" t="s">
-        <v>4226</v>
+        <v>4221</v>
       </c>
       <c r="D567" t="s">
-        <v>4190</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81925,13 +82517,13 @@
         <v>3485</v>
       </c>
       <c r="B568" s="16" t="s">
-        <v>4174</v>
+        <v>4169</v>
       </c>
       <c r="C568" s="16" t="s">
-        <v>4229</v>
+        <v>4224</v>
       </c>
       <c r="D568" t="s">
-        <v>4227</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81939,13 +82531,13 @@
         <v>3485</v>
       </c>
       <c r="B569" s="16" t="s">
-        <v>4174</v>
+        <v>4169</v>
       </c>
       <c r="C569" s="16" t="s">
-        <v>4230</v>
+        <v>4225</v>
       </c>
       <c r="D569" t="s">
-        <v>4228</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81953,13 +82545,13 @@
         <v>3485</v>
       </c>
       <c r="B570" s="16" t="s">
-        <v>4231</v>
+        <v>4226</v>
       </c>
       <c r="C570" s="16" t="s">
-        <v>4256</v>
+        <v>4251</v>
       </c>
       <c r="D570" t="s">
-        <v>4257</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81967,13 +82559,13 @@
         <v>3485</v>
       </c>
       <c r="B571" s="16" t="s">
-        <v>4231</v>
+        <v>4226</v>
       </c>
       <c r="C571" s="16" t="s">
-        <v>4258</v>
+        <v>4253</v>
       </c>
       <c r="D571" t="s">
-        <v>4227</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81981,13 +82573,13 @@
         <v>3485</v>
       </c>
       <c r="B572" s="16" t="s">
-        <v>4231</v>
+        <v>4226</v>
       </c>
       <c r="C572" s="16" t="s">
-        <v>4259</v>
+        <v>4254</v>
       </c>
       <c r="D572" t="s">
-        <v>4228</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -81995,13 +82587,13 @@
         <v>3485</v>
       </c>
       <c r="B573" s="16" t="s">
-        <v>4232</v>
+        <v>4227</v>
       </c>
       <c r="C573" s="16" t="s">
-        <v>4260</v>
+        <v>4255</v>
       </c>
       <c r="D573" t="s">
-        <v>4261</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82009,13 +82601,13 @@
         <v>3485</v>
       </c>
       <c r="B574" s="16" t="s">
-        <v>4232</v>
+        <v>4227</v>
       </c>
       <c r="C574" s="16" t="s">
-        <v>4262</v>
+        <v>4257</v>
       </c>
       <c r="D574" t="s">
-        <v>4275</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82023,13 +82615,13 @@
         <v>3485</v>
       </c>
       <c r="B575" s="16" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="C575" s="16" t="s">
-        <v>4263</v>
+        <v>4258</v>
       </c>
       <c r="D575" t="s">
-        <v>4270</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82037,10 +82629,10 @@
         <v>3485</v>
       </c>
       <c r="B576" s="16" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="C576" s="16" t="s">
-        <v>4264</v>
+        <v>4259</v>
       </c>
       <c r="D576" t="s">
         <v>3714</v>
@@ -82051,10 +82643,10 @@
         <v>3485</v>
       </c>
       <c r="B577" s="16" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="C577" s="16" t="s">
-        <v>4265</v>
+        <v>4260</v>
       </c>
       <c r="D577" t="s">
         <v>3652</v>
@@ -82065,13 +82657,13 @@
         <v>3485</v>
       </c>
       <c r="B578" s="16" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="C578" s="16" t="s">
-        <v>4266</v>
+        <v>4261</v>
       </c>
       <c r="D578" t="s">
-        <v>4270</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82079,13 +82671,13 @@
         <v>3485</v>
       </c>
       <c r="B579" s="16" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="C579" s="16" t="s">
-        <v>4267</v>
+        <v>4262</v>
       </c>
       <c r="D579" t="s">
-        <v>4270</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82093,13 +82685,13 @@
         <v>3485</v>
       </c>
       <c r="B580" s="16" t="s">
-        <v>4233</v>
+        <v>4228</v>
       </c>
       <c r="C580" s="16" t="s">
-        <v>4268</v>
+        <v>4263</v>
       </c>
       <c r="D580" t="s">
-        <v>4270</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82107,13 +82699,13 @@
         <v>3485</v>
       </c>
       <c r="B581" s="16" t="s">
-        <v>4234</v>
+        <v>4229</v>
       </c>
       <c r="C581" s="16" t="s">
-        <v>4269</v>
+        <v>4264</v>
       </c>
       <c r="D581" t="s">
-        <v>4270</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82121,10 +82713,10 @@
         <v>3485</v>
       </c>
       <c r="B582" s="16" t="s">
-        <v>4234</v>
+        <v>4229</v>
       </c>
       <c r="C582" s="16" t="s">
-        <v>4271</v>
+        <v>4266</v>
       </c>
       <c r="D582" t="s">
         <v>3714</v>
@@ -82135,13 +82727,13 @@
         <v>3485</v>
       </c>
       <c r="B583" s="16" t="s">
-        <v>4234</v>
+        <v>4229</v>
       </c>
       <c r="C583" s="16" t="s">
-        <v>4272</v>
+        <v>4267</v>
       </c>
       <c r="D583" t="s">
-        <v>4270</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82149,13 +82741,13 @@
         <v>3485</v>
       </c>
       <c r="B584" s="16" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
       <c r="C584" s="16" t="s">
-        <v>4273</v>
+        <v>4268</v>
       </c>
       <c r="D584" t="s">
-        <v>4270</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82163,13 +82755,13 @@
         <v>3485</v>
       </c>
       <c r="B585" s="16" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
       <c r="C585" s="16" t="s">
-        <v>4274</v>
+        <v>4269</v>
       </c>
       <c r="D585" t="s">
-        <v>4275</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82177,13 +82769,13 @@
         <v>3485</v>
       </c>
       <c r="B586" s="16" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
       <c r="C586" s="16" t="s">
-        <v>4276</v>
+        <v>4271</v>
       </c>
       <c r="D586" t="s">
-        <v>4277</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82191,10 +82783,10 @@
         <v>3485</v>
       </c>
       <c r="B587" s="16" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
       <c r="C587" s="16" t="s">
-        <v>4278</v>
+        <v>4273</v>
       </c>
       <c r="D587" t="s">
         <v>3714</v>
@@ -82205,10 +82797,10 @@
         <v>3485</v>
       </c>
       <c r="B588" s="16" t="s">
-        <v>4236</v>
+        <v>4231</v>
       </c>
       <c r="C588" s="16" t="s">
-        <v>4279</v>
+        <v>4274</v>
       </c>
       <c r="D588" t="s">
         <v>3714</v>
@@ -82219,10 +82811,10 @@
         <v>3485</v>
       </c>
       <c r="B589" s="16" t="s">
-        <v>4237</v>
+        <v>4232</v>
       </c>
       <c r="C589" s="16" t="s">
-        <v>4280</v>
+        <v>4275</v>
       </c>
       <c r="D589" t="s">
         <v>3714</v>
@@ -82233,10 +82825,10 @@
         <v>3485</v>
       </c>
       <c r="B590" s="16" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="C590" s="16" t="s">
-        <v>4281</v>
+        <v>4276</v>
       </c>
       <c r="D590" t="s">
         <v>3714</v>
@@ -82247,10 +82839,10 @@
         <v>3485</v>
       </c>
       <c r="B591" s="16" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="C591" s="16" t="s">
-        <v>4282</v>
+        <v>4277</v>
       </c>
       <c r="D591" t="s">
         <v>3714</v>
@@ -82261,10 +82853,10 @@
         <v>3485</v>
       </c>
       <c r="B592" s="16" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="C592" s="16" t="s">
-        <v>4283</v>
+        <v>4278</v>
       </c>
       <c r="D592" t="s">
         <v>3714</v>
@@ -82275,13 +82867,13 @@
         <v>3485</v>
       </c>
       <c r="B593" s="16" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="C593" s="16" t="s">
-        <v>4285</v>
+        <v>4280</v>
       </c>
       <c r="D593" t="s">
-        <v>4284</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82289,13 +82881,13 @@
         <v>3485</v>
       </c>
       <c r="B594" s="16" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="C594" s="16" t="s">
-        <v>4286</v>
+        <v>4281</v>
       </c>
       <c r="D594" t="s">
-        <v>4287</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82303,13 +82895,13 @@
         <v>3485</v>
       </c>
       <c r="B595" s="16" t="s">
-        <v>4239</v>
+        <v>4234</v>
       </c>
       <c r="C595" s="16" t="s">
-        <v>4288</v>
+        <v>4283</v>
       </c>
       <c r="D595" t="s">
-        <v>4289</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82317,13 +82909,13 @@
         <v>3485</v>
       </c>
       <c r="B596" s="16" t="s">
-        <v>4240</v>
+        <v>4235</v>
       </c>
       <c r="C596" s="16" t="s">
-        <v>4290</v>
+        <v>4285</v>
       </c>
       <c r="D596" t="s">
-        <v>4291</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -82331,66 +82923,66 @@
         <v>3485</v>
       </c>
       <c r="B597" s="16" t="s">
-        <v>4240</v>
+        <v>4235</v>
       </c>
       <c r="C597" s="16" t="s">
-        <v>4293</v>
+        <v>4288</v>
       </c>
       <c r="D597" t="s">
-        <v>4292</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B598" t="s">
-        <v>4298</v>
+        <v>4293</v>
       </c>
       <c r="C598" s="16" t="s">
-        <v>4322</v>
+        <v>4317</v>
       </c>
       <c r="D598" t="s">
-        <v>4340</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B599" t="s">
         <v>4294</v>
       </c>
-      <c r="B599" t="s">
-        <v>4299</v>
-      </c>
       <c r="C599" s="16" t="s">
-        <v>4323</v>
+        <v>4318</v>
       </c>
       <c r="D599" t="s">
-        <v>4339</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B600" t="s">
         <v>4294</v>
       </c>
-      <c r="B600" t="s">
-        <v>4299</v>
-      </c>
       <c r="C600" s="16" t="s">
-        <v>4324</v>
+        <v>4319</v>
       </c>
       <c r="D600" t="s">
-        <v>4339</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B601" t="s">
-        <v>4302</v>
+        <v>4297</v>
       </c>
       <c r="C601" s="16" t="s">
-        <v>4341</v>
+        <v>4336</v>
       </c>
       <c r="D601" t="s">
         <v>3714</v>
@@ -82398,13 +82990,13 @@
     </row>
     <row r="602" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B602" t="s">
-        <v>4296</v>
+        <v>4291</v>
       </c>
       <c r="C602" s="16" t="s">
-        <v>4325</v>
+        <v>4320</v>
       </c>
       <c r="D602" t="s">
         <v>3714</v>
@@ -82412,13 +83004,13 @@
     </row>
     <row r="603" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B603" t="s">
-        <v>4296</v>
+        <v>4291</v>
       </c>
       <c r="C603" s="16" t="s">
-        <v>4326</v>
+        <v>4321</v>
       </c>
       <c r="D603" t="s">
         <v>3714</v>
@@ -82426,13 +83018,13 @@
     </row>
     <row r="604" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B604" t="s">
-        <v>4297</v>
+        <v>4292</v>
       </c>
       <c r="C604" s="16" t="s">
-        <v>4327</v>
+        <v>4322</v>
       </c>
       <c r="D604" t="s">
         <v>3714</v>
@@ -82440,27 +83032,27 @@
     </row>
     <row r="605" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B605" t="s">
-        <v>4297</v>
+        <v>4292</v>
       </c>
       <c r="C605" s="16" t="s">
-        <v>4328</v>
+        <v>4323</v>
       </c>
       <c r="D605" t="s">
-        <v>4336</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B606" t="s">
-        <v>4298</v>
+        <v>4293</v>
       </c>
       <c r="C606" s="16" t="s">
-        <v>4329</v>
+        <v>4324</v>
       </c>
       <c r="D606" t="s">
         <v>3714</v>
@@ -82468,55 +83060,55 @@
     </row>
     <row r="607" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B607" t="s">
         <v>4294</v>
       </c>
-      <c r="B607" t="s">
-        <v>4299</v>
-      </c>
       <c r="C607" s="16" t="s">
-        <v>4330</v>
+        <v>4325</v>
       </c>
       <c r="D607" t="s">
-        <v>4337</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B608" t="s">
         <v>4294</v>
       </c>
-      <c r="B608" t="s">
-        <v>4299</v>
-      </c>
       <c r="C608" s="16" t="s">
-        <v>4331</v>
+        <v>4326</v>
       </c>
       <c r="D608" t="s">
-        <v>4338</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B609" t="s">
         <v>4294</v>
       </c>
-      <c r="B609" t="s">
-        <v>4299</v>
-      </c>
       <c r="C609" s="16" t="s">
-        <v>4332</v>
+        <v>4327</v>
       </c>
       <c r="D609" t="s">
-        <v>4338</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B610" t="s">
-        <v>4302</v>
+        <v>4297</v>
       </c>
       <c r="C610" s="16" t="s">
-        <v>4333</v>
+        <v>4328</v>
       </c>
       <c r="D610" t="s">
         <v>3652</v>
@@ -82524,13 +83116,13 @@
     </row>
     <row r="611" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B611" t="s">
-        <v>4303</v>
+        <v>4298</v>
       </c>
       <c r="C611" s="16" t="s">
-        <v>4334</v>
+        <v>4329</v>
       </c>
       <c r="D611" t="s">
         <v>3714</v>
@@ -82538,13 +83130,13 @@
     </row>
     <row r="612" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B612" t="s">
-        <v>4303</v>
+        <v>4298</v>
       </c>
       <c r="C612" s="16" t="s">
-        <v>4335</v>
+        <v>4330</v>
       </c>
       <c r="D612" t="s">
         <v>3714</v>
@@ -82552,125 +83144,125 @@
     </row>
     <row r="613" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B613" t="s">
-        <v>4344</v>
+        <v>4339</v>
       </c>
       <c r="C613" s="16" t="s">
-        <v>4363</v>
+        <v>4358</v>
       </c>
       <c r="D613" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B614" t="s">
-        <v>4345</v>
+        <v>4340</v>
       </c>
       <c r="C614" s="16" t="s">
-        <v>4364</v>
+        <v>4359</v>
       </c>
       <c r="D614" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B615" t="s">
-        <v>4345</v>
+        <v>4340</v>
       </c>
       <c r="C615" s="16" t="s">
-        <v>4365</v>
+        <v>4360</v>
       </c>
       <c r="D615" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B616" t="s">
-        <v>4347</v>
+        <v>4342</v>
       </c>
       <c r="C616" s="16" t="s">
+        <v>4361</v>
+      </c>
+      <c r="D616" t="s">
         <v>4366</v>
-      </c>
-      <c r="D616" t="s">
-        <v>4371</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B617" t="s">
-        <v>4347</v>
+        <v>4342</v>
       </c>
       <c r="C617" s="16" t="s">
-        <v>4367</v>
+        <v>4362</v>
       </c>
       <c r="D617" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B618" t="s">
-        <v>4347</v>
+        <v>4342</v>
       </c>
       <c r="C618" s="16" t="s">
-        <v>4368</v>
+        <v>4363</v>
       </c>
       <c r="D618" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B619" t="s">
-        <v>4348</v>
+        <v>4343</v>
       </c>
       <c r="C619" s="16" t="s">
-        <v>4369</v>
+        <v>4364</v>
       </c>
       <c r="D619" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B620" t="s">
-        <v>4342</v>
+        <v>4337</v>
       </c>
       <c r="C620" s="16" t="s">
-        <v>4370</v>
+        <v>4365</v>
       </c>
       <c r="D620" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B621" t="s">
-        <v>4373</v>
+        <v>4368</v>
       </c>
       <c r="C621" s="16" t="s">
-        <v>4387</v>
+        <v>4382</v>
       </c>
       <c r="D621" t="s">
         <v>3714</v>
@@ -82678,27 +83270,27 @@
     </row>
     <row r="622" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B622" t="s">
-        <v>4373</v>
+        <v>4368</v>
       </c>
       <c r="C622" s="16" t="s">
-        <v>4388</v>
+        <v>4383</v>
       </c>
       <c r="D622" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B623" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C623" s="16" t="s">
-        <v>4389</v>
+        <v>4384</v>
       </c>
       <c r="D623" t="s">
         <v>3714</v>
@@ -82706,251 +83298,251 @@
     </row>
     <row r="624" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B624" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C624" s="16" t="s">
-        <v>4390</v>
+        <v>4385</v>
       </c>
       <c r="D624" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B625" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C625" s="16" t="s">
-        <v>4391</v>
+        <v>4386</v>
       </c>
       <c r="D625" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B626" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C626" s="16" t="s">
-        <v>4392</v>
+        <v>4387</v>
       </c>
       <c r="D626" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B627" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C627" s="16" t="s">
-        <v>4393</v>
+        <v>4388</v>
       </c>
       <c r="D627" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B628" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C628" s="16" t="s">
-        <v>4394</v>
+        <v>4389</v>
       </c>
       <c r="D628" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B629" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C629" s="16" t="s">
-        <v>4395</v>
+        <v>4390</v>
       </c>
       <c r="D629" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B630" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C630" s="16" t="s">
-        <v>4396</v>
+        <v>4391</v>
       </c>
       <c r="D630" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B631" t="s">
-        <v>4375</v>
+        <v>4370</v>
       </c>
       <c r="C631" s="16" t="s">
-        <v>4397</v>
+        <v>4392</v>
       </c>
       <c r="D631" t="s">
-        <v>4371</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B632" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C632" s="16" t="s">
+        <v>4431</v>
+      </c>
+      <c r="D632" t="s">
         <v>4432</v>
-      </c>
-      <c r="C632" s="16" t="s">
-        <v>4436</v>
-      </c>
-      <c r="D632" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B633" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C633" s="16" t="s">
+        <v>4433</v>
+      </c>
+      <c r="D633" t="s">
         <v>4432</v>
-      </c>
-      <c r="C633" s="16" t="s">
-        <v>4438</v>
-      </c>
-      <c r="D633" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B634" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C634" s="16" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D634" t="s">
         <v>4432</v>
-      </c>
-      <c r="C634" s="16" t="s">
-        <v>4439</v>
-      </c>
-      <c r="D634" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B635" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C635" s="16" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D635" t="s">
         <v>4432</v>
-      </c>
-      <c r="C635" s="16" t="s">
-        <v>4440</v>
-      </c>
-      <c r="D635" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B636" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C636" s="16" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D636" t="s">
         <v>4432</v>
-      </c>
-      <c r="C636" s="16" t="s">
-        <v>4441</v>
-      </c>
-      <c r="D636" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B637" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C637" s="16" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D637" t="s">
         <v>4432</v>
-      </c>
-      <c r="C637" s="16" t="s">
-        <v>4442</v>
-      </c>
-      <c r="D637" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B638" t="s">
-        <v>4432</v>
+        <v>4427</v>
       </c>
       <c r="C638" s="16" t="s">
-        <v>4443</v>
+        <v>4438</v>
       </c>
       <c r="D638" t="s">
-        <v>4444</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B639" t="s">
-        <v>4432</v>
+        <v>4427</v>
       </c>
       <c r="C639" s="16" t="s">
-        <v>4446</v>
+        <v>4441</v>
       </c>
       <c r="D639" t="s">
-        <v>4445</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B640" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C640" s="16" t="s">
-        <v>4447</v>
+        <v>4442</v>
       </c>
       <c r="D640" t="s">
-        <v>4453</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="641" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B641" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C641" s="16" t="s">
-        <v>4448</v>
+        <v>4443</v>
       </c>
       <c r="D641" t="s">
         <v>3714</v>
@@ -82958,27 +83550,27 @@
     </row>
     <row r="642" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B642" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C642" s="16" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D642" t="s">
         <v>4449</v>
-      </c>
-      <c r="D642" t="s">
-        <v>4454</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B643" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C643" s="16" t="s">
-        <v>4450</v>
+        <v>4445</v>
       </c>
       <c r="D643" t="s">
         <v>3714</v>
@@ -82986,13 +83578,13 @@
     </row>
     <row r="644" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B644" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C644" s="16" t="s">
-        <v>4451</v>
+        <v>4446</v>
       </c>
       <c r="D644" t="s">
         <v>3652</v>
@@ -83000,13 +83592,13 @@
     </row>
     <row r="645" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B645" t="s">
-        <v>4430</v>
+        <v>4425</v>
       </c>
       <c r="C645" s="16" t="s">
-        <v>4452</v>
+        <v>4447</v>
       </c>
       <c r="D645" t="s">
         <v>3714</v>
@@ -83014,13 +83606,13 @@
     </row>
     <row r="646" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B646" t="s">
-        <v>4430</v>
+        <v>4425</v>
       </c>
       <c r="C646" s="16" t="s">
-        <v>4455</v>
+        <v>4450</v>
       </c>
       <c r="D646" t="s">
         <v>3714</v>
@@ -83028,27 +83620,27 @@
     </row>
     <row r="647" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B647" t="s">
-        <v>4430</v>
+        <v>4425</v>
       </c>
       <c r="C647" s="16" t="s">
-        <v>4456</v>
+        <v>4451</v>
       </c>
       <c r="D647" t="s">
-        <v>4457</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B648" t="s">
-        <v>4430</v>
+        <v>4425</v>
       </c>
       <c r="C648" s="16" t="s">
-        <v>4458</v>
+        <v>4453</v>
       </c>
       <c r="D648" t="s">
         <v>3714</v>
@@ -83056,27 +83648,27 @@
     </row>
     <row r="649" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B649" t="s">
-        <v>4430</v>
+        <v>4425</v>
       </c>
       <c r="C649" s="16" t="s">
-        <v>4460</v>
+        <v>4455</v>
       </c>
       <c r="D649" t="s">
-        <v>4459</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B650" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C650" s="16" t="s">
-        <v>4461</v>
+        <v>4456</v>
       </c>
       <c r="D650" t="s">
         <v>3714</v>
@@ -83084,13 +83676,13 @@
     </row>
     <row r="651" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B651" t="s">
-        <v>4421</v>
+        <v>4416</v>
       </c>
       <c r="C651" s="16" t="s">
-        <v>4462</v>
+        <v>4457</v>
       </c>
       <c r="D651" t="s">
         <v>3714</v>
@@ -83098,13 +83690,13 @@
     </row>
     <row r="652" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B652" t="s">
-        <v>4398</v>
+        <v>4393</v>
       </c>
       <c r="C652" s="16" t="s">
-        <v>4463</v>
+        <v>4458</v>
       </c>
       <c r="D652" t="s">
         <v>3714</v>
@@ -83112,27 +83704,27 @@
     </row>
     <row r="653" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B653" t="s">
-        <v>4398</v>
+        <v>4393</v>
       </c>
       <c r="C653" s="16" t="s">
-        <v>4464</v>
+        <v>4459</v>
       </c>
       <c r="D653" t="s">
-        <v>4336</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="654" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B654" t="s">
-        <v>4398</v>
+        <v>4393</v>
       </c>
       <c r="C654" s="16" t="s">
-        <v>4465</v>
+        <v>4460</v>
       </c>
       <c r="D654" t="s">
         <v>3714</v>
@@ -83140,83 +83732,83 @@
     </row>
     <row r="655" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B655" t="s">
-        <v>4398</v>
+        <v>4393</v>
       </c>
       <c r="C655" s="16" t="s">
-        <v>4466</v>
+        <v>4461</v>
       </c>
       <c r="D655" t="s">
-        <v>4469</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="656" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B656" t="s">
-        <v>4398</v>
+        <v>4393</v>
       </c>
       <c r="C656" s="16" t="s">
-        <v>4467</v>
+        <v>4462</v>
       </c>
       <c r="D656" t="s">
-        <v>4470</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="657" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B657" t="s">
-        <v>4398</v>
+        <v>4393</v>
       </c>
       <c r="C657" s="16" t="s">
-        <v>4468</v>
+        <v>4463</v>
       </c>
       <c r="D657" t="s">
-        <v>4400</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="658" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B658" t="s">
-        <v>4401</v>
+        <v>4396</v>
       </c>
       <c r="C658" s="16" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D658" t="s">
         <v>4472</v>
-      </c>
-      <c r="D658" t="s">
-        <v>4477</v>
       </c>
     </row>
     <row r="659" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B659" t="s">
-        <v>4401</v>
+        <v>4396</v>
       </c>
       <c r="C659" s="16" t="s">
-        <v>4473</v>
+        <v>4468</v>
       </c>
       <c r="D659" t="s">
-        <v>4477</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="660" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B660" t="s">
-        <v>4401</v>
+        <v>4396</v>
       </c>
       <c r="C660" s="16" t="s">
-        <v>4474</v>
+        <v>4469</v>
       </c>
       <c r="D660" t="s">
         <v>3570</v>
@@ -83224,41 +83816,41 @@
     </row>
     <row r="661" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B661" t="s">
-        <v>4401</v>
+        <v>4396</v>
       </c>
       <c r="C661" s="16" t="s">
-        <v>4475</v>
+        <v>4470</v>
       </c>
       <c r="D661" t="s">
-        <v>4477</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="662" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B662" t="s">
-        <v>4401</v>
+        <v>4396</v>
       </c>
       <c r="C662" s="16" t="s">
-        <v>4476</v>
+        <v>4471</v>
       </c>
       <c r="D662" t="s">
-        <v>4477</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="663" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B663" t="s">
         <v>3508</v>
       </c>
       <c r="C663" s="16" t="s">
-        <v>4478</v>
+        <v>4473</v>
       </c>
       <c r="D663" t="s">
         <v>3714</v>
@@ -83266,13 +83858,13 @@
     </row>
     <row r="664" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B664" t="s">
         <v>3508</v>
       </c>
       <c r="C664" s="16" t="s">
-        <v>4479</v>
+        <v>4474</v>
       </c>
       <c r="D664" t="s">
         <v>3714</v>
@@ -83280,13 +83872,13 @@
     </row>
     <row r="665" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B665" t="s">
         <v>3508</v>
       </c>
       <c r="C665" s="16" t="s">
-        <v>4480</v>
+        <v>4475</v>
       </c>
       <c r="D665" t="s">
         <v>3714</v>
@@ -83294,13 +83886,13 @@
     </row>
     <row r="666" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B666" t="s">
         <v>3508</v>
       </c>
       <c r="C666" s="16" t="s">
-        <v>4481</v>
+        <v>4476</v>
       </c>
       <c r="D666" t="s">
         <v>3652</v>
@@ -83308,13 +83900,13 @@
     </row>
     <row r="667" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B667" t="s">
         <v>3508</v>
       </c>
       <c r="C667" s="16" t="s">
-        <v>4482</v>
+        <v>4477</v>
       </c>
       <c r="D667" t="s">
         <v>3714</v>
@@ -83322,13 +83914,13 @@
     </row>
     <row r="668" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B668" t="s">
         <v>3508</v>
       </c>
       <c r="C668" s="16" t="s">
-        <v>4483</v>
+        <v>4478</v>
       </c>
       <c r="D668" t="s">
         <v>3714</v>
@@ -83336,13 +83928,13 @@
     </row>
     <row r="669" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B669" t="s">
         <v>3508</v>
       </c>
       <c r="C669" s="16" t="s">
-        <v>4484</v>
+        <v>4479</v>
       </c>
       <c r="D669" t="s">
         <v>3714</v>
@@ -83350,13 +83942,13 @@
     </row>
     <row r="670" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B670" t="s">
         <v>3508</v>
       </c>
       <c r="C670" s="16" t="s">
-        <v>4485</v>
+        <v>4480</v>
       </c>
       <c r="D670" t="s">
         <v>3714</v>
@@ -83364,13 +83956,13 @@
     </row>
     <row r="671" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B671" t="s">
         <v>3508</v>
       </c>
       <c r="C671" s="16" t="s">
-        <v>4486</v>
+        <v>4481</v>
       </c>
       <c r="D671" t="s">
         <v>3652</v>
@@ -83378,55 +83970,55 @@
     </row>
     <row r="672" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B672" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C672" s="16" t="s">
-        <v>4487</v>
+        <v>4482</v>
       </c>
       <c r="D672" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B673" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C673" s="16" t="s">
-        <v>4488</v>
+        <v>4483</v>
       </c>
       <c r="D673" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="674" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B674" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C674" s="16" t="s">
-        <v>4489</v>
+        <v>4484</v>
       </c>
       <c r="D674" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="675" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B675" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C675" s="16" t="s">
-        <v>4490</v>
+        <v>4485</v>
       </c>
       <c r="D675" t="s">
         <v>3714</v>
@@ -83434,13 +84026,13 @@
     </row>
     <row r="676" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B676" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C676" s="16" t="s">
-        <v>4491</v>
+        <v>4486</v>
       </c>
       <c r="D676" t="s">
         <v>3714</v>
@@ -83448,13 +84040,13 @@
     </row>
     <row r="677" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B677" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C677" s="16" t="s">
-        <v>4492</v>
+        <v>4487</v>
       </c>
       <c r="D677" t="s">
         <v>3714</v>
@@ -83462,104 +84054,104 @@
     </row>
     <row r="678" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B678" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C678" s="16" t="s">
-        <v>4493</v>
+        <v>4488</v>
       </c>
       <c r="D678" t="s">
-        <v>4496</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>4294</v>
+        <v>4289</v>
       </c>
       <c r="B679" t="s">
-        <v>4403</v>
+        <v>4398</v>
       </c>
       <c r="C679" s="16" t="s">
-        <v>4494</v>
+        <v>4489</v>
       </c>
       <c r="D679" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="680" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" t="s">
-        <v>4410</v>
+        <v>4405</v>
       </c>
       <c r="C680" s="16" t="s">
-        <v>4497</v>
+        <v>4492</v>
       </c>
       <c r="D680" t="s">
-        <v>4510</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="681" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" t="s">
-        <v>4410</v>
+        <v>4405</v>
       </c>
       <c r="C681" s="16" t="s">
-        <v>4498</v>
+        <v>4493</v>
       </c>
       <c r="D681" t="s">
-        <v>4510</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="682" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" t="s">
-        <v>4410</v>
+        <v>4405</v>
       </c>
       <c r="C682" s="16" t="s">
-        <v>4499</v>
+        <v>4494</v>
       </c>
       <c r="D682" t="s">
-        <v>4510</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="683" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" t="s">
-        <v>4410</v>
+        <v>4405</v>
       </c>
       <c r="C683" s="16" t="s">
-        <v>4500</v>
+        <v>4495</v>
       </c>
       <c r="D683" t="s">
-        <v>4510</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="684" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" t="s">
-        <v>4410</v>
+        <v>4405</v>
       </c>
       <c r="C684" s="16" t="s">
-        <v>4501</v>
+        <v>4496</v>
       </c>
       <c r="D684" t="s">
-        <v>4510</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="685" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C685" s="16" t="s">
-        <v>4502</v>
+        <v>4497</v>
       </c>
       <c r="D685" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="686" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C686" s="16" t="s">
-        <v>4503</v>
+        <v>4498</v>
       </c>
       <c r="D686" t="s">
         <v>3714</v>
@@ -83567,21 +84159,21 @@
     </row>
     <row r="687" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C687" s="16" t="s">
-        <v>4504</v>
+        <v>4499</v>
       </c>
       <c r="D687" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="688" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C688" s="16" t="s">
-        <v>4505</v>
+        <v>4500</v>
       </c>
       <c r="D688" t="s">
         <v>3652</v>
@@ -83589,10 +84181,10 @@
     </row>
     <row r="689" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C689" s="16" t="s">
-        <v>4506</v>
+        <v>4501</v>
       </c>
       <c r="D689" t="s">
         <v>3714</v>
@@ -83600,35 +84192,35 @@
     </row>
     <row r="690" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C690" s="16" t="s">
-        <v>4507</v>
+        <v>4502</v>
       </c>
       <c r="D690" t="s">
-        <v>4496</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="691" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C691" s="16" t="s">
-        <v>4508</v>
+        <v>4503</v>
       </c>
       <c r="D691" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="692" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" t="s">
-        <v>4409</v>
+        <v>4404</v>
       </c>
       <c r="C692" s="16" t="s">
-        <v>4509</v>
+        <v>4504</v>
       </c>
       <c r="D692" t="s">
-        <v>4495</v>
+        <v>4490</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13113" uniqueCount="4546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13148" uniqueCount="4554">
   <si>
     <t>trackID</t>
   </si>
@@ -13659,6 +13659,30 @@
   </si>
   <si>
     <t>SUTH02, SUTH03</t>
+  </si>
+  <si>
+    <t>SUTH03</t>
+  </si>
+  <si>
+    <t>SUTH04</t>
+  </si>
+  <si>
+    <t>SUTH05</t>
+  </si>
+  <si>
+    <t>SUTH06</t>
+  </si>
+  <si>
+    <t>White River access parking</t>
+  </si>
+  <si>
+    <t>Section 36 Rd</t>
+  </si>
+  <si>
+    <t>Mason-Delta Rd</t>
+  </si>
+  <si>
+    <t>SUTH02, KERN01</t>
   </si>
 </sst>
 </file>
@@ -14007,13 +14031,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1259"/>
+  <dimension ref="A1:X1263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1259" sqref="A1259"/>
+      <selection pane="bottomRight" activeCell="H1262" sqref="H1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48171,10 +48195,10 @@
         <v>3484</v>
       </c>
       <c r="B1259" t="s">
-        <v>4538</v>
+        <v>4546</v>
       </c>
       <c r="C1259" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="D1259" t="s">
         <v>9</v>
@@ -48183,12 +48207,126 @@
         <v>10</v>
       </c>
       <c r="F1259" s="3" t="s">
+        <v>4540</v>
+      </c>
+      <c r="G1259" s="3" t="s">
+        <v>4542</v>
+      </c>
+      <c r="H1259" s="3" t="s">
+        <v>4553</v>
+      </c>
+      <c r="I1259" s="3" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C1260" t="s">
         <v>4539</v>
       </c>
-      <c r="G1259" s="3" t="s">
+      <c r="D1260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1260" s="3" t="s">
+        <v>4542</v>
+      </c>
+      <c r="G1260" s="3" t="s">
+        <v>4550</v>
+      </c>
+      <c r="H1260" s="3" t="s">
+        <v>4546</v>
+      </c>
+      <c r="I1260" s="3" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1261" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>4539</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1261" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1261" s="3" t="s">
+        <v>4550</v>
+      </c>
+      <c r="G1261" s="3" t="s">
+        <v>4551</v>
+      </c>
+      <c r="H1261" s="3" t="s">
+        <v>4547</v>
+      </c>
+      <c r="I1261" s="3" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>4549</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>4539</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1262" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1262" s="3" t="s">
+        <v>4551</v>
+      </c>
+      <c r="G1262" s="3" t="s">
+        <v>4552</v>
+      </c>
+      <c r="H1262" s="3" t="s">
+        <v>4548</v>
+      </c>
+      <c r="I1262" s="3"/>
+    </row>
+    <row r="1263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1263" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1263" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1263" s="3" t="s">
+        <v>4539</v>
+      </c>
+      <c r="G1263" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="H1259" s="3" t="s">
+      <c r="H1263" s="3" t="s">
         <v>4545</v>
       </c>
     </row>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13148" uniqueCount="4554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13202" uniqueCount="4570">
   <si>
     <t>trackID</t>
   </si>
@@ -13683,6 +13683,54 @@
   </si>
   <si>
     <t>SUTH02, KERN01</t>
+  </si>
+  <si>
+    <t>BRDF01</t>
+  </si>
+  <si>
+    <t>BRDF02</t>
+  </si>
+  <si>
+    <t>BRDF03</t>
+  </si>
+  <si>
+    <t>BRDF04</t>
+  </si>
+  <si>
+    <t>BRDF05</t>
+  </si>
+  <si>
+    <t>BRTL01</t>
+  </si>
+  <si>
+    <t>Bradfield Rd</t>
+  </si>
+  <si>
+    <t>Bartlett Rd</t>
+  </si>
+  <si>
+    <t>BRDF04, BRDF05</t>
+  </si>
+  <si>
+    <t>Cty Rd A / North Country Trail</t>
+  </si>
+  <si>
+    <t>BRDF02, BRDF03</t>
+  </si>
+  <si>
+    <t>BRDF03, BRTL01</t>
+  </si>
+  <si>
+    <t>BRDF02, BRTL01</t>
+  </si>
+  <si>
+    <t>BRDF05, TRBFA01</t>
+  </si>
+  <si>
+    <t>BRDF04, TRBFA01</t>
+  </si>
+  <si>
+    <t>NCTBF16, NCTBF17</t>
   </si>
 </sst>
 </file>
@@ -14031,13 +14079,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1263"/>
+  <dimension ref="A1:X1269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1262" sqref="H1262"/>
+      <selection pane="bottomRight" activeCell="H1264" sqref="H1264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40265,7 +40313,9 @@
       <c r="H968" s="3" t="s">
         <v>1982</v>
       </c>
-      <c r="I968" s="16"/>
+      <c r="I968" s="16" t="s">
+        <v>4562</v>
+      </c>
     </row>
     <row r="969" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="3" t="s">
@@ -48328,6 +48378,177 @@
       </c>
       <c r="H1263" s="3" t="s">
         <v>4545</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1264" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1264" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H1264" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="I1264" s="3" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1265" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1265" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="G1265" s="3" t="s">
+        <v>4561</v>
+      </c>
+      <c r="H1265" s="3" t="s">
+        <v>4554</v>
+      </c>
+      <c r="I1265" s="3" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1266" s="3" t="s">
+        <v>4561</v>
+      </c>
+      <c r="G1266" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H1266" s="3" t="s">
+        <v>4566</v>
+      </c>
+      <c r="I1266" s="3" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1267" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1267" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1267" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G1267" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H1267" s="3" t="s">
+        <v>4556</v>
+      </c>
+      <c r="I1267" s="3" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1268" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1268" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G1268" s="3" t="s">
+        <v>4563</v>
+      </c>
+      <c r="H1268" s="3" t="s">
+        <v>4568</v>
+      </c>
+      <c r="I1268" s="3" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>4561</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1269" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1269" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1269" s="3" t="s">
+        <v>4560</v>
+      </c>
+      <c r="I1269" s="3" t="s">
+        <v>4564</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13202" uniqueCount="4570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13308" uniqueCount="4589">
   <si>
     <t>trackID</t>
   </si>
@@ -13731,6 +13731,63 @@
   </si>
   <si>
     <t>NCTBF16, NCTBF17</t>
+  </si>
+  <si>
+    <t>FR24101</t>
+  </si>
+  <si>
+    <t>FR241</t>
+  </si>
+  <si>
+    <t>FR24102</t>
+  </si>
+  <si>
+    <t>FR24103</t>
+  </si>
+  <si>
+    <t>FR24104</t>
+  </si>
+  <si>
+    <t>FR24105</t>
+  </si>
+  <si>
+    <t>FR24106</t>
+  </si>
+  <si>
+    <t>FR24107</t>
+  </si>
+  <si>
+    <t>FR24108</t>
+  </si>
+  <si>
+    <t>FR24109</t>
+  </si>
+  <si>
+    <t>FR24110</t>
+  </si>
+  <si>
+    <t>FR24111</t>
+  </si>
+  <si>
+    <t>FR24112</t>
+  </si>
+  <si>
+    <t>Archer's Lane</t>
+  </si>
+  <si>
+    <t>Unnamed trail of FR241</t>
+  </si>
+  <si>
+    <t>FR417</t>
+  </si>
+  <si>
+    <t>FR420A</t>
+  </si>
+  <si>
+    <t>Trail into Sawdust Lake</t>
+  </si>
+  <si>
+    <t>FR420</t>
   </si>
 </sst>
 </file>
@@ -14079,13 +14136,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1269"/>
+  <dimension ref="A1:X1281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1264" sqref="H1264"/>
+      <selection pane="bottomRight" activeCell="G1281" sqref="G1281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48549,6 +48606,348 @@
       </c>
       <c r="I1269" s="3" t="s">
         <v>4564</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1270" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="G1270" s="3" t="s">
+        <v>3409</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1271" s="3" t="s">
+        <v>3409</v>
+      </c>
+      <c r="G1271" s="3" t="s">
+        <v>4583</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>4570</v>
+      </c>
+      <c r="I1271" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1272" s="3" t="s">
+        <v>4583</v>
+      </c>
+      <c r="G1272" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>4572</v>
+      </c>
+      <c r="I1272" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1273" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1273" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1273" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G1273" s="3" t="s">
+        <v>4585</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>4573</v>
+      </c>
+      <c r="I1273" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1274" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1274" s="3" t="s">
+        <v>4585</v>
+      </c>
+      <c r="G1274" s="3" t="s">
+        <v>4586</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>4574</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1275" s="3" t="s">
+        <v>4586</v>
+      </c>
+      <c r="G1275" s="3" t="s">
+        <v>4587</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>4575</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1276" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1276" s="3" t="s">
+        <v>4587</v>
+      </c>
+      <c r="G1276" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>4576</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1277" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G1277" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>4577</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1278" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G1278" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>4578</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1279" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G1279" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>4579</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1280" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G1280" s="3" t="s">
+        <v>4588</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>4580</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1281" s="3" t="s">
+        <v>4588</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>3390</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>4581</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trail Mapping Info.xlsx
+++ b/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13744" uniqueCount="4675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13959" uniqueCount="4718">
   <si>
     <t>trackID</t>
   </si>
@@ -13601,9 +13601,6 @@
     <t>Unnamed trail off Wills Rd</t>
   </si>
   <si>
-    <t>Lindren Rd</t>
-  </si>
-  <si>
     <t>Wills Rd [West]</t>
   </si>
   <si>
@@ -14046,6 +14043,138 @@
   </si>
   <si>
     <t>Unnamed trail off Hughes Town Line Rd</t>
+  </si>
+  <si>
+    <t>HFWY01</t>
+  </si>
+  <si>
+    <t>Halfway Rd</t>
+  </si>
+  <si>
+    <t>HFWY02</t>
+  </si>
+  <si>
+    <t>HFWY03</t>
+  </si>
+  <si>
+    <t>HFWY04</t>
+  </si>
+  <si>
+    <t>HFWY05</t>
+  </si>
+  <si>
+    <t>HFWY06</t>
+  </si>
+  <si>
+    <t>HFWY07</t>
+  </si>
+  <si>
+    <t>HFWY08</t>
+  </si>
+  <si>
+    <t>HFWY09</t>
+  </si>
+  <si>
+    <t>HFWY10</t>
+  </si>
+  <si>
+    <t>Moore Rd</t>
+  </si>
+  <si>
+    <t>Unnamed trail off Halfway Rd</t>
+  </si>
+  <si>
+    <t>WLLS11</t>
+  </si>
+  <si>
+    <t>WLLS12</t>
+  </si>
+  <si>
+    <t>WLLS13</t>
+  </si>
+  <si>
+    <t>WLLS14</t>
+  </si>
+  <si>
+    <t>WLLS15</t>
+  </si>
+  <si>
+    <t>WLLS16</t>
+  </si>
+  <si>
+    <t>WLLS17</t>
+  </si>
+  <si>
+    <t>WLLS18</t>
+  </si>
+  <si>
+    <t>WLLS19</t>
+  </si>
+  <si>
+    <t>WLLS20</t>
+  </si>
+  <si>
+    <t>WLLS21</t>
+  </si>
+  <si>
+    <t>TRYP01</t>
+  </si>
+  <si>
+    <t>TRYP02</t>
+  </si>
+  <si>
+    <t>Troy Pit Rd</t>
+  </si>
+  <si>
+    <t>Dead End Rd</t>
+  </si>
+  <si>
+    <t>BBLT01</t>
+  </si>
+  <si>
+    <t>Huggard Rd</t>
+  </si>
+  <si>
+    <t>BBLT02</t>
+  </si>
+  <si>
+    <t>WILLS15, WLLS16</t>
+  </si>
+  <si>
+    <t>Unnamed trail of Troy it Rd</t>
+  </si>
+  <si>
+    <t>TRYP11</t>
+  </si>
+  <si>
+    <t>TRYP12</t>
+  </si>
+  <si>
+    <t>LGRN01, LGRN02</t>
+  </si>
+  <si>
+    <t>WLLS16, TRYP11</t>
+  </si>
+  <si>
+    <t>WLLS15, TRYP11</t>
+  </si>
+  <si>
+    <t>WLLS17, NCTBF02, NCTBF03</t>
+  </si>
+  <si>
+    <t>WLLS16, NCTBF02, NCTBF03</t>
+  </si>
+  <si>
+    <t>LGRN02, WLLS11</t>
+  </si>
+  <si>
+    <t>LGRN01, WLLS11</t>
+  </si>
+  <si>
+    <t>NCTBF03, WLLS16, WLLS17</t>
+  </si>
+  <si>
+    <t>NCTBF02, WLLS16, WLLS17</t>
   </si>
 </sst>
 </file>
@@ -14394,13 +14523,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1329"/>
+  <dimension ref="A1:X1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1301" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="I705" sqref="I705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18227,7 +18356,7 @@
         <v>3474</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>3824</v>
@@ -18253,10 +18382,10 @@
         <v>10</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>3816</v>
@@ -18282,10 +18411,10 @@
         <v>10</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>3817</v>
@@ -18299,7 +18428,7 @@
         <v>3483</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>3818</v>
@@ -18311,16 +18440,16 @@
         <v>10</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>3475</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18328,7 +18457,7 @@
         <v>3483</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>3818</v>
@@ -18343,13 +18472,13 @@
         <v>3475</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18357,7 +18486,7 @@
         <v>3483</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>3818</v>
@@ -18369,16 +18498,16 @@
         <v>10</v>
       </c>
       <c r="F144" s="3" t="s">
+        <v>4623</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>4624</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>4625</v>
-      </c>
       <c r="H144" s="3" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18386,7 +18515,7 @@
         <v>3483</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>3818</v>
@@ -18398,16 +18527,16 @@
         <v>10</v>
       </c>
       <c r="F145" s="3" t="s">
+        <v>4624</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>4625</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>4626</v>
-      </c>
       <c r="H145" s="3" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18415,7 +18544,7 @@
         <v>3483</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>3818</v>
@@ -18427,16 +18556,16 @@
         <v>10</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18444,7 +18573,7 @@
         <v>3483</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>3818</v>
@@ -18456,16 +18585,16 @@
         <v>10</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18473,7 +18602,7 @@
         <v>3483</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>3818</v>
@@ -18485,16 +18614,16 @@
         <v>10</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18502,7 +18631,7 @@
         <v>3483</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>3818</v>
@@ -18514,16 +18643,16 @@
         <v>10</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18531,7 +18660,7 @@
         <v>3483</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>3818</v>
@@ -18543,16 +18672,16 @@
         <v>10</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18560,7 +18689,7 @@
         <v>3483</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>3818</v>
@@ -18572,16 +18701,16 @@
         <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18589,7 +18718,7 @@
         <v>3483</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>3818</v>
@@ -18601,16 +18730,16 @@
         <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -18618,7 +18747,7 @@
         <v>3483</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>3818</v>
@@ -18630,16 +18759,16 @@
         <v>10</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20024,7 +20153,7 @@
         <v>1451</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -20050,7 +20179,7 @@
         <v>1458</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>1454</v>
@@ -20090,7 +20219,7 @@
         <v>734</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>33</v>
@@ -20117,7 +20246,7 @@
         <v>735</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>33</v>
@@ -21544,7 +21673,7 @@
         <v>3932</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -25812,7 +25941,7 @@
         <v>3961</v>
       </c>
       <c r="I428" s="16" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -25838,7 +25967,7 @@
         <v>3970</v>
       </c>
       <c r="H429" s="16" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="I429" s="16" t="s">
         <v>3964</v>
@@ -33432,7 +33561,7 @@
         <v>1952</v>
       </c>
       <c r="I702" s="3" t="s">
-        <v>1955</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="703" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33456,7 +33585,7 @@
       </c>
       <c r="G703" s="3"/>
       <c r="H703" s="3" t="s">
-        <v>1953</v>
+        <v>4717</v>
       </c>
       <c r="I703" s="3" t="s">
         <v>1956</v>
@@ -35826,7 +35955,7 @@
         <v>3929</v>
       </c>
       <c r="I786" s="3" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="787" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40992,7 +41121,7 @@
         <v>1981</v>
       </c>
       <c r="I980" s="16" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="981" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48590,7 +48719,7 @@
         <v>4525</v>
       </c>
       <c r="G1259" s="3" t="s">
-        <v>4526</v>
+        <v>4516</v>
       </c>
       <c r="H1259" t="s">
         <v>4513</v>
@@ -48604,28 +48733,28 @@
         <v>3483</v>
       </c>
       <c r="B1260" t="s">
-        <v>4515</v>
+        <v>4687</v>
       </c>
       <c r="C1260" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1260" s="3" t="s">
         <v>4516</v>
       </c>
-      <c r="D1260" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1260" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1260" s="3" t="s">
-        <v>4527</v>
-      </c>
       <c r="G1260" s="3" t="s">
-        <v>4528</v>
-      </c>
-      <c r="H1260" t="s">
-        <v>4514</v>
+        <v>4525</v>
+      </c>
+      <c r="H1260" s="3" t="s">
+        <v>4709</v>
       </c>
       <c r="I1260" t="s">
-        <v>4517</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48633,28 +48762,28 @@
         <v>3483</v>
       </c>
       <c r="B1261" t="s">
-        <v>4517</v>
+        <v>4688</v>
       </c>
       <c r="C1261" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1261" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1261" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1261" s="3" t="s">
-        <v>4528</v>
+        <v>4525</v>
       </c>
       <c r="G1261" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="H1261" t="s">
-        <v>4515</v>
+        <v>4687</v>
       </c>
       <c r="I1261" t="s">
-        <v>4518</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48662,28 +48791,28 @@
         <v>3483</v>
       </c>
       <c r="B1262" t="s">
-        <v>4518</v>
+        <v>4689</v>
       </c>
       <c r="C1262" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1262" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1262" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1262" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="G1262" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="H1262" t="s">
-        <v>4517</v>
+        <v>4688</v>
       </c>
       <c r="I1262" t="s">
-        <v>4519</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48691,28 +48820,28 @@
         <v>3483</v>
       </c>
       <c r="B1263" t="s">
-        <v>4519</v>
+        <v>4690</v>
       </c>
       <c r="C1263" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1263" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1263" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1263" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="G1263" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="H1263" t="s">
-        <v>4518</v>
+        <v>4689</v>
       </c>
       <c r="I1263" t="s">
-        <v>4520</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48720,155 +48849,155 @@
         <v>3483</v>
       </c>
       <c r="B1264" t="s">
-        <v>4520</v>
+        <v>4691</v>
       </c>
       <c r="C1264" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1264" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1264" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1264" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="G1264" s="3" t="s">
-        <v>4529</v>
+        <v>4700</v>
       </c>
       <c r="H1264" t="s">
-        <v>4519</v>
+        <v>4690</v>
       </c>
       <c r="I1264" t="s">
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1265" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1265" t="s">
-        <v>4521</v>
+        <v>4692</v>
       </c>
       <c r="C1265" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1265" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1265" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1265" s="3" t="s">
-        <v>4529</v>
+        <v>4700</v>
       </c>
       <c r="G1265" s="3" t="s">
-        <v>4529</v>
+        <v>45</v>
       </c>
       <c r="H1265" t="s">
-        <v>4520</v>
+        <v>4711</v>
       </c>
       <c r="I1265" t="s">
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1266" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1266" t="s">
-        <v>4522</v>
+        <v>4693</v>
       </c>
       <c r="C1266" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1266" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1266" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1266" s="3" t="s">
-        <v>4529</v>
+        <v>45</v>
       </c>
       <c r="G1266" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="H1266" t="s">
-        <v>4521</v>
+        <v>4713</v>
       </c>
       <c r="I1266" t="s">
-        <v>4523</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1267" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1267" t="s">
-        <v>4523</v>
+        <v>4694</v>
       </c>
       <c r="C1267" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1267" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1267" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1267" s="3" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="G1267" s="3" t="s">
-        <v>4529</v>
+        <v>4701</v>
       </c>
       <c r="H1267" t="s">
-        <v>4522</v>
+        <v>4693</v>
       </c>
       <c r="I1267" t="s">
-        <v>4524</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1268" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1268" t="s">
-        <v>4524</v>
+        <v>4695</v>
       </c>
       <c r="C1268" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="D1268" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E1268" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1268" s="3" t="s">
-        <v>4529</v>
+        <v>4701</v>
       </c>
       <c r="G1268" s="3" t="s">
-        <v>4530</v>
+        <v>4525</v>
       </c>
       <c r="H1268" t="s">
-        <v>4523</v>
-      </c>
-      <c r="I1268" s="3" t="s">
-        <v>4531</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4694</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1269" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1269" t="s">
-        <v>4534</v>
+        <v>4696</v>
       </c>
       <c r="C1269" t="s">
-        <v>4537</v>
+        <v>4510</v>
       </c>
       <c r="D1269" t="s">
         <v>9</v>
@@ -48877,27 +49006,27 @@
         <v>10</v>
       </c>
       <c r="F1269" s="3" t="s">
-        <v>4539</v>
+        <v>4525</v>
       </c>
       <c r="G1269" s="3" t="s">
-        <v>4540</v>
-      </c>
-      <c r="H1269" s="3" t="s">
-        <v>4541</v>
-      </c>
-      <c r="I1269" s="3" t="s">
-        <v>4535</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4525</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>4695</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1270" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1270" t="s">
-        <v>4535</v>
+        <v>4697</v>
       </c>
       <c r="C1270" t="s">
-        <v>4537</v>
+        <v>4510</v>
       </c>
       <c r="D1270" t="s">
         <v>9</v>
@@ -48906,27 +49035,27 @@
         <v>10</v>
       </c>
       <c r="F1270" s="3" t="s">
-        <v>4540</v>
+        <v>4525</v>
       </c>
       <c r="G1270" s="3" t="s">
-        <v>4538</v>
-      </c>
-      <c r="H1270" s="3" t="s">
-        <v>4534</v>
+        <v>1806</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>4696</v>
       </c>
       <c r="I1270" s="3" t="s">
-        <v>4542</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1271" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1271" t="s">
-        <v>4544</v>
+        <v>4707</v>
       </c>
       <c r="C1271" t="s">
-        <v>4537</v>
+        <v>4510</v>
       </c>
       <c r="D1271" t="s">
         <v>9</v>
@@ -48934,28 +49063,28 @@
       <c r="E1271" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1271" s="3" t="s">
-        <v>4538</v>
+      <c r="F1271" t="s">
+        <v>4510</v>
       </c>
       <c r="G1271" s="3" t="s">
-        <v>4540</v>
+        <v>4706</v>
       </c>
       <c r="H1271" s="3" t="s">
-        <v>4551</v>
+        <v>4705</v>
       </c>
       <c r="I1271" s="3" t="s">
-        <v>4545</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1272" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1272" t="s">
-        <v>4545</v>
+        <v>4708</v>
       </c>
       <c r="C1272" t="s">
-        <v>4537</v>
+        <v>4510</v>
       </c>
       <c r="D1272" t="s">
         <v>9</v>
@@ -48964,27 +49093,27 @@
         <v>10</v>
       </c>
       <c r="F1272" s="3" t="s">
-        <v>4540</v>
+        <v>4706</v>
       </c>
       <c r="G1272" s="3" t="s">
-        <v>4548</v>
+        <v>4706</v>
       </c>
       <c r="H1272" s="3" t="s">
-        <v>4544</v>
-      </c>
-      <c r="I1272" s="3" t="s">
-        <v>4546</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4698</v>
+      </c>
+      <c r="J1272" s="3" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1273" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1273" t="s">
-        <v>4546</v>
+        <v>4702</v>
       </c>
       <c r="C1273" t="s">
-        <v>4537</v>
+        <v>1806</v>
       </c>
       <c r="D1273" t="s">
         <v>9</v>
@@ -48993,277 +49122,291 @@
         <v>10</v>
       </c>
       <c r="F1273" s="3" t="s">
-        <v>4548</v>
+        <v>4510</v>
       </c>
       <c r="G1273" s="3" t="s">
-        <v>4549</v>
+        <v>4703</v>
       </c>
       <c r="H1273" s="3" t="s">
-        <v>4545</v>
+        <v>4697</v>
       </c>
       <c r="I1273" s="3" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4704</v>
+      </c>
+      <c r="J1273" s="3" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1274" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1274" t="s">
-        <v>4547</v>
+        <v>4515</v>
       </c>
       <c r="C1274" t="s">
-        <v>4537</v>
+        <v>4516</v>
       </c>
       <c r="D1274" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E1274" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1274" s="3" t="s">
-        <v>4549</v>
+        <v>4526</v>
       </c>
       <c r="G1274" s="3" t="s">
-        <v>4550</v>
-      </c>
-      <c r="H1274" s="3" t="s">
-        <v>4546</v>
-      </c>
-      <c r="I1274" s="3"/>
-    </row>
-    <row r="1275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4527</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>4514</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1275" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1275" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1275" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="G1275" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>4715</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1276" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1276" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1276" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>4517</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1277" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1277" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>4518</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1278" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1278" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>4519</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1279" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1279" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>4520</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1280" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1280" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>4521</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1281" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1281" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>4522</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1282" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1282" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1282" s="3" t="s">
+        <v>4529</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>4523</v>
+      </c>
+      <c r="I1282" s="3" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1283" t="s">
         <v>4536</v>
-      </c>
-      <c r="C1275" t="s">
-        <v>4538</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1275" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1275" s="3" t="s">
-        <v>4537</v>
-      </c>
-      <c r="G1275" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="H1275" s="3" t="s">
-        <v>4543</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1276" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1276" t="s">
-        <v>4552</v>
-      </c>
-      <c r="C1276" t="s">
-        <v>4558</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1276" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1276" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1276" s="3" t="s">
-        <v>2553</v>
-      </c>
-      <c r="H1276" s="3" t="s">
-        <v>2551</v>
-      </c>
-      <c r="I1276" s="3" t="s">
-        <v>4553</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1277" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1277" t="s">
-        <v>4553</v>
-      </c>
-      <c r="C1277" t="s">
-        <v>4558</v>
-      </c>
-      <c r="D1277" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1277" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1277" s="3" t="s">
-        <v>2553</v>
-      </c>
-      <c r="G1277" s="3" t="s">
-        <v>4559</v>
-      </c>
-      <c r="H1277" s="3" t="s">
-        <v>4552</v>
-      </c>
-      <c r="I1277" s="3" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1278" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1278" t="s">
-        <v>4554</v>
-      </c>
-      <c r="C1278" t="s">
-        <v>4558</v>
-      </c>
-      <c r="D1278" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1278" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1278" s="3" t="s">
-        <v>4559</v>
-      </c>
-      <c r="G1278" s="3" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H1278" s="3" t="s">
-        <v>4564</v>
-      </c>
-      <c r="I1278" s="3" t="s">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1279" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1279" t="s">
-        <v>4555</v>
-      </c>
-      <c r="C1279" t="s">
-        <v>4558</v>
-      </c>
-      <c r="D1279" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1279" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1279" s="3" t="s">
-        <v>1806</v>
-      </c>
-      <c r="G1279" s="3" t="s">
-        <v>1808</v>
-      </c>
-      <c r="H1279" s="3" t="s">
-        <v>4554</v>
-      </c>
-      <c r="I1279" s="3" t="s">
-        <v>4565</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1280" t="s">
-        <v>4556</v>
-      </c>
-      <c r="C1280" t="s">
-        <v>4558</v>
-      </c>
-      <c r="D1280" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1280" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1280" s="3" t="s">
-        <v>1808</v>
-      </c>
-      <c r="G1280" s="3" t="s">
-        <v>4561</v>
-      </c>
-      <c r="H1280" s="3" t="s">
-        <v>4566</v>
-      </c>
-      <c r="I1280" s="3" t="s">
-        <v>4567</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1281" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>4557</v>
-      </c>
-      <c r="C1281" t="s">
-        <v>4559</v>
-      </c>
-      <c r="D1281" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1281" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1281" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1281" s="3" t="s">
-        <v>4558</v>
-      </c>
-      <c r="I1281" s="3" t="s">
-        <v>4562</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1282" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1282" t="s">
-        <v>4568</v>
-      </c>
-      <c r="C1282" t="s">
-        <v>4569</v>
-      </c>
-      <c r="D1282" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1282" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1282" s="3" t="s">
-        <v>3407</v>
-      </c>
-      <c r="G1282" s="3" t="s">
-        <v>3408</v>
-      </c>
-      <c r="I1282" t="s">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1283" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B1283" t="s">
-        <v>4570</v>
-      </c>
-      <c r="C1283" t="s">
-        <v>4569</v>
       </c>
       <c r="D1283" t="s">
         <v>9</v>
@@ -49272,27 +49415,27 @@
         <v>10</v>
       </c>
       <c r="F1283" s="3" t="s">
-        <v>3408</v>
+        <v>4538</v>
       </c>
       <c r="G1283" s="3" t="s">
-        <v>4581</v>
-      </c>
-      <c r="H1283" t="s">
-        <v>4568</v>
-      </c>
-      <c r="I1283" t="s">
-        <v>4571</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4539</v>
+      </c>
+      <c r="H1283" s="3" t="s">
+        <v>4540</v>
+      </c>
+      <c r="I1283" s="3" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1284" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1284" t="s">
-        <v>4571</v>
+        <v>4534</v>
       </c>
       <c r="C1284" t="s">
-        <v>4569</v>
+        <v>4536</v>
       </c>
       <c r="D1284" t="s">
         <v>9</v>
@@ -49301,27 +49444,27 @@
         <v>10</v>
       </c>
       <c r="F1284" s="3" t="s">
-        <v>4581</v>
+        <v>4539</v>
       </c>
       <c r="G1284" s="3" t="s">
-        <v>4582</v>
-      </c>
-      <c r="H1284" t="s">
-        <v>4570</v>
-      </c>
-      <c r="I1284" t="s">
-        <v>4572</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4537</v>
+      </c>
+      <c r="H1284" s="3" t="s">
+        <v>4533</v>
+      </c>
+      <c r="I1284" s="3" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1285" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1285" t="s">
-        <v>4572</v>
+        <v>4543</v>
       </c>
       <c r="C1285" t="s">
-        <v>4569</v>
+        <v>4536</v>
       </c>
       <c r="D1285" t="s">
         <v>9</v>
@@ -49330,27 +49473,27 @@
         <v>10</v>
       </c>
       <c r="F1285" s="3" t="s">
-        <v>4582</v>
+        <v>4537</v>
       </c>
       <c r="G1285" s="3" t="s">
-        <v>4583</v>
-      </c>
-      <c r="H1285" t="s">
-        <v>4571</v>
-      </c>
-      <c r="I1285" t="s">
-        <v>4573</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4539</v>
+      </c>
+      <c r="H1285" s="3" t="s">
+        <v>4550</v>
+      </c>
+      <c r="I1285" s="3" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1286" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1286" t="s">
-        <v>4573</v>
+        <v>4544</v>
       </c>
       <c r="C1286" t="s">
-        <v>4569</v>
+        <v>4536</v>
       </c>
       <c r="D1286" t="s">
         <v>9</v>
@@ -49359,27 +49502,27 @@
         <v>10</v>
       </c>
       <c r="F1286" s="3" t="s">
-        <v>4583</v>
+        <v>4539</v>
       </c>
       <c r="G1286" s="3" t="s">
-        <v>4584</v>
-      </c>
-      <c r="H1286" t="s">
-        <v>4572</v>
-      </c>
-      <c r="I1286" t="s">
-        <v>4574</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4547</v>
+      </c>
+      <c r="H1286" s="3" t="s">
+        <v>4543</v>
+      </c>
+      <c r="I1286" s="3" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1287" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1287" t="s">
-        <v>4574</v>
+        <v>4545</v>
       </c>
       <c r="C1287" t="s">
-        <v>4569</v>
+        <v>4536</v>
       </c>
       <c r="D1287" t="s">
         <v>9</v>
@@ -49388,27 +49531,27 @@
         <v>10</v>
       </c>
       <c r="F1287" s="3" t="s">
-        <v>4584</v>
+        <v>4547</v>
       </c>
       <c r="G1287" s="3" t="s">
-        <v>4585</v>
-      </c>
-      <c r="H1287" t="s">
-        <v>4573</v>
-      </c>
-      <c r="I1287" t="s">
-        <v>4575</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4548</v>
+      </c>
+      <c r="H1287" s="3" t="s">
+        <v>4544</v>
+      </c>
+      <c r="I1287" s="3" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1288" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1288" t="s">
-        <v>4575</v>
+        <v>4546</v>
       </c>
       <c r="C1288" t="s">
-        <v>4569</v>
+        <v>4536</v>
       </c>
       <c r="D1288" t="s">
         <v>9</v>
@@ -49417,27 +49560,25 @@
         <v>10</v>
       </c>
       <c r="F1288" s="3" t="s">
-        <v>4585</v>
+        <v>4548</v>
       </c>
       <c r="G1288" s="3" t="s">
-        <v>4596</v>
-      </c>
-      <c r="H1288" t="s">
-        <v>4574</v>
-      </c>
-      <c r="I1288" t="s">
-        <v>4576</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4549</v>
+      </c>
+      <c r="H1288" s="3" t="s">
+        <v>4545</v>
+      </c>
+      <c r="I1288" s="3"/>
+    </row>
+    <row r="1289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1289" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1289" t="s">
-        <v>4576</v>
+        <v>4535</v>
       </c>
       <c r="C1289" t="s">
-        <v>4569</v>
+        <v>4537</v>
       </c>
       <c r="D1289" t="s">
         <v>9</v>
@@ -49446,27 +49587,24 @@
         <v>10</v>
       </c>
       <c r="F1289" s="3" t="s">
-        <v>4596</v>
+        <v>4536</v>
       </c>
       <c r="G1289" s="3" t="s">
-        <v>4596</v>
-      </c>
-      <c r="H1289" t="s">
-        <v>4575</v>
-      </c>
-      <c r="I1289" t="s">
-        <v>4577</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="H1289" s="3" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1290" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1290" t="s">
-        <v>4577</v>
+        <v>4551</v>
       </c>
       <c r="C1290" t="s">
-        <v>4569</v>
+        <v>4557</v>
       </c>
       <c r="D1290" t="s">
         <v>9</v>
@@ -49475,27 +49613,27 @@
         <v>10</v>
       </c>
       <c r="F1290" s="3" t="s">
-        <v>4596</v>
+        <v>167</v>
       </c>
       <c r="G1290" s="3" t="s">
-        <v>4596</v>
-      </c>
-      <c r="H1290" t="s">
-        <v>4576</v>
-      </c>
-      <c r="I1290" t="s">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2553</v>
+      </c>
+      <c r="H1290" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="I1290" s="3" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1291" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1291" t="s">
-        <v>4578</v>
+        <v>4552</v>
       </c>
       <c r="C1291" t="s">
-        <v>4569</v>
+        <v>4557</v>
       </c>
       <c r="D1291" t="s">
         <v>9</v>
@@ -49504,27 +49642,27 @@
         <v>10</v>
       </c>
       <c r="F1291" s="3" t="s">
-        <v>4596</v>
+        <v>2553</v>
       </c>
       <c r="G1291" s="3" t="s">
-        <v>4596</v>
-      </c>
-      <c r="H1291" t="s">
-        <v>4577</v>
-      </c>
-      <c r="I1291" t="s">
-        <v>4579</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4558</v>
+      </c>
+      <c r="H1291" s="3" t="s">
+        <v>4551</v>
+      </c>
+      <c r="I1291" s="3" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1292" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1292" t="s">
-        <v>4579</v>
+        <v>4553</v>
       </c>
       <c r="C1292" t="s">
-        <v>4569</v>
+        <v>4557</v>
       </c>
       <c r="D1292" t="s">
         <v>9</v>
@@ -49533,27 +49671,27 @@
         <v>10</v>
       </c>
       <c r="F1292" s="3" t="s">
-        <v>4596</v>
+        <v>4558</v>
       </c>
       <c r="G1292" s="3" t="s">
-        <v>4586</v>
-      </c>
-      <c r="H1292" t="s">
-        <v>4578</v>
-      </c>
-      <c r="I1292" t="s">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+      <c r="H1292" s="3" t="s">
+        <v>4563</v>
+      </c>
+      <c r="I1292" s="3" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1293" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1293" t="s">
-        <v>4580</v>
+        <v>4554</v>
       </c>
       <c r="C1293" t="s">
-        <v>4569</v>
+        <v>4557</v>
       </c>
       <c r="D1293" t="s">
         <v>9</v>
@@ -49562,27 +49700,27 @@
         <v>10</v>
       </c>
       <c r="F1293" s="3" t="s">
-        <v>4586</v>
-      </c>
-      <c r="G1293" t="s">
-        <v>3389</v>
-      </c>
-      <c r="H1293" t="s">
-        <v>4579</v>
-      </c>
-      <c r="I1293" t="s">
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+      <c r="G1293" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H1293" s="3" t="s">
+        <v>4553</v>
+      </c>
+      <c r="I1293" s="3" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1294" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1294" t="s">
-        <v>4587</v>
+        <v>4555</v>
       </c>
       <c r="C1294" t="s">
-        <v>4569</v>
+        <v>4557</v>
       </c>
       <c r="D1294" t="s">
         <v>9</v>
@@ -49590,28 +49728,28 @@
       <c r="E1294" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1294" t="s">
-        <v>3389</v>
+      <c r="F1294" s="3" t="s">
+        <v>1808</v>
       </c>
       <c r="G1294" s="3" t="s">
-        <v>3926</v>
-      </c>
-      <c r="H1294" t="s">
-        <v>4591</v>
-      </c>
-      <c r="I1294" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4560</v>
+      </c>
+      <c r="H1294" s="3" t="s">
+        <v>4565</v>
+      </c>
+      <c r="I1294" s="3" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1295" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1295" t="s">
-        <v>4588</v>
+        <v>4556</v>
       </c>
       <c r="C1295" t="s">
-        <v>4569</v>
+        <v>4558</v>
       </c>
       <c r="D1295" t="s">
         <v>9</v>
@@ -49620,30 +49758,24 @@
         <v>10</v>
       </c>
       <c r="F1295" s="3" t="s">
-        <v>3926</v>
+        <v>167</v>
       </c>
       <c r="G1295" s="3" t="s">
-        <v>4589</v>
-      </c>
-      <c r="H1295" t="s">
-        <v>4587</v>
-      </c>
-      <c r="I1295" t="s">
-        <v>4600</v>
-      </c>
-      <c r="J1295" s="3" t="s">
-        <v>4599</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4557</v>
+      </c>
+      <c r="I1295" s="3" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1296" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1296" t="s">
-        <v>4592</v>
+        <v>4567</v>
       </c>
       <c r="C1296" t="s">
-        <v>3389</v>
+        <v>4568</v>
       </c>
       <c r="D1296" t="s">
         <v>9</v>
@@ -49652,16 +49784,13 @@
         <v>10</v>
       </c>
       <c r="F1296" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G1296" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I1296" t="s">
         <v>4569</v>
-      </c>
-      <c r="G1296" s="3" t="s">
-        <v>3926</v>
-      </c>
-      <c r="H1296" s="3" t="s">
-        <v>4598</v>
-      </c>
-      <c r="I1296" s="3" t="s">
-        <v>4593</v>
       </c>
     </row>
     <row r="1297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49669,10 +49798,10 @@
         <v>3483</v>
       </c>
       <c r="B1297" t="s">
-        <v>4593</v>
+        <v>4569</v>
       </c>
       <c r="C1297" t="s">
-        <v>3389</v>
+        <v>4568</v>
       </c>
       <c r="D1297" t="s">
         <v>9</v>
@@ -49681,16 +49810,16 @@
         <v>10</v>
       </c>
       <c r="F1297" s="3" t="s">
-        <v>3926</v>
+        <v>3408</v>
       </c>
       <c r="G1297" s="3" t="s">
-        <v>4597</v>
-      </c>
-      <c r="H1297" s="3" t="s">
-        <v>4592</v>
-      </c>
-      <c r="I1297" s="3" t="s">
-        <v>4594</v>
+        <v>4580</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>4567</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>4570</v>
       </c>
     </row>
     <row r="1298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49698,10 +49827,10 @@
         <v>3483</v>
       </c>
       <c r="B1298" t="s">
-        <v>4594</v>
+        <v>4570</v>
       </c>
       <c r="C1298" t="s">
-        <v>3389</v>
+        <v>4568</v>
       </c>
       <c r="D1298" t="s">
         <v>9</v>
@@ -49710,16 +49839,16 @@
         <v>10</v>
       </c>
       <c r="F1298" s="3" t="s">
-        <v>4597</v>
+        <v>4580</v>
       </c>
       <c r="G1298" s="3" t="s">
-        <v>3417</v>
-      </c>
-      <c r="H1298" s="3" t="s">
-        <v>4593</v>
-      </c>
-      <c r="I1298" s="3" t="s">
-        <v>4595</v>
+        <v>4581</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>4569</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>4571</v>
       </c>
     </row>
     <row r="1299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49727,10 +49856,10 @@
         <v>3483</v>
       </c>
       <c r="B1299" t="s">
-        <v>4595</v>
+        <v>4571</v>
       </c>
       <c r="C1299" t="s">
-        <v>3389</v>
+        <v>4568</v>
       </c>
       <c r="D1299" t="s">
         <v>9</v>
@@ -49739,19 +49868,16 @@
         <v>10</v>
       </c>
       <c r="F1299" s="3" t="s">
-        <v>3417</v>
+        <v>4581</v>
       </c>
       <c r="G1299" s="3" t="s">
-        <v>3417</v>
-      </c>
-      <c r="H1299" s="3" t="s">
-        <v>4594</v>
-      </c>
-      <c r="I1299" s="3" t="s">
-        <v>4601</v>
-      </c>
-      <c r="J1299" s="3" t="s">
-        <v>4599</v>
+        <v>4582</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>4570</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>4572</v>
       </c>
     </row>
     <row r="1300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49759,10 +49885,10 @@
         <v>3483</v>
       </c>
       <c r="B1300" t="s">
-        <v>4603</v>
+        <v>4572</v>
       </c>
       <c r="C1300" t="s">
-        <v>1457</v>
+        <v>4568</v>
       </c>
       <c r="D1300" t="s">
         <v>9</v>
@@ -49771,13 +49897,16 @@
         <v>10</v>
       </c>
       <c r="F1300" s="3" t="s">
-        <v>1455</v>
+        <v>4582</v>
       </c>
       <c r="G1300" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="H1300" s="3" t="s">
-        <v>4605</v>
+        <v>4583</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>4571</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>4573</v>
       </c>
     </row>
     <row r="1301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49785,10 +49914,10 @@
         <v>3483</v>
       </c>
       <c r="B1301" t="s">
-        <v>4604</v>
+        <v>4573</v>
       </c>
       <c r="C1301" t="s">
-        <v>3969</v>
+        <v>4568</v>
       </c>
       <c r="D1301" t="s">
         <v>9</v>
@@ -49797,13 +49926,16 @@
         <v>10</v>
       </c>
       <c r="F1301" s="3" t="s">
-        <v>3957</v>
+        <v>4583</v>
       </c>
       <c r="G1301" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="H1301" s="3" t="s">
-        <v>4606</v>
+        <v>4584</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>4572</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>4574</v>
       </c>
     </row>
     <row r="1302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49811,10 +49943,10 @@
         <v>3483</v>
       </c>
       <c r="B1302" t="s">
-        <v>4634</v>
+        <v>4574</v>
       </c>
       <c r="C1302" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1302" t="s">
         <v>9</v>
@@ -49823,16 +49955,16 @@
         <v>10</v>
       </c>
       <c r="F1302" s="3" t="s">
-        <v>3835</v>
+        <v>4584</v>
       </c>
       <c r="G1302" s="3" t="s">
-        <v>4626</v>
-      </c>
-      <c r="H1302" s="3" t="s">
-        <v>4643</v>
-      </c>
-      <c r="I1302" s="3" t="s">
-        <v>4635</v>
+        <v>4595</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>4573</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>4575</v>
       </c>
     </row>
     <row r="1303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49840,10 +49972,10 @@
         <v>3483</v>
       </c>
       <c r="B1303" t="s">
-        <v>4635</v>
+        <v>4575</v>
       </c>
       <c r="C1303" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1303" t="s">
         <v>9</v>
@@ -49852,16 +49984,16 @@
         <v>10</v>
       </c>
       <c r="F1303" s="3" t="s">
-        <v>4626</v>
+        <v>4595</v>
       </c>
       <c r="G1303" s="3" t="s">
-        <v>4646</v>
+        <v>4595</v>
       </c>
       <c r="H1303" t="s">
-        <v>4634</v>
+        <v>4574</v>
       </c>
       <c r="I1303" t="s">
-        <v>4636</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49869,10 +50001,10 @@
         <v>3483</v>
       </c>
       <c r="B1304" t="s">
-        <v>4636</v>
+        <v>4576</v>
       </c>
       <c r="C1304" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1304" t="s">
         <v>9</v>
@@ -49881,16 +50013,16 @@
         <v>10</v>
       </c>
       <c r="F1304" s="3" t="s">
-        <v>4646</v>
+        <v>4595</v>
       </c>
       <c r="G1304" s="3" t="s">
-        <v>4647</v>
+        <v>4595</v>
       </c>
       <c r="H1304" t="s">
-        <v>4635</v>
+        <v>4575</v>
       </c>
       <c r="I1304" t="s">
-        <v>4637</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49898,10 +50030,10 @@
         <v>3483</v>
       </c>
       <c r="B1305" t="s">
-        <v>4637</v>
+        <v>4577</v>
       </c>
       <c r="C1305" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1305" t="s">
         <v>9</v>
@@ -49910,16 +50042,16 @@
         <v>10</v>
       </c>
       <c r="F1305" s="3" t="s">
-        <v>4647</v>
+        <v>4595</v>
       </c>
       <c r="G1305" s="3" t="s">
-        <v>4647</v>
+        <v>4595</v>
       </c>
       <c r="H1305" t="s">
-        <v>4636</v>
+        <v>4576</v>
       </c>
       <c r="I1305" t="s">
-        <v>4638</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49927,10 +50059,10 @@
         <v>3483</v>
       </c>
       <c r="B1306" t="s">
-        <v>4638</v>
+        <v>4578</v>
       </c>
       <c r="C1306" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1306" t="s">
         <v>9</v>
@@ -49939,16 +50071,16 @@
         <v>10</v>
       </c>
       <c r="F1306" s="3" t="s">
-        <v>4647</v>
+        <v>4595</v>
       </c>
       <c r="G1306" s="3" t="s">
-        <v>4647</v>
+        <v>4585</v>
       </c>
       <c r="H1306" t="s">
-        <v>4637</v>
+        <v>4577</v>
       </c>
       <c r="I1306" t="s">
-        <v>4639</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49956,10 +50088,10 @@
         <v>3483</v>
       </c>
       <c r="B1307" t="s">
-        <v>4639</v>
+        <v>4579</v>
       </c>
       <c r="C1307" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1307" t="s">
         <v>9</v>
@@ -49968,16 +50100,16 @@
         <v>10</v>
       </c>
       <c r="F1307" s="3" t="s">
-        <v>4647</v>
-      </c>
-      <c r="G1307" s="3" t="s">
-        <v>4648</v>
+        <v>4585</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>3389</v>
       </c>
       <c r="H1307" t="s">
-        <v>4638</v>
+        <v>4578</v>
       </c>
       <c r="I1307" t="s">
-        <v>4640</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49985,10 +50117,10 @@
         <v>3483</v>
       </c>
       <c r="B1308" t="s">
-        <v>4640</v>
+        <v>4586</v>
       </c>
       <c r="C1308" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1308" t="s">
         <v>9</v>
@@ -49996,17 +50128,17 @@
       <c r="E1308" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1308" s="3" t="s">
-        <v>4648</v>
+      <c r="F1308" t="s">
+        <v>3389</v>
       </c>
       <c r="G1308" s="3" t="s">
-        <v>4649</v>
+        <v>3926</v>
       </c>
       <c r="H1308" t="s">
-        <v>4639</v>
+        <v>4590</v>
       </c>
       <c r="I1308" t="s">
-        <v>4641</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50014,10 +50146,10 @@
         <v>3483</v>
       </c>
       <c r="B1309" t="s">
-        <v>4641</v>
+        <v>4587</v>
       </c>
       <c r="C1309" t="s">
-        <v>4625</v>
+        <v>4568</v>
       </c>
       <c r="D1309" t="s">
         <v>9</v>
@@ -50026,16 +50158,19 @@
         <v>10</v>
       </c>
       <c r="F1309" s="3" t="s">
-        <v>4649</v>
+        <v>3926</v>
       </c>
       <c r="G1309" s="3" t="s">
-        <v>4647</v>
+        <v>4588</v>
       </c>
       <c r="H1309" t="s">
-        <v>4640</v>
+        <v>4586</v>
       </c>
       <c r="I1309" t="s">
-        <v>4642</v>
+        <v>4599</v>
+      </c>
+      <c r="J1309" s="3" t="s">
+        <v>4598</v>
       </c>
     </row>
     <row r="1310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50043,10 +50178,10 @@
         <v>3483</v>
       </c>
       <c r="B1310" t="s">
-        <v>4642</v>
+        <v>4591</v>
       </c>
       <c r="C1310" t="s">
-        <v>4625</v>
+        <v>3389</v>
       </c>
       <c r="D1310" t="s">
         <v>9</v>
@@ -50055,16 +50190,16 @@
         <v>10</v>
       </c>
       <c r="F1310" s="3" t="s">
-        <v>4647</v>
-      </c>
-      <c r="G1310" t="s">
-        <v>4645</v>
-      </c>
-      <c r="H1310" t="s">
-        <v>4641</v>
-      </c>
-      <c r="I1310" t="s">
-        <v>4644</v>
+        <v>4568</v>
+      </c>
+      <c r="G1310" s="3" t="s">
+        <v>3926</v>
+      </c>
+      <c r="H1310" s="3" t="s">
+        <v>4597</v>
+      </c>
+      <c r="I1310" s="3" t="s">
+        <v>4592</v>
       </c>
     </row>
     <row r="1311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50072,10 +50207,10 @@
         <v>3483</v>
       </c>
       <c r="B1311" t="s">
-        <v>4644</v>
+        <v>4592</v>
       </c>
       <c r="C1311" t="s">
-        <v>4645</v>
+        <v>3389</v>
       </c>
       <c r="D1311" t="s">
         <v>9</v>
@@ -50084,16 +50219,16 @@
         <v>10</v>
       </c>
       <c r="F1311" s="3" t="s">
-        <v>4625</v>
+        <v>3926</v>
       </c>
       <c r="G1311" s="3" t="s">
-        <v>4653</v>
+        <v>4596</v>
       </c>
       <c r="H1311" s="3" t="s">
-        <v>4642</v>
-      </c>
-      <c r="I1311" t="s">
-        <v>4650</v>
+        <v>4591</v>
+      </c>
+      <c r="I1311" s="3" t="s">
+        <v>4593</v>
       </c>
     </row>
     <row r="1312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50101,10 +50236,10 @@
         <v>3483</v>
       </c>
       <c r="B1312" t="s">
-        <v>4650</v>
+        <v>4593</v>
       </c>
       <c r="C1312" t="s">
-        <v>4645</v>
+        <v>3389</v>
       </c>
       <c r="D1312" t="s">
         <v>9</v>
@@ -50113,27 +50248,27 @@
         <v>10</v>
       </c>
       <c r="F1312" s="3" t="s">
-        <v>4653</v>
+        <v>4596</v>
       </c>
       <c r="G1312" s="3" t="s">
-        <v>4647</v>
-      </c>
-      <c r="H1312" t="s">
-        <v>4644</v>
-      </c>
-      <c r="I1312" t="s">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3417</v>
+      </c>
+      <c r="H1312" s="3" t="s">
+        <v>4592</v>
+      </c>
+      <c r="I1312" s="3" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1313" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1313" t="s">
-        <v>4651</v>
+        <v>4594</v>
       </c>
       <c r="C1313" t="s">
-        <v>4645</v>
+        <v>3389</v>
       </c>
       <c r="D1313" t="s">
         <v>9</v>
@@ -50142,27 +50277,30 @@
         <v>10</v>
       </c>
       <c r="F1313" s="3" t="s">
-        <v>4647</v>
+        <v>3417</v>
       </c>
       <c r="G1313" s="3" t="s">
-        <v>4654</v>
-      </c>
-      <c r="H1313" t="s">
-        <v>4650</v>
-      </c>
-      <c r="I1313" t="s">
-        <v>4652</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3417</v>
+      </c>
+      <c r="H1313" s="3" t="s">
+        <v>4593</v>
+      </c>
+      <c r="I1313" s="3" t="s">
+        <v>4600</v>
+      </c>
+      <c r="J1313" s="3" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1314" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1314" t="s">
-        <v>4652</v>
+        <v>4602</v>
       </c>
       <c r="C1314" t="s">
-        <v>4645</v>
+        <v>1457</v>
       </c>
       <c r="D1314" t="s">
         <v>9</v>
@@ -50171,27 +50309,24 @@
         <v>10</v>
       </c>
       <c r="F1314" s="3" t="s">
-        <v>4654</v>
+        <v>1455</v>
       </c>
       <c r="G1314" s="3" t="s">
-        <v>4655</v>
-      </c>
-      <c r="H1314" t="s">
-        <v>4651</v>
-      </c>
-      <c r="I1314" t="s">
-        <v>4631</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="H1314" s="3" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1315" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="B1315" t="s">
-        <v>4631</v>
+        <v>4603</v>
       </c>
       <c r="C1315" t="s">
-        <v>4645</v>
+        <v>3969</v>
       </c>
       <c r="D1315" t="s">
         <v>9</v>
@@ -50200,24 +50335,24 @@
         <v>10</v>
       </c>
       <c r="F1315" s="3" t="s">
-        <v>4655</v>
+        <v>3957</v>
       </c>
       <c r="G1315" s="3" t="s">
-        <v>4656</v>
-      </c>
-      <c r="H1315" t="s">
-        <v>4652</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="H1315" s="3" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1316" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1316" s="3" t="s">
-        <v>4657</v>
-      </c>
-      <c r="C1316" s="3" t="s">
-        <v>4658</v>
+      <c r="B1316" t="s">
+        <v>4633</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>4624</v>
       </c>
       <c r="D1316" t="s">
         <v>9</v>
@@ -50226,24 +50361,27 @@
         <v>10</v>
       </c>
       <c r="F1316" s="3" t="s">
-        <v>167</v>
+        <v>3835</v>
       </c>
       <c r="G1316" s="3" t="s">
-        <v>4674</v>
+        <v>4625</v>
+      </c>
+      <c r="H1316" s="3" t="s">
+        <v>4642</v>
       </c>
       <c r="I1316" s="3" t="s">
-        <v>4659</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1317" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1317" s="3" t="s">
-        <v>4659</v>
-      </c>
-      <c r="C1317" s="3" t="s">
-        <v>4658</v>
+      <c r="B1317" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>4624</v>
       </c>
       <c r="D1317" t="s">
         <v>9</v>
@@ -50252,27 +50390,27 @@
         <v>10</v>
       </c>
       <c r="F1317" s="3" t="s">
-        <v>4674</v>
+        <v>4625</v>
       </c>
       <c r="G1317" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1317" s="3" t="s">
-        <v>4657</v>
-      </c>
-      <c r="I1317" s="3" t="s">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4645</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>4633</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1318" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1318" s="3" t="s">
-        <v>4660</v>
-      </c>
-      <c r="C1318" s="3" t="s">
-        <v>4658</v>
+      <c r="B1318" t="s">
+        <v>4635</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>4624</v>
       </c>
       <c r="D1318" t="s">
         <v>9</v>
@@ -50281,27 +50419,27 @@
         <v>10</v>
       </c>
       <c r="F1318" s="3" t="s">
-        <v>4674</v>
+        <v>4645</v>
       </c>
       <c r="G1318" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1318" s="3" t="s">
-        <v>4659</v>
-      </c>
-      <c r="I1318" s="3" t="s">
-        <v>4661</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4646</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>4634</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1319" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1319" s="3" t="s">
-        <v>4661</v>
-      </c>
-      <c r="C1319" s="3" t="s">
-        <v>4658</v>
+      <c r="B1319" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>4624</v>
       </c>
       <c r="D1319" t="s">
         <v>9</v>
@@ -50310,27 +50448,27 @@
         <v>10</v>
       </c>
       <c r="F1319" s="3" t="s">
-        <v>4674</v>
+        <v>4646</v>
       </c>
       <c r="G1319" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1319" s="3" t="s">
-        <v>4660</v>
-      </c>
-      <c r="I1319" s="3" t="s">
-        <v>4662</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4646</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>4635</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1320" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1320" s="3" t="s">
-        <v>4662</v>
-      </c>
-      <c r="C1320" s="3" t="s">
-        <v>4658</v>
+      <c r="B1320" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>4624</v>
       </c>
       <c r="D1320" t="s">
         <v>9</v>
@@ -50339,27 +50477,27 @@
         <v>10</v>
       </c>
       <c r="F1320" s="3" t="s">
-        <v>4674</v>
+        <v>4646</v>
       </c>
       <c r="G1320" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1320" s="3" t="s">
-        <v>4661</v>
-      </c>
-      <c r="I1320" s="3" t="s">
-        <v>4663</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4646</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>4636</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1321" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1321" s="3" t="s">
-        <v>4663</v>
-      </c>
-      <c r="C1321" s="3" t="s">
-        <v>4658</v>
+      <c r="B1321" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>4624</v>
       </c>
       <c r="D1321" t="s">
         <v>9</v>
@@ -50368,27 +50506,27 @@
         <v>10</v>
       </c>
       <c r="F1321" s="3" t="s">
-        <v>4674</v>
+        <v>4646</v>
       </c>
       <c r="G1321" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1321" s="3" t="s">
-        <v>4662</v>
-      </c>
-      <c r="I1321" s="3" t="s">
-        <v>4664</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4647</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>4637</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1322" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1322" s="3" t="s">
-        <v>4664</v>
-      </c>
-      <c r="C1322" s="3" t="s">
-        <v>4658</v>
+      <c r="B1322" t="s">
+        <v>4639</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>4624</v>
       </c>
       <c r="D1322" t="s">
         <v>9</v>
@@ -50397,27 +50535,27 @@
         <v>10</v>
       </c>
       <c r="F1322" s="3" t="s">
-        <v>4674</v>
+        <v>4647</v>
       </c>
       <c r="G1322" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1322" s="3" t="s">
-        <v>4663</v>
-      </c>
-      <c r="I1322" s="3" t="s">
-        <v>4665</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4648</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>4638</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1323" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1323" s="3" t="s">
-        <v>4665</v>
-      </c>
-      <c r="C1323" s="3" t="s">
-        <v>4658</v>
+      <c r="B1323" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>4624</v>
       </c>
       <c r="D1323" t="s">
         <v>9</v>
@@ -50426,27 +50564,27 @@
         <v>10</v>
       </c>
       <c r="F1323" s="3" t="s">
-        <v>4674</v>
+        <v>4648</v>
       </c>
       <c r="G1323" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1323" s="3" t="s">
-        <v>4664</v>
-      </c>
-      <c r="I1323" s="3" t="s">
-        <v>4666</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4646</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>4639</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1324" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1324" s="3" t="s">
-        <v>4666</v>
-      </c>
-      <c r="C1324" s="3" t="s">
-        <v>4658</v>
+      <c r="B1324" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>4624</v>
       </c>
       <c r="D1324" t="s">
         <v>9</v>
@@ -50455,27 +50593,27 @@
         <v>10</v>
       </c>
       <c r="F1324" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="G1324" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1324" s="3" t="s">
-        <v>4665</v>
-      </c>
-      <c r="I1324" s="3" t="s">
-        <v>4667</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4646</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>4644</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>4640</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1325" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1325" s="3" t="s">
-        <v>4667</v>
-      </c>
-      <c r="C1325" s="3" t="s">
-        <v>4658</v>
+      <c r="B1325" t="s">
+        <v>4643</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>4644</v>
       </c>
       <c r="D1325" t="s">
         <v>9</v>
@@ -50484,27 +50622,27 @@
         <v>10</v>
       </c>
       <c r="F1325" s="3" t="s">
-        <v>4674</v>
+        <v>4624</v>
       </c>
       <c r="G1325" s="3" t="s">
-        <v>4674</v>
+        <v>4652</v>
       </c>
       <c r="H1325" s="3" t="s">
-        <v>4666</v>
-      </c>
-      <c r="I1325" s="3" t="s">
-        <v>4668</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4641</v>
+      </c>
+      <c r="I1325" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1326" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1326" s="3" t="s">
-        <v>4668</v>
-      </c>
-      <c r="C1326" s="3" t="s">
-        <v>4658</v>
+      <c r="B1326" t="s">
+        <v>4649</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>4644</v>
       </c>
       <c r="D1326" t="s">
         <v>9</v>
@@ -50513,27 +50651,27 @@
         <v>10</v>
       </c>
       <c r="F1326" s="3" t="s">
-        <v>4674</v>
+        <v>4652</v>
       </c>
       <c r="G1326" s="3" t="s">
-        <v>4672</v>
-      </c>
-      <c r="H1326" s="3" t="s">
-        <v>4667</v>
-      </c>
-      <c r="I1326" s="3" t="s">
-        <v>4669</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4646</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>4643</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1327" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1327" s="3" t="s">
-        <v>4669</v>
-      </c>
-      <c r="C1327" s="3" t="s">
-        <v>4658</v>
+      <c r="B1327" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>4644</v>
       </c>
       <c r="D1327" t="s">
         <v>9</v>
@@ -50542,27 +50680,27 @@
         <v>10</v>
       </c>
       <c r="F1327" s="3" t="s">
-        <v>4672</v>
+        <v>4646</v>
       </c>
       <c r="G1327" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1327" s="3" t="s">
-        <v>4668</v>
-      </c>
-      <c r="I1327" s="3" t="s">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4653</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>4649</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1328" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1328" s="3" t="s">
-        <v>4670</v>
-      </c>
-      <c r="C1328" s="3" t="s">
-        <v>4658</v>
+      <c r="B1328" t="s">
+        <v>4651</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>4644</v>
       </c>
       <c r="D1328" t="s">
         <v>9</v>
@@ -50571,27 +50709,27 @@
         <v>10</v>
       </c>
       <c r="F1328" s="3" t="s">
-        <v>4674</v>
+        <v>4653</v>
       </c>
       <c r="G1328" s="3" t="s">
-        <v>4674</v>
-      </c>
-      <c r="H1328" s="3" t="s">
-        <v>4669</v>
-      </c>
-      <c r="I1328" s="3" t="s">
-        <v>4671</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4654</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>4650</v>
+      </c>
+      <c r="I1328" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1329" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="B1329" s="3" t="s">
-        <v>4671</v>
-      </c>
-      <c r="C1329" s="3" t="s">
-        <v>4658</v>
+      <c r="B1329" t="s">
+        <v>4630</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>4644</v>
       </c>
       <c r="D1329" t="s">
         <v>9</v>
@@ -50600,13 +50738,697 @@
         <v>10</v>
       </c>
       <c r="F1329" s="3" t="s">
+        <v>4654</v>
+      </c>
+      <c r="G1329" s="3" t="s">
+        <v>4655</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1330" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1330" s="3" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C1330" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1330" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1330" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1330" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="I1330" s="3" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1331" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1331" s="3" t="s">
+        <v>4658</v>
+      </c>
+      <c r="C1331" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1331" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1331" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1331" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1331" s="3" t="s">
+        <v>4656</v>
+      </c>
+      <c r="I1331" s="3" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1332" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1332" s="3" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C1332" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1332" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1332" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1332" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1332" s="3" t="s">
+        <v>4658</v>
+      </c>
+      <c r="I1332" s="3" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1333" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1333" s="3" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C1333" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1333" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1333" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1333" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1333" s="3" t="s">
+        <v>4659</v>
+      </c>
+      <c r="I1333" s="3" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1334" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1334" s="3" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C1334" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1334" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1334" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1334" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1334" s="3" t="s">
+        <v>4660</v>
+      </c>
+      <c r="I1334" s="3" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1335" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1335" s="3" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C1335" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1335" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1335" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1335" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1335" s="3" t="s">
+        <v>4661</v>
+      </c>
+      <c r="I1335" s="3" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1336" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1336" s="3" t="s">
+        <v>4663</v>
+      </c>
+      <c r="C1336" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1336" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1336" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1336" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1336" s="3" t="s">
+        <v>4662</v>
+      </c>
+      <c r="I1336" s="3" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1337" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1337" s="3" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C1337" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1337" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1337" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1337" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1337" s="3" t="s">
+        <v>4663</v>
+      </c>
+      <c r="I1337" s="3" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1338" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1338" s="3" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C1338" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1338" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1338" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1338" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1338" s="3" t="s">
+        <v>4664</v>
+      </c>
+      <c r="I1338" s="3" t="s">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1339" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1339" s="3" t="s">
+        <v>4666</v>
+      </c>
+      <c r="C1339" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1339" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1339" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1339" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1339" s="3" t="s">
+        <v>4665</v>
+      </c>
+      <c r="I1339" s="3" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1340" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1340" s="3" t="s">
+        <v>4667</v>
+      </c>
+      <c r="C1340" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1340" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1340" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1340" s="3" t="s">
+        <v>4671</v>
+      </c>
+      <c r="H1340" s="3" t="s">
+        <v>4666</v>
+      </c>
+      <c r="I1340" s="3" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1341" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1341" s="3" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C1341" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1341" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1341" s="3" t="s">
+        <v>4671</v>
+      </c>
+      <c r="G1341" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1341" s="3" t="s">
+        <v>4667</v>
+      </c>
+      <c r="I1341" s="3" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1342" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1342" s="3" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C1342" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1342" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1342" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1342" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H1342" s="3" t="s">
+        <v>4668</v>
+      </c>
+      <c r="I1342" s="3" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1343" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1343" s="3" t="s">
+        <v>4670</v>
+      </c>
+      <c r="C1343" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1343" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1343" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G1343" s="3" t="s">
+        <v>4672</v>
+      </c>
+      <c r="H1343" s="3" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1344" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1344" s="3" t="s">
         <v>4674</v>
       </c>
-      <c r="G1329" s="3" t="s">
-        <v>4673</v>
-      </c>
-      <c r="H1329" s="3" t="s">
-        <v>4670</v>
+      <c r="C1344" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1344" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1344" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1344" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1344" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="I1344" s="3" t="s">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1345" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1345" s="3" t="s">
+        <v>4676</v>
+      </c>
+      <c r="C1345" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1345" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1345" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1345" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G1345" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="H1345" s="3" t="s">
+        <v>4674</v>
+      </c>
+      <c r="I1345" s="3" t="s">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1346" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1346" s="3" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C1346" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1346" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1346" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1346" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G1346" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="H1346" s="3" t="s">
+        <v>4676</v>
+      </c>
+      <c r="I1346" s="3" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1347" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1347" s="3" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C1347" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1347" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1347" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1347" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G1347" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="H1347" s="3" t="s">
+        <v>4677</v>
+      </c>
+      <c r="I1347" s="3" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1348" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1348" s="3" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C1348" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1348" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1348" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1348" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G1348" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="H1348" s="3" t="s">
+        <v>4678</v>
+      </c>
+      <c r="I1348" s="3" t="s">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1349" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1349" s="3" t="s">
+        <v>4680</v>
+      </c>
+      <c r="C1349" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1349" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1349" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1349" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G1349" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="H1349" s="3" t="s">
+        <v>4679</v>
+      </c>
+      <c r="I1349" s="3" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1350" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1350" s="3" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C1350" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1350" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1350" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1350" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G1350" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="H1350" s="3" t="s">
+        <v>4680</v>
+      </c>
+      <c r="I1350" s="3" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1351" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1351" s="3" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C1351" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1351" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1351" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1351" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G1351" s="3" t="s">
+        <v>4671</v>
+      </c>
+      <c r="H1351" s="3" t="s">
+        <v>4681</v>
+      </c>
+      <c r="I1351" s="3" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1352" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1352" s="3" t="s">
+        <v>4683</v>
+      </c>
+      <c r="C1352" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1352" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1352" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1352" s="3" t="s">
+        <v>4671</v>
+      </c>
+      <c r="G1352" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="H1352" s="3" t="s">
+        <v>4682</v>
+      </c>
+      <c r="I1352" s="3" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1353" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1353" s="3" t="s">
+        <v>4684</v>
+      </c>
+      <c r="C1353" s="3" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D1353" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1353" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1353" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G1353" s="3" t="s">
+        <v>4685</v>
+      </c>
+      <c r="H1353" s="3" t="s">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>
